--- a/catalogue_database_3.xlsx
+++ b/catalogue_database_3.xlsx
@@ -3926,7 +3926,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>John Cooper: Nos. 3, 11, 17; One Issue without date or issue number, probably March 1993.</t>
+          <t>date not found</t>
         </is>
       </c>
     </row>

--- a/catalogue_database_3.xlsx
+++ b/catalogue_database_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,402 +424,7578 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>1. Alan Burnett Collection.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/?page_id=4327&amp;preview=true</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1
+Poetry and Writing
+1
+Poetry
+Collection of poems by Alan Burnett
+1957-1997
+2
+Essays and reflections
+Dialogues, reflections and short essays. Includes transcript of Burnett’s statement to the judge at his trial in the Sheriff Court, Glasgow for refusing to submit himself to a medical exam as part of his conscription.  Read on line
+1943-1997
+3
+Diary
+Teenage diary of Alan Burnett written between 1943 and 1946. It includes accounts of his preparation for his appearance at the Sheriff court and descriptions of his hill walking and walks around Glasgow. Also includes 8 photographs which Burnett mentions taking in his diary, a leaflet titled Popular Travel Talk Events 1945-46, and a poem written by Burnett in 1996 in response to rediscovering his teenage diary.
+1943-1996
+2
+Employment and Education
+Employment and character references for Alan Burnett from previous employers, a school report from Bernard Street Junior Secondary Public School, and two job applications written by Burnett for posts in New Zealand as a secretary and community advisor. 
+1949-1975
+3
+Correspondence
+1943 – 2012
+1
+Letters from prison
+Letters from Alan Burnett sent to his mother while in Barlinnie Prison, Glasgow and Slateford Prison, Edinburgh. Read on line.
+1943 – 1944
+2
+Letters on the death of Alan Burnett’s brothers
+Letters from Alan Burnett to his nephew and sister-in-law on the death of Alan’s brother James and letters from Alan on the death of his brother Bertie to his sister Jean and Bertie’s widow Jenny.
+1970 – 1993
+3
+Letters to sister 
+Letters from Alan Burnett sent to his sister Jean.
+1953 – 2003
+4
+Anne Oliver’s correspondence
+Two letters from Anne Oliver about the collection and Alan Burnett. One letter contains two photographs of Burnett in his old age and an inventory of the collection. Read on line.
+2012
+4
+Inksheds Journal
+A poetry and short story journal from New Zealand Writers Workshop.
+1977 – 1998
+1
+Inksheds 2
+Edited and printed by Charles Alldritt. Published by New Zealand Writers Workshop.
+Read on line.
+Sept 1977
+2
+Inksheds 5
+Edited by Maurice Turner. Published by Alan Burnett. Read on line.
+Jun 1990
+3
+Inksheds 6
+Edited by Fred Farnath. Published by Alan Burnett. Read on line.
+Nov 1990
+4
+Inksheds 7
+Compiled and edited by Gloria Stanford, Alan Burnett and Fred Farnath. Published by New Zealand Writers Workshop. Read on line.
+Nov 1991
+5
+Inksheds 8
+Compiled and edited by Gloria Stanford. Alan Burnett and Moira Valentine. Published by Stan Stanford.  Read on line
+Dec 1992
+6
+Inksheds 9
+Compiled and edited by John Davy. Tribute to Community Organisation Grants Scheme. Read on line.
+nd
+7
+Inksheds Adieu
+Edited and published by Gloria Stanford. Printed by Charles Alldritt. Read on line.
+Oct 1988
+5
+Photographs
+Photographs of Alan Burnett and his family from his birth to when he departed for New Zealand in the 1950s. View on line.
+1925-c.1950
+6
+Ephemera
+1
+Permit No. 51831
+Unknown permit featuring a photograph of Alan Burnett, his address in London Rd, Glasgow and his signature. Read on line.
+c1940s
+2
+Extract entry of birth for Alan Burnett
+Extracted from the REGISTER BOOK OF BIRTHS, for the DISTRICT of BRIDGETON, in the BURGH of GLASGOW this THIRTIETH day of January Nineteen Hundred and Twenty Five. Read on line
+1925</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1925-2012</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>2. Free Hetherington Collection.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>free-hetherington-collection</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1
+Poetry and Writing
+1
+Poetry
+Collection of poems by Alan Burnett
+1957-1997
+2
+Essays and reflections
+Dialogues, reflections and short essays. Includes transcript of Burnett’s statement to the judge at his trial in the Sheriff Court, Glasgow for refusing to submit himself to a medical exam as part of his conscription.  Read on line
+1943-1997
+3
+Diary
+Teenage diary of Alan Burnett written between 1943 and 1946. It includes accounts of his preparation for his appearance at the Sheriff court and descriptions of his hill walking and walks around Glasgow. Also includes 8 photographs which Burnett mentions taking in his diary, a leaflet titled Popular Travel Talk Events 1945-46, and a poem written by Burnett in 1996 in response to rediscovering his teenage diary.
+1943-1996
+2
+Employment and Education
+Employment and character references for Alan Burnett from previous employers, a school report from Bernard Street Junior Secondary Public School, and two job applications written by Burnett for posts in New Zealand as a secretary and community advisor. 
+1949-1975
+3
+Correspondence
+1943 – 2012
+1
+Letters from prison
+Letters from Alan Burnett sent to his mother while in Barlinnie Prison, Glasgow and Slateford Prison, Edinburgh. Read on line.
+1943 – 1944
+2
+Letters on the death of Alan Burnett’s brothers
+Letters from Alan Burnett to his nephew and sister-in-law on the death of Alan’s brother James and letters from Alan on the death of his brother Bertie to his sister Jean and Bertie’s widow Jenny.
+1970 – 1993
+3
+Letters to sister 
+Letters from Alan Burnett sent to his sister Jean.
+1953 – 2003
+4
+Anne Oliver’s correspondence
+Two letters from Anne Oliver about the collection and Alan Burnett. One letter contains two photographs of Burnett in his old age and an inventory of the collection. Read on line.
+2012
+4
+Inksheds Journal
+A poetry and short story journal from New Zealand Writers Workshop.
+1977 – 1998
+1
+Inksheds 2
+Edited and printed by Charles Alldritt. Published by New Zealand Writers Workshop.
+Read on line.
+Sept 1977
+2
+Inksheds 5
+Edited by Maurice Turner. Published by Alan Burnett. Read on line.
+Jun 1990
+3
+Inksheds 6
+Edited by Fred Farnath. Published by Alan Burnett. Read on line.
+Nov 1990
+4
+Inksheds 7
+Compiled and edited by Gloria Stanford, Alan Burnett and Fred Farnath. Published by New Zealand Writers Workshop. Read on line.
+Nov 1991
+5
+Inksheds 8
+Compiled and edited by Gloria Stanford. Alan Burnett and Moira Valentine. Published by Stan Stanford.  Read on line
+Dec 1992
+6
+Inksheds 9
+Compiled and edited by John Davy. Tribute to Community Organisation Grants Scheme. Read on line.
+nd
+7
+Inksheds Adieu
+Edited and published by Gloria Stanford. Printed by Charles Alldritt. Read on line.
+Oct 1988
+5
+Photographs
+Photographs of Alan Burnett and his family from his birth to when he departed for New Zealand in the 1950s. View on line.
+1925-c.1950
+6
+Ephemera
+1
+Permit No. 51831
+Unknown permit featuring a photograph of Alan Burnett, his address in London Rd, Glasgow and his signature. Read on line.
+c1940s
+2
+Extract entry of birth for Alan Burnett
+Extracted from the REGISTER BOOK OF BIRTHS, for the DISTRICT of BRIDGETON, in the BURGH of GLASGOW this THIRTIETH day of January Nineteen Hundred and Twenty Five. Read on line
+1925</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
         <is>
           <t>3. John Cooper Collection.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/john-cooper-finding-collection/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1
+Castlemilk Claimants Union (CCU)
+1
+Minutes
+1
+CCU meeting on 15th April
+1978
+2
+Correspondence
+1
+Letter to Divisional Director of Social Work from CCU
+1981
+2
+Letter to unknown recepient from John Cooper, CCU
+1982
+3
+Letter from Right to Work Campaign about demonstration in Brighton
+n.d.
+3
+Administrative papers Includes aims and principles, policy statements, reports, information on social security, membership card, list of contacts,  and a typed account of the relationship between the CCU and the local Social Work Dept. Read on line, PDF and other downloads.
+c.1977-c.1980
+4
+Leaflets and information for claimants Read on line,  PDF and other downloads.
+c.1977-c.1982
+5
+News cuttings on local and national claimants unions and related issues  Read Online,  PDF and other downloads.
+1975-1979
+6
+Pamphlets on claimants rights and social security
+1975-1980
+7
+Claimants Union Drumchapel Newsletter, September 1979
+8
+Welfare Rights Bulletin
+1
+36, June 1980
+2
+39, December 1980
+9
+Claimants Union Internal Bulletin. September 1978.  Read on line,   PDF and other downloads.
+10
+Claimants Newspaper / Claimants Unite!
+1
+No. 5, Autumn 1975. Read on line,   PDF and other downloads.
+2
+No. 8. Read on line,   PDF and other downloads.
+3
+No. 9.  Read on line,   PDF and other downloads.
+4
+No. 10.  Read on line,   PDF and other downloads.
+5
+No. 11.  Read on line,   PDF and other downloads.
+6
+No. 12.  Read on line,   PDF and other downloads.
+7
+No. 13, Summer 1977
+8
+No. 15
+9
+No. 16
+11
+National Campaign Against the Supplementary Benefit Review Newsletter, no. 1
+1979
+12
+Scrounger: The Claimants Paper, no. 1
+1978
+13
+The Claimant, no. 6
+n.d.
+2
+Castlemilk Community Education CentreMaterial relating to a dispute with Strathclyde Regional Council over the running and management of Castlemilk Community Education Centre. Includes correspondence, reports and news cuttings.
+1976-1979
+3
+Castlemilk Conference on the Fowler Review Includes reports and leaflets
+c.1985
+4
+Castlemilk Unemployed Workers’ Group
+1
+Minutes
+1
+27th July 1983
+2
+10th August 1983
+3
+24th August 1983
+4
+Minutes on the meeting of the Strathclyde Federation of Unemployed Workers’ Centres/Groups. 22nd August 1983
+2
+News cuttingsCuttings of stories relating to Eddie Devine and his management and resignation from Castlemilk’s Centre for the Unemployed
+1988
+5
+Campaign against Glenacre Quad car park in CastlemilkIncludes correspondence, news cuttings, photographs, posters and petition
+1976
+6
+Castlemilk community newspaperNews cuttings relating to council opposition to a Castlemilk community newspaper
+1981
+7
+Housing Material relating to disputes with housing associations and campaigns related to housing. Includes correspondence, notes, leaflets and reports relating to Castlemilk, Govanhill and the Gorbals. Also includes a poster and leaflet for the Castlemilk Sit-in at the housing office.
+c.1975-1980
+8
+Anti-Poll Tax campaign
+1
+Minutes and agendas
+1
+Castlemilk Anti-Poll Tax Union, 6th Sept. 1988
+2
+Castlemilk Anti-Poll Tax Union, 15th Sept. 1988
+3
+Castlemilk Anti-Poll Tax Union, 22nd Sept. 1988
+4
+Castlemilk Anti-Poll Tax Union, 29th Sept. 1988
+5
+Castlemilk Anti-Poll Tax Union, 6th Oct. 1988
+6
+Castlemilk Anti-Poll Tax Union, 13th Oct. 1988
+7
+Castlemilk Anti-Poll Tax Union, 20th Oct. 1988
+8
+Castlemilk Anti-Poll Tax Union agenda, n.d.
+9
+Strathclyde Anti-Poll Tax Federation, 8th August 1990
+10
+Anti-Poll Tax Forum, 15th August 1990
+2
+CorrespondenceIncludes correspondence between Tommy Sheridan and the Coopers, Strathclyde Regional Council and John Cooper, and anti-poll tax organisations and their supporters.
+1988-1994
+3
+Finances Includes receipts and lists of donations.
+1988-1990
+4
+Administrative papers Includes statements, template forms, membership cards, and notes
+1988-1991
+5
+Leaflets and posters
+c.1988-c.1991
+6
+News cuttings Stories from local and national press relating to the anti-poll tax movement
+c.1988-c.1992
+7
+Jeanette McGinn Material relating to Jeanette McGinn’s, widow of folk singer Matt McGinn, refusal to pay the community charge. Includes letter from sheriff officers to Jeanette McGinn and news cuttings relating to her non-payment.
+1989
+8
+Newspapers and newsletters
+1
+Refuse and Resist: news from local anti-poll tax groups. Nos. 1, 4, 5, 6, 7.  Read on line.
+1989-1991
+2
+Stand Firm: paper of the Trafalgar Square Defendant’s Campaign. No. 5 Read on line.
+1991
+3
+Pay No Poll Tax News. No. 2. Read on line.
+1989
+4
+Republican Worker Bulletin: bulletin of the Revolutionary Democratic Group (Scottish Committee). June issue. Read on line.
+1990
+5
+Stop the Poll Tax Bulletin. Summer issue. Read on line.
+1988
+6
+Muirhouse Community Resistance Against the Poll Tax Newsletter. Summer issue. Read on line.
+1990
+7
+Cambuslang &amp; Rutherglen Campaign Against the Poll Tax Internal Newsletter. October issue. Read on line.
+1990
+8
+Woodlands Against the Poll Tax News. Autumn issue. Read on line
+1989
+9
+EphemeraI includes anti-poll tax stickers, posters, postcards, Christmas card and pin badges.  Also includes a leaflet from Banner Tales of Glasgow which featured the Castlemilk Anti-Poll Tax Union banner.
+n.d.
+10
+Photographs Photographs of anti-poll tax campaigners at demonstrations.
+n.d.
+11
+Video DVD of STV and BBC footage of the Battle for Trafalgar.
+1990
+9
+Administrative papers A collection of papers relating to a number of anarchist groups including Glasgow Anarchist Group, Scottish Federation of Anarchists, Clydeside Anarchists, Solidarity Federation, and the Anarchist-Communist Federation. Material includes statements of aims and principles, internal bulletins, minutes and leaflets. Papers are sorted according to creating organisation. Read On Line, PDF and other downloads.
+c.1983-c.1996
+10
+Glasgow Anarchists trip to Anarquisme Exposicio Internacional, Barcelona.Material relating to a trip by Glasgow anarchists to a anarchist conference in Barcelona in September 1993. Material includes correspondence, literature from the conference, photographs, financial records of the trip and ephemera including postcards, campaign material from CNT and a CNT t-shirt. Read On Line,  PDF and other downloads.
+1993
+11
+Glasgow Solidarity Centre
+1
+Administrative papers Includes statements of aims and principles and proposals for meetings.
+c.1995
+2
+Financial records Includes bank statements and invoices
+c.1996-1997
+3
+Correspondence Letter from Solidarity Treasurer to Carol and John Cooper and letter from Robert Lynn to the centre.
+1994-1995
+4
+Mailouts and newsletters. Read on line,  PDF and other downloads.
+c.1995
+5
+Leaflets Leaflets produced by the Solidarity centre and other campaign leaflets
+n.d.
+12
+The Miners’ Strike
+c.1984-1985
+1
+Leaflets Leaflets produced by Glasgow anarchist groups and other organisations supportive of the miners.
+2
+Newsletters
+1
+Counter Information: News from the picket line. No. 3.
+2
+Militant Miner
+3
+News cuttings Reports relating to the miners’ strike and action taken in solidarity with the miners.
+4
+Posters Posters produced by a number of groups supportive of the miners.
+5
+EphemeraI includes Christmas card and stickers.
+6
+Price Waterhouse Material relating to the occupation of Price Waterhouse offices in Glasgow to protest against the sequestration by the firm of the South Wales Miners’ funds and the subsequent prosecution of the occupiers.    Includes a typed account of the occupation entitled, “The Day we took the White Tower.” by Brian Biggins.
+1984-1985
+1
+News cuttings Reports relating to the occupation and subsequent trial.
+2
+Leaflets distributed during and after the occupation
+3
+Press release Statement by the occupying group to the press outlining their intent and motivation.
+4
+Precognitions of witnesses from the prosecution of the occupiers
+5
+Social work report on John Cooper(access status: closed without permission from data subject)
+13
+Anarchist Summer School and Dayschool
+1
+Administrative papers Includes minute book, financial records, registration details, lists of attendees, workshop timetables, accommodation and volunteering forms and other papers relating to the organisation of the summer school
+1993
+2
+Leaflets for the Anarchist Summer School. Read on line,  PDF and other downloads.
+1993-2003
+3
+Anarchist Summer School, Glasgow, Scotland. A review by Ian Heavens and Jack Campin.
+1993
+4
+Album with thirty nine colour photographs of the event.
+1993
+14
+Glasgow Anarchist Dayschool A leaflet promoting the dayschool and a pamphlet about patriarchy.
+2003
+15
+Free Universit yConsists of a small collection of leaflets and newsletters relating to the Free University
+1990-1991
+16
+Education Material relating to anarchist approaches to education. Includes papers relating to the Educational Workers Network, Castlemilk Philosophical Inquiry Group and an event titled ‘School and Politics of Obedience in the McLellan Galleries, Glasgow.
+1991-2007
+17
+Save Netherton Primary School Campaign
+1
+Administrative papers Includes notes from meetings, policies for meetings, lists of contacts, and accounts of the activiists role in the campaign.
+c.1995
+2
+Correspondence Correspondence from the protestors, Netherton Primary School and Glasgow City Council to parents of children in the school.
+1995-1996
+3
+Reports by Glasgow City Council on education policy. Includes a report by Netherton Action Group in response to a council consultative document.
+1996
+4
+News From Netherton Headline: Victory for parent power!  Read On line,   PDF and other downloads.
+n.d.
+5
+Campaign material Includes leaflets, posters and badges.  Read On Line,  PDF and other downloads.
+18
+School closure campaigns Material from a variety of campaigns against school closures. Includes material relating to school closures in North Lanarkshire, Glasgow and East Ayrshire. Material includes news cuttings, photographs, newsletters, leaflets, a notice to occupiers of St Paul’s Primary School, Hurlford from East Ayshire council and minutes from a meeting of meeting of Castlemilk Save Our Schools &amp; Services. Read on line,   PDF and other downloads,  Read On Line,   PDF and other downloads.  
+c.1996-c.2010
+19
+Kinning Park Neighbourhood Centre campaign Material relating to a campaign against the closure of Kinning Park Neighbourhood Centre. Includes leaflets and a newsletter.Sit-in poster,Read on line,  PDF and other downloads.
+1996
+20
+Correspondence Series of correspondence from individuals involved or interested in the anarchist movement to John Cooper. John Cooper’s name and address was included in many anarchist publications as a contact in Glasgow hence a large volume of letters from people expressing an interest in or a desire to join the anarchist movement in Glasgow. Also includes a number of letters written to Robert Lynn,
+and letters from: 7:84 Theatre Company; First of May, Left Bookshop &amp; Meeting Place; Belts &amp; Braces; Claimants Union, Scottish Region; Libertarian Socialist Group, Aberdeen; Rising Free; Friends of Astrid Proll; Workers’ Education Association; Cienfuegos Press; Anarchist Workers Alliance; Belfast Anarchist Collective; Authority/Kronstadt Kids; Hull Anarchist/DAM Group; DAM, Manchester: Geordie Work Experience; Robert (Bobby) Lynn and others.
+c.1976-2012
+21
+Glasgow Solidarity Network Includes lists of contacts, leaflets, minutes of meetings, strategy papers, news cuttings and information from various sources, including Glasgow City Council, on housing problems in Govanhill.
+c.2008-2010
+22
+Workers’ City Small number of items relating to Workers’ City and criticism of Glasgow’s City of Culture 1990. Inlcudes news cuttings, photographs, postcards and correspondence.
+1990-1991
+23
+Class War Material relating to Scottish Class War groups. Includes leaflets and internal bulletins.
+1991-2005
+24
+Glasgow Autonomous Projec tLeaflets produced by Glasgow Autonomous Project
+n.d.
+25
+Anarchy in the UK Leaflets and itineraries for an anarchist conference held in London.
+1994
+26
+Scottish Legal Action Group Material relating to Scottish Legal Action Group and legal services in Glasgow. Includes general information on available services and information about a conference on the future provision of legal services in Glasgow.
+1980-1984
+27
+Anarchist bookshops Material on anarchist bookshops, book fairs, and book launches from around the UK. Includes leaflets, catalogues and news cuttings. Read on line, PDF and other downloads.
+1980-2011
+28
+Theatre Material related to anarchist theatre groups and performances.
+c.1978-1979
+29
+Obituaries Obituaries and material from funerals of a number of individuals associated with the anarchist movement including Farquhar McLay, John Taylor Caldwell, Robert Lynn, (two copies) John Prebble, Donald McLay and Cathie McLay
+1996-2011
+30
+Persons unknown trial ‘Persons unknown’ was the name given to the trial of five anarchists at the Old Bailey on charges of conspiracy to cause explosions. Includes pamphlets, leaflets and news cuttings relating to the trial.
+1978-1979
+31
+Aubrey Berry Campbell Case Material relating to the ‘ABC trial’, the prosecution of two journalists and a signals intelligence officer for breaching the Official Secrets Act. Includes correspondence from the ABC Defence Committee to John Cooper, bulletins and press briefings, and news cuttings.
+1978
+32
+Anti-Job Seekers AllowanceMaterial on campaigns against the introduction of the Job Seekers Allowance and material related to other aspects of the benefits system and claimant support groups. Includes leaflets, pamphlets, news cuttings, and other campaign literature.
+c.1996
+33
+Anti-Criminal Justice Act Material relating to campaigns against the introduction of the Criminal Justice Act. Includes leaflets,pamphlets and information on a dispute between the Scottish Alliance Against the Bill and the National Coalition Against the Bill.
+c.1994
+34
+Anti-Cuts material Material relating to anti-cuts campaigns. Predominately from campaigns against Conservative government cuts in the 1990s but also includes anti-cuts material from campaigns against the Conservative and Liberal Democrat coalition government’s programme of cuts. Includes leaflets, pamphelts and other campaign literature.
+c.1996-2011
+35
+Industrial Workers of the World Material relating to IWW including a number of leaflets, pamhlets and badges. Read On Line,  PDF and other downloads. Read on line,PDF and other downloads.
+n.d.
+36
+Tommy Sheridan and Scottish Militant Labour Material relating to Tommy Sheridan, Scottish Militant Labour, Scottish Socialist Alliance, Scottish Socialist Party, and Solidarity. Includes news cuttings and leaflets. Read on line,   PDF and other downloads.    Read Online,  PDF and other downloads.
+c.1991-2011
+37
+Anti-nuclear campaigns Material from various anti-nuclear campaigns including CND, Faslane Peace Camp, Scottish Campaign to Resist the Atomic Menace, and Glasgow Anti-Nuclear Groupd. Includes leaflets and other campaign literature.            Read on Line, PDF and other downloads.
+c.1979-2000
+38
+Anti-Election Campaigns Small collection of leaflets and news cuttings on anti-election and anti-politician campaigns. Read online,  PDF and other downloads.
+n.d.
+39
+Mayday Material relating to various Mayday events. Includes leaflets and pamphlets.May Day 1998 –cover, pages 2/3, page 4, 2000, cover, Page 2, 2000, front, back, 2004, front, front, back,
+c.1998-2004
+40
+Anti-Monarchy material Small collection of anti-monarchy leaflets.No’s. 40i, 40ii, 40iii, 40iv.
+c.1998
+41
+Graham Meldrum Memorial Campaign Material relating to a campaign for safer working environments after the death of Graham Meldrum in a workplace accident. Includes correspondence with the Scottish Executive, the Crown Office and Procurator Fiscal Service and solicitors. Also includes information about the campaign.Read on line, PDF and other downloads.
+c.2006-2007
+42
+McLibel Support Campaign Material relating to the McLibel Support Campaign. Includes posters, leaflets, stickers and news cuttings. Read on line, PDF and other downloads.
+c.1996
+43
+Fire Brigade Union strike material Includes leaflets and stickers from the FBU strike. No’s 43i, 43ii, 43iii, 43iv, 43v, 43vi, 43vii, 43viii, 43ix, 43x, 43xi, 43xii, 43xiii, 43xiv, View All
+2002
+44
+Hands Off Our Water Campaign Material related to the anti-water privatisation campaign. Includes leaflets and posters. No’s 44i, 44ii, 44iii, 44iv, 44v, 44vi,
+n.d.
+45
+Pollok Free State Small collection of leaflets and news cuttings relating to Pollok Free State and M77 protestors. Read On Line,  PDF and other downloads. Read on line,  PDF and other downloads.
+1995
+46
+Elspeth King Defence Committee Small collection of leaflets and news cuttings relating to the Elspeth King Defence Committee.  Also includes a leaflet for the Calton Weavers Memorial event introduced by Elspeth King.  Nos:     46i, 46ii, 46iii, 46iv. 
+1990
+47
+Save Glasgow Green Campaign to stop private development on Glasgow Green. Includes a leaflet, petition, fact sheet and newsletter. Read On Line, PDF and other downloads.
+1990
+48
+Paddy’s Market Includes a history of the market, a news cutting on its future and the minutes from a meeting of Glasgow City Council’s Central Area Management Committee relating to the market. Read On Line,  PDF and other downloads.
+1987
+49
+News cuttings and articles Articles and newspaper cuttings on a variety of topics relating to anarchist politics and activities. Includes a folder of news cuttings on mismanagement in Glasgow City Council, news cuttings on state secrecy, and articles and pamphlets written by members of the anarchist movement on topics ranging from feminism and pornography to the Spanish revolution. Read Online, PDF and other downloads.
+c.1977-2010
+50
+Leaflets Collection of leaflets promoting anarchism and anarchist events and from a variety of campaigns. These leaflets provide an account of the breadth of campaigns John Cooper and other anarchists took an interest in. Batch 1, Read on line,  PDF and other downloads. Batch 2, Read on line,  PDF and other downloads, Batch 3, Read on line,  PDF and other downloads.
+c.1975-2010
+51
+Stickers and badges A collection of stickers and badges from various campaigns.  Read Online,PDF and other downloads.
+n.d.
+52
+Publications and pamphlets  Download  Thumbnails.Nos.   23,  24,  39,  47, 48,  49, 50,  53.
+1
+Women in the Spanish Revolution. Liz Willis, Solidarity Pamphlets no. 48. Read on line, Read as a PDF Courtesy of Libcom.
+1975
+2
+On Spontaneity and Organisation. Murray Bookchin, Solidarity Pamphlet no. 49.  Read on line, Read as a PDF. Courtesy of Libcom.
+1975
+3
+The Crisis of Modern Society. Paul Cardan, Solidarity Pamphlet no. 23.  Read on line,  Coutesy of Libcom.
+1965
+4
+From Bolshevism to the Bureaucracy. Paul Cardan, Solidarity Pamphlet no. 24.  Read on line, Courtesy of Libcom.
+n.d.
+5
+Under new management? The Fisher-Bendix Occupation. Solidarity Pamphlet no. 39.  Read on line, Read os a PDF. Courtesy of Libcom.
+1972
+6
+Trade Unionism or Socialism. John Zerzan, Solidarity Pamphlet no. 47,  Read on line,   Read as a PDF.  Courtesy of Libcom.
+n.d.
+7
+Contribution to the critique of Marx. John Crump, Solidarity Pamphlet no. 50.  Read on line, Courtesy of Libcom.
+1976
+8
+On the Buses. Penny Fair, Solidarity Pamphlet no. 53.  Read as a PDF. Courtesy of Libcom.
+1976
+9
+A Public Nuisance: Tales of adventure &amp; a spirit of revolt, Glasgow anarchists 1974 to 1986. Jim McFarlane.
+n.d.
+10
+Workers’ Control. Syndicalist Workers’ Federation Pamphlet.   Read Online,  PDF and other downloads.
+n.d.
+11
+High Intensity Subversion. Ronin, Cienfuegos Press.  Front Cover.
+1981
+12
+Festivals: A survival guide. Festival Welfare Services.   Front Cover.
+n.d.
+13
+The Industrial Relations Bill: A declaration of war. Peter Hampton, IMG Publication. Front Cover.
+n.d.
+14
+The Workers’ Committee: An Outline of its Principles and Structure. J.T. Murphy, Re-prtints in Labour History no. 1. Read on line: courtesy of www.marxists.org
+1972
+15
+The Miners’ Next Step: Being a Suggested Scheme for the Re-organisation of the Federation. Issued by the Unofficial Reform Committee, Reprints in Labour History no. 4. Read on line: courtesy of libcom.org
+1973
+16
+Choice and “The Welfare State”. Richard M. Titmuss, Fabian Tract 370.  Read on line, courtesy of London School of Economics.
+1966
+17
+Poverty, Socialism, and Labour in Power. Peter Townsend, Fabian Tract 371.  Read on line, courtesy of London School of Economics.
+1966
+18
+A Selection of Cartoons by Oisin.  Read on line,   PDF and other downloads.  Front Cover.
+1978
+19
+Bratach Dubh Anarchist Pamphlets: no. 1, Anarchism and the national liberation struggle, by Alfredo M. Bonanno, 2 copies, reprinted edition, January 1978 &amp; revised edition 1981; no. 2, Critique of Syndicalist Methods, Trade Unionism to anarcho-syndicalism by Alfredo M. Bonanno; no.3, workers’ autonomy and no.8, For an Anti-Authoritarian Insurrectionist International – Proposal for a Debate. Elephant Editions.
+1978-1993
+20
+Anarchism and Selfishness. Donald Rooum. Front Cover.
+1987
+21
+Introduction to the Anarchist Communist Association.  Read on line, courtesy of Libcom.
+1979
+22
+Anarchist Economics: an alternative for a world in crisis. Abraham Guillen. Read on line, courtesy of Zabalaza Books.
+n.d.
+23
+CIA Briefing. Agnee &amp; Hosenball Defence Committee  Front Cover.
+1975
+24
+Astrid Proll: the case against her extradition. Friends of Astrid Proll. Front Cover.
+n.d.
+25
+Introduction to Social Revolution. Read on line, courtesy of Libcom.
+n.d.
+26
+The Organisational Platform of the Libertarian Communists. Anarchist Workers Association.  Read on line: courtesy of theanarchistlibrary.org
+1975
+27
+Freedom for Astrid Proll. Friends of Astrid Proll. Front Cover.
+n.d.
+28
+Covert Action Against Phil Agee: what next? Agee-Hosenball Defence Committee. Front Cover.
+n.d.
+29
+Jamaica Destabilised. Agee-Hosenball Defence Committee. Front Cover.
+n.d.
+30
+The Tyranny of Structurelessness. Jo Freeman. Read on line, courtesy of Jo Freeman.
+n.d.
+31
+Portugal: Between two stools. SR Group Publication. Front Cover.
+1977
+32
+The Enslavement of the Working Class in China. Dirk Wouters, Socialist Revolution. Front Cover.
+1976
+33
+Libraries Are Ours: The Public Library as a Source of Information for Community Groups. Barbara Darcy and Ashok Ohri. Front Cover.
+1978
+34
+Written in Flames: Naming the British Ruling Class. I-Spy Productions.  Read on line,  courtesy of Libcom.
+n.d.
+35
+Doing Business: a mischief-makers handbook. SPIG/1 in 12 Publications.  Read on line,   PDF and other downloads.       Front Cover.
+1987
+36
+Out from beneath the boot. Neruda Press.  Read on line,   PDF and other downloads.        Front Cover. 
+1993
+37
+Homenaje a Pablo Neruda! Neruda Press.  Read on line,   PDF and other downloads.     Front Cover.
+n.d.
+38
+Anarcho Syndicalism in Puerto Real. Solidarity Federation/La Presa publication. Read on line. courtesy of Libcom.
+1995
+39
+Take to the streets! A Short Anthology of Poetry Selected by Nick Sims for Streetland 30 April – 2 May 2010.  Read on line,   PDF and other downloads.  Front Cover.
+2010
+40
+Why aid? Sky and Trees Booklet. Front Cover.
+n.d.
+41
+Anarchist Year Book. Phoenix Press. Front Cover.
+1996
+42
+From an Egoist’s Windowpane. Contains signed dedication to John Cooper by Robert Lynn. Front Cover.
+n.d.
+43
+Why I Won’t Vote. Front Cover.
+1964
+44
+Vote: What For? Robert Lynn. Front Cover.
+n.d.
+45
+Egoism. John Beverley Robinson.  Read on line, courtesy of Anarchist Library   Front Cover.
+1988
+46
+The Art of Anarchy. Flavio Gostantini. Front Cover.
+1986
+47
+Os Cangaceiros: Freedom is the crime which contains all crimes and some texts about recent movement in France.   Read on line, courtesy of Anarchist Library.  Front Cover.
+1985
+48
+A Scottish Shtetl: Jewish Life in the Gorbals 1880-1974.  Read on line,   PDF and other downloads.Front Cover.
+n.d.
+49
+A Guide to Workplace Bulletins. An SWP Pamphlet.  Read on line,   PDF and other downloads.   Front Cover.
+n.d.
+50
+Ways and Means: A directory of alternative information. Student Community Action.  Read on line,   PDF and other downloads. Front Cover.
+1978.
+51
+Scottish Prisons: Lift the lid! A Fight Racism! Fight Imperialism! Pamphlet. Front Cover.
+1985
+52
+Re-Fuse: Further dialectical adventures into the (un)known. Nick Brandt. Front Cover.
+n.d.
+53
+The Sex Discrimination Act and the Struggle for Women’s Rights. A Socialist Woman Publication.  Read on line,   PDF and other downloads.        Front Cover.
+n.d.
+54
+The Myth of Motherhood. Lee Comer.  Read on line, courtesy of University of Wollongong Australia.   Front Cover.
+n.d.
+55
+Families. Linda Gordon. Front Cover.
+1970
+56
+Kinder, Kuche, Kirche as Scientific Law: psychology constructs the female. Naomi Weisstein.  Read on line, courtesy of International Archives of the Second Wave Feminism.        Front Cover.
+n.d.
+57
+Law (?) and Orders: the story of the Belfast curfew 3-5 July 1970. Sean Og O Fearghail.  Read on line, Courtesy of Cedar Lounge.  Front Cover.
+1970
+58
+Anarchism: the feminist connection. Peggy Kornegger.  Read on line, courtesy of Anarchist Library.    Front Cover.
+n.d.
+59
+Let the gabblers gabble! Or, how and why you should ignore Marxist intellectuals. Orgonauts.  Read on line,   PDF and other downloads.   Front Cover.
+n.d.
+60
+Mutinies: 1917-1920. Dave Lamb.  Read on line,  courtesy of Libcom.   Front Cover.
+n.d.
+61
+Towards a Citizens’ Militia: Anarchist Alternatives to Nato &amp; the Warsaw Pact. IRSM/1st of May Group.  Read on line,  courtesy of Libcom.  Front Cover.
+1980
+62
+Once Upon A Time There Was A Place Called Nothing Hill Gate… A Critical History of the Notting Hill Carnival, Notting Hill Gate as a whole, and beyond.  Read on line, courtesy of Revolt Against Plenty.  Front Cover.
+1988
+63
+GRYPS: youth information and counselling service. Front Cover.
+1978
+64
+The Equal Pay and Sex Discrimination Acts: Report from Scotland. Margaret Marshall &amp; Chris Aldred. Front Cover.
+n.d.
+65
+The Great Sales Robbery: The case against selling council houses.  Read on line, courtesy of European Services Strategy.   Front Cover.
+n.d.
+66
+Lie of the land: Community Land Act, Land Nationalisation Betrayed. Land Campaign Working Party.  Read on line,   PDF and other downloads.   Front Cover.
+n.d.
+67
+Who needs nuclear power? A comprehensive guide to nuclear power produced by Students Against Nuclear Energy. Front Cover.
+   n.d.
+68
+The Nuclear Disaster. Counter Information Services.  Read on line,   PDF and other downloads.  Front Cover.
+n.d.
+69
+John MacLean, Martyr of the Class Struggle, The Man, His Work, and His Worth by Guy A. Aldred. Published by Bakunin Press.
+1932
+70
+Historical Materialism by Frederick Engels. Published by the Socialist Labour Press, Edinburgh.
+1902.
+71
+Definitions of Economic Terms by Karl Marx. Published by Socialist Labour Press, Glasgow.
+n.d.
+72
+Wage, Labour and Capital by Karl Marx, with an introduction by Frederick Engels. Published by the Socialist Labour Press, Glasgow.
+n.d.
+73
+The Royal Commission. Scottish Poor Law Reform. Summary of Reports and Chairman’s Memorandum.
+n,d.
+74
+Crisis on Clydeside by Allen Hutt, with an introduction by Hugh Hinshelwood, A.E.U. Published by Workers’ Bookshop.
+1934.
+75
+The Radical Revolt. A Description of the Glasgow Rising in 1820 – The March and Battle of Bonnymuir by Andrew Hardie (Secretly) in prison and smuggled out.  Read on line. Courtesy of Socialist Courier.
+n.d.
+76
+On Liberty by John Stuart Mill. No. 13, Rationalist Press Association (R.P.A.) Cheap Reprints.
+1915.
+77
+Miscellany. A collection of political pamphlets including: Opportunism and Social – Chauvinism by V.I. Lenin; Britain’s Workers, Leaders in the struggle for Socialism by the University Labour Federation and others.
+n.d.
+78
+The Martyrs of Puddler. A Guide to the Museum in the Memorial Cottages, Puddler, Dorset. Published by the Trades Union Congress.  Read on line,   PDF and other downloads.
+n.d.
+79
+On the Poverty of Student Life, Situationist International. Read on line. Courtesy of Library of Nothingness.
+n.d.
+80
+Bust Book. The People v. Regina… About Law. Published by Action Books.  Read on line,   PDF and other downloads.
+1970.
+81
+Squatter’s Handbook July 1974.  Read on line,   PDF and other downloads.
+1974.
+82
+The Friends of Durruti – A Chronology by Paul Sharkey.  Read on line.  Courtesy of Scribd.
+1984.
+83
+The Case for Constructive Peace by Aldous Huxley, 50th Anniversary No. 1 Voices from the Past. Published by The Peace Pledge Union.  Read on line.  Courtesy of Peace Pledge Union.
+1984.
+84
+Anarchist International Action Against Francoism from Genoa 1949 to the First of May Group by Antonio Téllez Solà, translated by Paul Sharkey; with a tribute to Téllez by Stuart Christie. Published by Kate Sharpley Library.  Read on line.  Courtesy of Kate Sharpley Library
+2010.
+85
+The Real Rulers of Scotland by Thomas Burns. Issued by The London Scots Self Government Committee.  Read on line,   PDF and other downloads.
+1940
+86
+Armageddon Incorporated. The True Story of the Jehovah Witnesses. Their Superstitions, Charlatanism, Sincerities, Fanaticisms, and Anti-Militarism exhibited and exposed by Guy A. Aldred.  Read on line,   PDF and other downloads.
+1941
+87
+A Call to Manhood and other Studies in Social Struggle. 20 Essays by Guy A. Aldred.  Read on line,   PDF and other downloads.
+1944
+88
+The Two Nations. A May-Day Message. The text of a Speech delivered on May 5th 1963 in Central Halls Glasgow.  Read on line.PDF and other downloads.
+1963
+89
+Socialism and Marriage by Guy Aldred. Published by Hobnail Press.  Read on line. Courtesy of The Sparrows Nest.
+2006
+90
+On Law by William Godwin. Published by Freedom Press.  Read on line,   PDF and other downloads.
+n.d.
+91
+Anarchism and Outrage, Freedom Pamphlet, (Reprinted from “Freedom” for December 1893.)  Read on line,   PDF and other downloads.
+1909
+92
+Freedom is it a Crime? The Strange Case of Three Anarchists Jailed at the Old Bailey, April 1945. Two Speeches by Herbert Read. Foreword by E. Silverman. Published by Freedom Press Defence Committee.  Read on line,   PDF and other downloads.
+1945
+93
+The Philosophy of Anarchism by Herbert Read. Published by Freedom Press.  Read on line. Courtesy of  Anarchy Archives.
+1942
+94
+The Education of Free Men by Herbert Read. Published by Freedom Press.  Read on line,   PDF and other downloads.
+1944
+95
+Bakunin &amp; Nechaev by Paul Avrich. Published by Freedom Press.  Read on line.   PDF and other downloads.  Back cover.  Read on line.   PDF and other downloads.
+1974
+96
+Freedom Pamphlets Fighting the Revolution No 1. N. Makhno, B.Durruti, E.Zapata, 2 editions 1971 and 1985.  No. 2. Peter Kropotkin, Louise Michel and The Paris Commune.  Read on line.   PDF and other downloads.
+1971-1985
+97
+Towards Anarchism by Errico Malatesta. Published by Drowned Rat Collective.  Read on line,   PDF and other downloads.
+1985
+98
+The Socialist Reconstruction of Society by Daniel de Leon. Published by the Socialist Labour Press.  Read on line.  Courtesy of Marxist Internet archive.
+n.d.
+99
+“My Social Credo” by G.P. Maximoff. Published by Boris Yelensky Book Fund.
+1973
+100
+The Relevance of Anarchism to Modern Society by Sam Dolgoff. Published by Soil of Liberty.  Read on line,   PDF and other downloads.
+n.d.
+101
+The American Labor Movement: A New Beginning by Sam Dolgoff. Published by Resurgence.International Blacklist 1983.   Read on line,   PDF and other downloads. An Anti-Authoritarian Directory. Published by Blacklist Group.
+1980
+102
+International Blacklist 1983. An Anti-Authoritarian Directory. Published by Blacklist Group.  Read on line.  Courtesy of Connections.
+1983
+103
+The Rise and Repression of Radical Labor USA – 1877-1918 by Daniel R. Fusfeld. Published by Charles H. Kerr Publishing Company
+1980
+104
+Facts on Spanish Resistance No. 1: Unamuno’s Last Lecture; Catalan Manifesto and Spanish Prisoners and what can be done.
+n.d.
+105
+Chartism by F.C. Mather. Published by The Historical Association, London, (reprinted with revised postscript 1972). Two copies.
+106
+France – May ’68. Produced by the “Calderwood 15”.
+107
+The Bourgeois role of Bolshevism It’s </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1975-1979</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>4. K. M. Glasgow Collection.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/960-2/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1
+Serials
+1
+Adbusters: Journal of the mental environment.Nos. 14, Spring 1996 (15), Winter 1996 (16), Summer 1997 (17), Autumn 1997 (18), Nos. 19-21, 24-26Nos. 27-32.
+1995-2000
+2
+Subversion. Labouring in Vain. Three-monthly bulletin from Manchester. Issue deals with the Labour Party. No number/issue indicated Mexico is not only Chiapas nor the rebellion in Chiapas is a Mexican affair. Reprinted by Subversion, no author given. Reprint from October 1995.  Read on line,   PDF and other downloads.
+Circa early 1990s; 1995
+3
+Fontenis, Georges. Manifesto of Libertarian Communism. Anarchist Communist Federation. London : Anarchist Communist Editions. No. 3. Read on line,   PDF and other downloads.
+1989
+4
+Red &amp; Black. An anarchist journal. Vol. 10, Winter 1981.Grancharoff, Jack and Couch, Jim. (eds). Sydney : Red &amp; Black Printers. Contains contributions by Grancharoff, Gorelik, Avrich, Tcherkessoff and Bosch
+1981
+5
+Libertarian Analysis. Vol. 1 , Number 4, December 22. New York. Articles by Sam Dolgoff, Milton Shapiro, Joel Spring, J.M. Frager, Gustav Landauer, Leonard Liggio
+1971
+6
+Anarchy 54 Vol. 5 (8), August. London : Freedom Press. Articles by Ellerby, Bubuer, C.W., Landauer, J.T. Read on line. Courtesy of Sparrows Nest.
+1965
+7
+Bratach Dubh Anarchist Pamphlets. No. 1-4, No 8. Elephant Editions. Read on line,   PDF and other downloads. Covers only, Read On Line,  PDF and other downloads.
+c 1980s, 1993
+8
+Maximoff, G.P. Syndicalists in the Russian Revolution. Direct Action Pamphlets. No. 11, Read on line,   PDF and other downloads.
+n.d.
+9
+Spectacular Times. Buffo! A short anthology of political pranks and anarchic buffoonery. London : Freedom Press. No issue or volume number, Read on line,   PDF and other downloads.
+1982
+10
+Kermack, Alison. Writing Like a Bastard. Edinburgh : Rebel Inc. Publication. Rebel 100 Series No. 6. Poetry
+1993
+11
+State Research. Index vol.2 and bulletin nos. 13-15,  Read on line,   PDF and other downloads.  30,  Read on line,   PDF and other downloads.
+1978-1982
+12
+Radical America. Vol. 5, no. 6, pages 1-33,  Read on line,   PDF and other downloads.  Pages 34-91,  Read on line,   PDF and other downloads.
+1971
+13
+On Target: A socialist journal concerned with the middle east. No. 1.
+1975
+14
+Little Free Press. Nos. 91-92, Read on line,   PDF and other downloads.
+n.d.
+15
+Proletarian Gob. Nos. 2-3.  Read on line,   PDF and other downloads.
+1993-1994
+16
+Discussion Bulletin. Published by the Discussion Bulletin Committee, I.U.C.E. No. 66,  Read on line,   PDF and other downloads. No. 73.  74-75,  Read on line and other download options.
+1994-1996
+17
+Centre International de Recherches sur l’ Anarchisme. Bulletin No. 49, Read on line,   PDF and other downloads. 50.
+1993-1994
+18
+Echanges: Bulletin of the Network ‘Echanges et Mouvement’. Nos. 48,  Read on line,   PDF and other downloads.  49-51. 52,  read on line,   PDF and other downloads.  53-67.  68,  Read on line and other download options.  69-71. 72-75,  Read on line and other download options. 76-79. 80-81, Read on line and other options.
+1986-1996
+19
+Socialist Studies. The Socialist Party of Great Britain. No. 8. Read on line. Courtesy of Socialist Studies.
+c.1993
+20
+Etcetera: correspondencia de la guerra social. Nos. 22-25, 27.
+1993-1996
+21
+Telos. No. 30, Winter 1976/77. St Louis : Telos Press Ltd. Editor Paul Piccone. Contributions by inter alia Enzensberger, Kovel, Poster, Siebert, Hearn. Read on line. Courtesy of Telos Press.
+1977
+22
+Orchid. Interdisciplinary Transactions. Special First Issue. Collectively produced by Archite(x)tures. Winter Vol. 1/1. ISSN 09651926. Edited by Elizabeth Bartley. Glasgow : Clydeside Press. Read on line and other options.
+1992
+23
+Network News. The Binary Tribe Issue. No. 8. Lostwithiel : Earthly Delights
+c.1995
+24
+Armchair. No. 4, Spring
+1993
+25
+Mini-Memes. Floating Leaves and False Economies. Preface by NORMAN JOPE. Theme is benefits. No. 5. Plympton : MEMES. Read on line and other options.
+1993
+26
+How Socialist is the Socialist Workers party? Manchester : Wildcat. August. Read on line,   PDF and other downloads.
+1985
+27
+Lip and the Self-managed Counter-revolution. From NEGATION, No. 3. Detroit : Black &amp; Red
+1975
+28
+Les Dossiers de L’Histoire. May/June, No. 13. French journal about the history of anarchism in the context of May and June 1968. Short outline of the history with images of key events and key people
+1978
+29
+Searchlight South Africa. A Marxist Journal of South African Studies. No.1. No.2, Read on line. No.3. No.4, Read on line. No.5. No.6 Read on line. All courtesy of Digital Innovation South Africa.  1988-1991. ISSN 09543384
+1988-1991
+30
+m/f. A feminist journal, No 1. London
+1978
+31
+Common Sense. Journal of Edinburgh Conference of Socialist Economics. No.10,  No.15,  Edinburgh : Common Sense. ISSN 0957240X.
+1991-1994
+32
+Processed World. No.4,  Read on line and other options. No.6, Read on line and other options. No.10, Read on line and other options.  San Francisco. ISSN 07359381 The full; run of this magazine is available as read on line at archive.org.
+1982-c.1983
+33
+Camerawork. No. 26, April. London : Camerawork. ISSN 03081672. Read on line. Courtesy of Four Corners Archive, full run of this magazine is available at, Four Coners Archive.
+1983
+34
+Stigma. Nos. 3, 4. Glasgow : School of Art S.R.C.
+1983
+35
+Calgacus. The Scottish review of politics, current affairs, history and the arts. Vol. 1, No. 2. Summer
+1975
+36
+New Edinburgh Review. “The English Nation”. No. 37.
+1977
+37
+Alba. National and International Contemporary Art from Scotland. Summer issue.
+1986
+38
+Discourse. Nos. 1, 2. Journal of Glasgow Philosophical Society at Glasgow University.
+1988
+39
+West Coast Magazine. Stories, Poems, Reviews. Nos. 1, 3, 9, 16. ISSN 0963732X. Glasgow.
+1988-c.1990s
+40
+Open World. No. 1. Open World Poetics. Glasgow.
+1991
+41
+Dead Trees. No. 3. Comics. Published by Graham Johnstone and Kevin Hobbs, Glasgow. Cover only. Courtesy of Graham Johnstone Art.
+c.2000s
+42
+The Scotia Folk &amp; The Clutha Clipe. The Glasgow Watch: and Voice of the Stockwell Village. Special Edition to celebrate the Bi-Centenary of The Scotia Bar.
+n.d.
+43
+More Power Now! A Marxist Climbing Magazine. Short stories. Sheffield : Headache Production.
+c.1986
+44
+Counter Information. Grass-roots resistance in Scotland. Nos. 3, 17 supplement, 22 supplement, 24, 25, 38, 41, 47, 48, 51, 54, 55, 57, 58. Almost full run available to read on line at Archive.org and  Sparrows Nest.
+1987-2004
+45
+Inside Info. Prisoners of class conflict, injustice and oppression, struggles within prison walls. Nos. 1, 2, 3, 4, 6, 7, 8, 9.
+1989-1990
+46
+Here and Now. Nos. 6, 7/8, 9, 10, 11, 12, 13, 14, 15, supplement to 16/17, 18. Glasgow: Here and Now Collective in the West of Scotland.
+1989-1998
+47
+Fifth Estate. Detroit. ISSN 00150800Vol. 21, No. 1; Vol. 23, No. 1;  Read on line,   PDF and other downloads. Vol. 30, No. 1; Vol. 31, No. 1,  Read on line,   PDF and other downloads. Vol. 31 No.2, Vol. 32, Nos. 1, Read on line,   PDF and other downloads.  Vol. 32, No.2,  Read on line,   PDF and other downloads.   Vol. 33, No. 1;  Read on line,  PDF and other downloads.  Vol. 34, Nos. 1, 2, Read on line,   PDF and other downloads.; Vol. 35, Nos. 1, 2.
+1986-2001
+48
+Earth First! Action Update. Oxford Nos. 4, 5, 32, 45, 49, 50, 51, 54, 57, 61, 63, 65-67:  Read on line,   PDF and other downloads.   68-74:  Read on line,   PDF and other downloads.
+1993
+49
+The Land Is Ours. Newsletter. Oxford No. 20.  Read on line,   PDF and other downloads.
+2001
+50
+Peoples Global Action. Worldwide Resistance Round-up. UK Edition. Bulletin No. 5.  Read on line,   PDF and other downloads.
+2000
+51
+Green World. Nos. 11-13,  Read on line,   PDF and other downloads.  14,  Read on line,   PDF and other downloads.  No.s 15 &amp; 24-25. London : The Green Party. ISSN 1359110x.
+1995-1999
+52
+Green Line. No 111. Sheffield : Catalyst Collective Ltd.
+1993
+53
+Planet News. Nos. 13-14. London.
+1992-1993
+54
+Dispatches. Nos. 54-56. Medecins Sans Frontiers. London.
+2010
+55
+Community Action. Nos. 35, 38. London : Community Action.
+1978
+56
+Inside Asia. London: Asia Inside. ISSN 02672227. Nos. 2, 8.
+1958-1986
+57
+Counter Information Services. Anti-report. Supported by the World Council of Churches, Programmes to Combat Racism. London. ISBN 03051242 No17, Read on line. Courtesy of CIS Reports.
+n.d.
+58
+Science for People. A Socialist View of Science, Technology and Medicine. British Society for Social Responsibility in Science. ISSN 014372728. No. 50.
+1981
+59
+Undercurrents. Environment Special. Free guide to Mind Body Spirit Festival 1982. London. ISSN 03062392. Nos. 25, 51-52, 54.
+1977-1982
+60
+The Law. Progressive but interesting. London : The Law. ISSN 1360807X. No. 14.
+1998
+61
+Up Against the Law. UPAL. London. No. 7.
+1974
+62
+Living Marxism. Revolutionary Communist Party. No. 16.
+1990
+63
+Socialist Outlook. London. No. 19.
+1989
+64
+Socialist Scotland. Edinburgh : Scottish Socialist Party. No. 1.  Read on line,   PDF and other downloads.
+1989
+65
+Labour and Ireland. A magazine for British withdrawal. London : Labour and Ireland. No. 15.
+1987
+66
+Workers’ Liberty. London : Socialist Organiser Nos. 6-7.
+1987
+67
+Socialist Alternatives. Oxford : Socialist Alternatives. Vol. 1, No. 2.
+1986
+68
+Marxism Today. Theoretical and Discussion Journal of the Communist Party. London. Vol. 18, No. 6; Vol. 29, no. 11.
+1974-1985
+69
+International. The theoretical journal of the international Marxist group – British section of the fourth International. London. Vol. 2, No. 3.
+1975
+70
+Socialist Worker Review. London. ISSN 01412442. Nos. 76, 79.
+1985
+71
+International Socialism. Monthly journal of the International Socialists. London./Manchester : International Socialists. No. 73.
+1974
+72
+Statewatch. Monitoring the state and civil liberties in the UK and Europe. Vol. 12 No 3/4; Vol. 16, no. 5/6. London. ISSN 09627380.
+2002-2006
+73
+Working Brief. News, statistics and independent analysis of current training and employment issues. London : Unemployment and Youthaid. ISSN 09566120. No. 99.
+1998
+74
+Race and Class. Institute of Race Relations. Vol. XXIX, No. 2; Vol. XXVIII, No. 4.
+1987
+75
+Heavy Stuff: The thought behind the anger. Tyneside Class War/Edinburgh Class War/Class War Federation. Stirling : AK. Press No 3, 5
+1990-1992
+76
+NOT IN USE
+77
+The Labor Movement Information Centre KAS-KOR. Monthly News Digest. On Russia. Vol. 12.
+1991
+78
+Workers’ and Trade Unions’ Information Centre KAS-KOR. Monthly Information Digest. On Russia. Nos. 1, 3.
+1992
+79
+Parica Collective Information Letter. Utrecht. No. 1.
+1999
+80
+The Action Programme of the Czechoslovak Communist Party. Prague, April. Spokesman Pamphlet No 8. Nottingham : Bertrand Russell Peace Foundation Ltd. Read on line.
+1968
+81
+The loon op zand exchange. From the press of the Dutch speaking lands. Loon-op-Zand. Nos. 1-4 (complete)
+1983-1984
+82
+Oslobodenje. Independent Bosnian-Herzegovinian Daily Newspaper. September.
+1993
+83
+Anarchist. Information Bulletin on Greece. Anarchist Coil : Athens. No. 2.
+1992
+84
+Proletarian Emancipation. Monthly organ of the Revolutionary Proletarian Platform. Calcutta. Vol. 7, No. 8.
+1993
+85
+A Infos. Bulletin d’information. No 23-25 (in one edition). English version.
+1992
+86
+Ekomeida Barcelona. Bulletin. English. Agencia de Noticias Alternativa. No 5
+1988
+87
+Le monde libertaire. Hebdomadaire de la Federation Anarchiste. French. No 852. ISSN 00269433.  No. 1823-December 2020, Read on line only. Courtesy of Le Monde Libertaire.
+1992
+88
+Kaos? Anarko-nihilistik fanzine. Swedish. No 4
+1994
+89
+Greek anarchist newspaper. No 11
+n.d.
+90
+De Nar. Anarchistisch Axieblad. Dutch. No 1999.  No.168, Read on line only, Courtesy of EuroSTROP.
+2005
+91
+Mordicus. June 1994. French. Paris
+1994
+92
+Voice of Kurdistan. Kurdistan Committees in Europe : Cologne. No 2
+1990
+93
+OIS. Organisation of Iranian Students in England, Scotland and Wales. News bulletin. Vol. 1 No. 4, Vol. II Final Issue
+1986-1987
+94
+Que Se Vayan Todos. Argentina’s Popular Uprising. An eyewitness account of the financial meltdown and ongoing grass-roots rebellion. Part 1 &amp; 2, February/July. No publisher. Read on line. Courtesy of The Anarchist Library.
+2002
+95
+Labour Focus on Eastern Europe. A Socialist Defence Bulletin on Eastern Europe and the USSR. London. Vol. 4, 1-3 (one issue). Vol.5 Nos. 1-2, Read on line only. Courtesy of Resistant Strain.
+1980
+96
+Across Frontiers. Berkeley. ISSN 0890118X. Vol. 5, No. 2
+1989
+97
+Courant alternatif. Organisation Communiste Libertaire. Reims. January. Back issues 144, 2004-253, 2015, Read on line only. Courtesy of Organisation Communiste Libertaire
+1996
+98
+Zaginflatch. A semi-regular newsletter made by Zagreb anarchist movement. No 10. No.16, Read on line only. Courtesy of A-infos.
+1997
+99
+Autonomia. Greek. 2 editions
+1993-1994
+100
+Umanita Nova. Settimanale Anarchico. October 1992; June 1993
+1992-1993
+101
+Delta. News and background on Ogoni, Shell and Nigeria. Leicester. No 3,  Read on line,   PDF and other downloads.
+1997
+102
+Yugoslavery. No 1 to Yugoslavia. Yugoslavia: Capitalism and Class Struggle 1918-1967. London : BM Blob. Winter,  Read on line,   PDF and other downloads.
+1991
+103
+Inquietacao. Portuguese (Brazil?). No 4,  Read on line,   PDF and other downloads.
+1990s
+104
+Encyclopaedia of Nuisances. Ten Years of History. Paris. Vol., No. 2,  Read on line,   PDF and other downloads.
+1985
+105
+Rave New World. Rave-Ecstasy-Rebellion. Freiburg. German. No number or volume
+1994
+106
+Women &amp; Struggle in Iran. A publication of the Women’s Commission of the Iranian Student Association. Chicago. No 3,  Read on line,   PDF and other downloads.
+1984
+107
+Correa. Venezuela. No 15
+1991
+108
+Buiten de Orde. Blad von de Vrije Bond. Basisorganisatie voor Zelfbeheer en Syndicalisme. Dutch. Vol. 6, No. 1. Courtesy of Vrije Bond. Some back issues, Read on line. 
+1995
+109
+Decoder Newsletter. Italian. Milan
+1990s
+110
+Laurentius. Von Menschen, Büchern und Bibliotheken. Vol. 12, No. 1. Hanover. Mit Arbeitskreis kritische BibliothekarInnen. ISSN 01758152
+1995
+111
+Trafik. Internationales Journal zur libertären Kunst und Politik. Mühlheim/Ruhr. German. Vol 29, No 3
+1988
+112
+The Crash Update. San Francisco
+1991
+113
+Pravda. No 3 BM Blob. Read on line. Courtesy of Revolt Against Plenty.
+1987
+114
+Sic. Telling it like it is. Reading. No 1
+n.d.
+115
+Logo! Paper for the Armchair. No 99
+1982
+116
+Workers’ Scud. No Patriot can catch me! London
+1991
+117
+The Red Menace. London. No 1, 2, 4, 5. Brief history of this publication, Read on line. courtesy of Libcom.
+1989
+118
+The New Instant. April
+1985
+119
+Not Bored! Nos. 25, 27. New York. ISSN 10847340 Back issues selection, Read on line. Courtesy of Not Bored.
+1996
+120
+Melancholic Troglodytes. No 2
+1998
+121
+Between the Lines: An amazingly sensitive magazine for amazingly sensitive people. No number or volume.
+1990s
+122
+Push the Button. Underground. London. No 3
+n.d.
+123
+Transgressions. A Journal of Urban Exploration. No 1
+1995
+124
+Green &amp; Brown Anarchist. Internal Bulletin of the Green Action Network. Vol. 1. Oxford: Magdalene College
+1990s
+125
+Smile. No 9. No publishers
+n.d.
+126
+London Psychogeographical    Association. Newsletter. No 2, 4, 10, 12, 21. Read on line. Courtesy of Monoskop.
+1993
+127
+Re:Action. Newsletter of the Neoist Alliance. No 1, Read on line. 5, Read on line. Courtesy of Stewart Home Society. 
+1994-1996
+128
+Red Bullet. Pilot Issue
+1994
+129
+Swamp Thing. National Bulletin of the non-Leninist Revolutionary Milieu. No 1
+1994
+130
+Vague. No 22. ISBN 1871692024
+1990s
+131
+ArAMach. Anarchist Federation Alba. No 1-3
+2002
+132
+Escape. The Bolsheviks in Power. Beyond Kronstadt. London. Not complete. Read on line. Courtesy of Libcom.
+n.d.
+133
+The Enemy “within”. Anarchist Communist Federation. June/July. Read on line. Courtesy of Sparrows Nest.
+1988
+134
+Virus. Militant Anarchism. No 7, Read on line. 9 Read on line. 10 Read on line. Courtesy of Sparrows Nest.
+c. 1980s.
+135
+Alternative Press Review. Spring/Summer 1994; Read on line,   PDF and other downloads. Fall 1994; Vol 2, No 1-4; Vol 3, No 1-2; Vol 4, No 1; Vol 5, No 1, 3; Vol 6, No 2
+1994-2001
+136
+Communism. Central review in English of the internationalist communist group. Brussels. Nos 1, 7-8,  Read on line,   PDF and other downloads. 10-11,  Read on line,   PDF and other downloads.
+1983-1999
+137
+Communist Review. Central Organ of the International Bureau for the Revolutionary Party. No. 5,  Read on line,   PDF and other downloads. No. 6. Read on line,   PDF and other downloads.
+1987
+138
+Revolutionary Perspectives. Theoretical Journal of the Communist Workers Organisation. Aberdeen. Nos. 5-6,  Read on line,   PDF and other downloads. No. 19,  Read on line,   PDF and other downloads.  No. 20, Read on line,   PDF and other downloads. No. 21, Read on line,   PDF and other downloads. No. 23,  Read on line and other download options.
+1976-1986
+139
+Workers Voice. The paper of the Communist Workers Organisation. Liverpool. Nos 0. 1, 4, 10,   Read on line and other download options.  Nos. 14, 19, 20, 25, 27, 30,  Read on line and other download options.
+1976-1986
+140
+Communist Bulletin. No 12, Read on line and other downloads.  No. 12, Pages 9-34,  read on line and other options.  No. 14, pages 1-10, Read on line and other options. Pages 11-44, Read on line and other options.
+1987-1989
+141
+World Revolution. Monthly paper in Britain of the International Communist Current. No 90, 118,164, 212,  Read on line and other options.
+1985-1998
+142
+Internationalism. Publication of the International Communist Current in the US. No 78-79, 83,  Read on line and other options.
+1992-1993
+143
+News of War and Revolution. Leicester. Special issue Poland 1981, July 1981, No 4 1982,  Read on line and other options.
+1981-1982
+144
+Radical Chains. No 2, 4,  Read on line and download options.
+1990-1993
+145
+Aufheben. Brighton. Nos 1,  Read on line,   PDF and other downloads.  4-5,  Read on line and download options.  8,  Read on line and download options.
+1992-1999
+146
+Now &amp; After: A Libertarian Socialist Newsletter. No.1.  Read on line,   PDF and other downloads.
+1977
+147
+Green Perspectives: A Left Green Publication. Nos. 12-13.  Read on line,   PDF and other downloads.
+1988
+148
+The State Adversary: Magazine of the Anarchist Alliance of Aotearoa. No. 21.   Read on line,   PDF and other downloads.
+1992
+149
+Workers’ Info-Rag. No. 6.  Read on line,   PDF and other downloads.
+1989
+150
+Against the Grain: Linking Publishers, Vendors and Librarians. Vol. 8, no. 2.  Read on line,   PDF and other downloads.
+1996
+151
+The Alarm: newsletter of Chicago Anti-Racist Action. No. 3.  Read on line,   PDF and other downloads.
+2000
+152
+Resistance: Journal of Grassroots Direct Action. No. 1.  Read on line,   PDF and other downloads.
+1999
+153
+Crossroad. Vol. 9, no.1; vol. 10, no. 1.  Read on line,   PDF and other downloads.
+1999-2001
+154
+Active Transformation: A Direct Action Anarchist Newspaper. Vol. 3, no.3.  Read on line,   PDF and other downloads.
+2000
+155
+Onward: Anarchist news, opinion, theory, and strategy of today. Vol. 1, no. 3.  Read on line,   PDF and other downloads.
+2000
+156
+The Struggle Continues. Vol. 14, no. 4.  Read on line,   PDF and other downloads.
+1998
+157
+Maximum Rocknroll. No. 209.  Read on line,   PDF and other downloads.
+2000
+158
+Complete Control. No. 7.  Read on line,   PDF and other downloads.
+1990
+159
+Covert Action Quarterly. No. 66.  Read on line,   PDF and other downloads.
+1999
+160
+Work. 1 issue.  Read on line,   PDF and other downloads.
+n.d.
+161
+Profane Existence. Nos. 14, 16. Read on line
+1992
+162
+Collective Action. Notes nos. 2, 7, 16-17. Read on line.
+1994-2000
+163
+The New Socialist. Vol. 1, no. 19.
+1995
+164
+The People. Published by the Socialist Labour Party. Vol. 110, no. 1.
+2000
+165
+Blu. Sample issue.
+1998
+166
+Voluntary Cooperation Movement Newsletter. No. 2.
+2000
+167
+Barricada: Revolutionary Leftist Publication of the Barricada Collective. No. 2.
+2000
+168
+Taking Liberties. No 21, June. Journal on prisons and for prisoners
+1997
+169
+Monochrome. The Mighty Leveller. No 6, June. London
+1985
+170
+Haringey Community Action. Newsletter of Haringey Solidarity Group. Issue 5, 7-14, London
+1994
+171
+Modesto Anarcho. No 4-5. Modesto, California
+2007
+172
+The Scorcher. No 1-2
+1982-1983
+173
+Big Flame. No 1-2, Nov 1985, February 1986
+1975-1986
+174
+Bread &amp; Roses. Paper of the Anarchist Communist Association. 4 issues, one dated “November”, one dated July 1978
+n.d.
+175
+XTRA! Paper for the Armchair Terrorist. No 6-7, two undated, one dated January 1980
+1980s
+176
+Socialist Standard. Journal of the Socialist Party. Vol 76, No 910; Vol 77, No 926; Vol 84, 1005; 104, No 1245
+2008
+177
+Industrial Worker. Official newspaper of the Industrial Workers of the World. Vol 104, 7-11; Vol 105, 3, 5, 7-8; Vol 106, 3, 5-10; Vol 107, 1-2
+2007-2010
+178
+Workers Playtime. Popular Yarns of Class War. February, March/April, April, June 1983, August/September October/November, June 1984, n.d., December/January 1984, August 1984. Available online at https://libcom.org/library/workers%E2%80%99-playtime-%E2%80%93-workers%E2%80%99-struggle-oriented-journal-1980s
+1980s
+179
+Intercom. Revolutionary Discussion Bulletin. Nos 2-6
+1984
+180
+Emergency. No 1-4. London. ISBN 0863560083
+1983-1985
+181
+Zero. Anarchist/Anarca-feminist monthly. Nos 1, 3, 6-7
+1977-1978
+182
+ByPass. Cross-currents in under-the-counter culture. No 2 and 5.  Read on line,  PDF and other downloads.
+n.d.
+183
+Somerset Clarion. A socialist journal for the Southwest. No. 25 (1991); No. 30 (June/July 1992); No 38 (1995)  Read on line and other options.
+1991-1995
+184
+Inside Information. Prisoners of class conflict, injustice and oppression, struggles within prison walls. Nos 1-3, 8
+1989-1990
+185
+West Country Activist. No 4-6, 9, 12, 14-16
+1997-1999
+186
+Green Anarchist. No 52, 53. Both issues incomplete
+n.d.
+187
+3D. Don’pay. Don’t collect. Don’t implement. Newsletter by 3D network. No 5-6
+1990
+188
+Yorkshire 3D. Don’pay. Don’t collect. Don’t implement. Newsletter by 3D network. No 1
+1991
+189
+The Freebie: bulletin of the isolated and independent anarchists. No 3, one issue undated and un-numbered. Read on line and other optioons.
+1980s
+190
+Black Mail. No 4, Read on line and other otions. 6
+1982
+191
+OpenRoad. Vancouver. No 3, 5-6, 12, 14-15. Poster from No 4
+1977-1983
+192
+Paisley Gutterpress. Paisley’s most negative paper. No8, and No 11. Read on line,  PDF and other downloads.
+1982
+193
+Practical Anarchy. Clydeside Anarchist News. April 1982, May 1982,, February 1983, Read On Line,  PDF and other downloads. July 1982 February 1984, March 1984, September 1984
+1982-1984
+194
+Red South West. No 1, 3.  No 1 also contains: a photocopy of an article in The Guardian – Meet the new world government (13/2/98) about the Mutilateral Agreement on Investment (MAI); flyer for MAI-Day Conference, London 19 September 1998; London Anarchist Forum newsheet Summer/Autumn 1998 and a National Coalition of Ant-Deportation Campaigns (NCADA) newsletter, issue 11, Jul/Aug/Sep 1998.
+1998-1999
+195
+The Loombreaker. No 9. Manchester. Read on line and other options.
+2000
+196
+Counter Intelligence.
+1990s
+197
+Libertarian Communism. No 10 Read on line:
+1976
+198
+Social Revolution. Paper of the Social Revolution Group. No 5
+1970s
+199
+Libertarian Workers Bulletin. Vol 8, No 1. Melbourne. ISSN 08113505
+1985
+200
+Mayday. Magazine for anarchist/libertarian ideas and action. No 1
+2007-2008
+201
+Wildcat No 9.
+1986
+202
+International Discussion Bulletin. Authority Collective. London
+1980
+203
+Communist Bulletin. No 9. Communist Bulletin Group. Edinburgh
+1985
+204
+ZG The Body. No 10. London : ZG Magazine. A3 copy b/w
+1984
+205
+Alba. Vol 1, No 6. Edinburgh
+1991
+206
+The New Internationalist. No 168. ISSN 03059529
+1987
+207
+Anarchy. No 35. ISSN 10441387. B/w photo copy
+1993
+208
+Mayday. No 3
+2009
+209
+Anarchist Worker. Special edition. Anarchist Worker Association.
+n.d.
+210
+Attack. The voice of respectable moderation.
+1987
+211
+Rabble-Rouser. Oxford Anarchist Group. No 2
+c. 1988
+212
+Hassle1. The paper of the Alliance of Unwaged Organisations.
+1989
+213
+Guilfin. Guildford information newsletter. February
+1996
+214
+Warzine. Warzone Northern Ireland. No 9
+1989
+215
+Better Days. Popular yarns of class warfare. Southampton. No 2
+1994
+Health Worker’s Bulletin. No 2
+1987
+216
+Nurses Bulletin. N.U.P.E. No 2
+1988
+217
+Business as Usual. B/w photocopy. Spring
+1989
+218
+Aire-Strike. Bullet-in of Leeds Anarchist Group. No 4
+1990s
+219
+International Graffiti Times. Vol 1. New York
+1984
+220
+The New Scrounger. The Bulletin of the Federation of Claimants. No 5
+1988
+221
+Rentabob. No 2
+1980s
+222
+The World Below. New Scientist Supplement. April. New Science Foundation, London
+1995
+223
+The Syndicalist. The Syndicalist Alliance. Hull. No 1, 2
+1998
+224
+Syndicalist Action. Newsletter of Scottish Direct Action Movement. Glasgow
+1990s
+225
+Solidarity for anarcho-syndicalism. London. No 2
+2002
+225
+Catalyst. Solidarity Federation. International Workers’ Association. Nos 2, 12
+2000
+226
+Solidarity Bulletin. No 2. Bulletin of Norwich Solidarity Centre
+1993
+227
+Education Worker. Bulletin of the Education Workers’ Network. Solidarity Federation. No 8
+n.d.
+228
+Public Service Workers’ Network. No 6. ISSN 13572466
+1995
+229
+@-Wire: New York’s Bi-Weekly Eco-Media Bulletin, produced by Autonomous Anarchist Action. Vol. 1, nos. 5., 12-13.
+1992
+230
+City Limits: News for the Other New York. November issue.
+1987
+231
+Lone Star Socialist: Voice of the Socialist Party of Texas. No. 12.
+1992
+232
+Earth First. Litha issue.
+1993
+233
+The Insurgent. November issue.
+1999
+234
+Ironfeather Journal. One issue.
+n.d.
+235
+Bayou La Rose. No. 38.
+1992
+236
+Slingshot. Nos. 50, 55, 57.
+1993-1997
+237
+Love and Rage: a revolutionary anarchist newspaper. Vol. 2, no. 8; vol. 3, nos. 3-5; vol. 4, no. 1-2; vol. 5, no. 2; vol. 7, no. 4; vol. 8, no. 5.
+1991-1997
+238
+Lumpen: more me, less you. Vol. 4, nos. 1, 3-5
+1995
+239
+Alternative Index: the only weekly voice of dissent in the heartland. Vol. 96, nos. 11-14, 18-19, 23.
+1992
+240
+Big Flame Irish Bulletin. No. 3.  Read on line,   PDF and other downloads.
+n.d.
+241
+Ainriail: An Irish Anarchist Magazine. No. 4.  Read on line,   PDF and other downloads.
+1996
+242
+Resistance: Bulletin of the Irish Anarchist Communist Federation. No. 3.  Read on line,   PDF and other downloads.
+1995
+243
+Worker Solidarity: Paper of the Workers Solidarity Movement. Nos. 38, 48-51, 88.
+1993-2005
+244
+Red &amp; Black Revolution: a magazine of libertarian communism. Unnumbered issue,  read on line,   PDF and other downloads. No. 2,  Read on line,   PDF and other downloads.
+1995-2007
+245
+Hands Off Ireland! No. 3. Revolutionary Communist Group.  Read on line,   PDF and other downloads.
+1977
+246
+The Starry Plough. Vol. 1, nos. 14-15,  Read on line,   PDF and other downloads.
+1976
+247
+The Irish People. Vol. 4, no. 17,  Read on line,   PDF and other downloads.
+1976
+248
+An Phoblacht. Vol. 6, no. 36; vol. 7, no. 17,  Read on line,   PDF and other downloads.
+1975-1976
+249
+Voice of the People. Vol. 4, no. 3; vol. 5, no. 2.  Read on line,   PDF and other downloads.
+n.d.
+250
+Rebel. No. 50.  Read on line,   PDF and other downloads.
+1982
+251
+Unfree Citizen: Newspaper of Peoples’ Democracy. Vol. 4, no. 34. Read on line,   PDF and other downloads.
+1975
+252
+PAC News: the truth about prisoners. No. 2.  Read on line,   PDF and other downloads.
+1978
+253
+Rosc Catha. Vol. 1, no. 10. Published by Clann Na Heireann.  Read on line,   PDF and other downloads.
+1973
+254
+United Irishman: monthly newspaper of Sinn Fein. Vol. 34, no. 5.  Read on line,   PDF and other downloads.
+n.d.
+255
+The Worker: for a workers’ republic and international socialism. No. 16,  Read on line,   PDF and other downloads.
+1973
+256
+Republican News. Vol. 8, no. 46,  Read on line,   PDF and other downloads.
+1978
+257
+Communist Headache: Notes for working and living. Vol. 1, Read on line,  PDF and other downloads. 2-4.
+1995-1996
+258
+Careless Talk: North Staffs Free Newsheet. 3 issues.
+n.d.
+259
+Black Star: Paper for independent working class organisation. No. 7 and vol. 2, no. 2.
+c.1984
+260
+Authority. No. 2.
+1979
+261
+London Workers Group Bulletin. Nos. 4-7, 9-14
+1978-1983
+262
+Wildcat: Manchester Free Bulletin. 4 issues and leaflets.
+1980s
+263
+Liverpool Free Press. No 26. Liverpool Free Press Group
+1976
+264
+Boycott News. No 2. No place
+1993
+265
+Five+. No 1. Journal with information about primary schooling. Sandi Ritchie (ed).
+n.d.
+266
+Missing Links. Newsletter for collective self-defence against Working Links, Employment Zones, dole harassment and global capitalism!. No 4, 5. London
+2004
+267
+Red Rag. Vol 4, No 10. May Day edition
+1982
+268
+Red All Over. The Manchester Socialist Paper. No 1, May
+1989
+269
+SQUALL. Necessity Breeds Ingenuity. No 16. London
+1998
+270
+Evening Pest. The Paper of Leeds Class War. October
+1994
+271
+The Park-Bolter. No 22. Worthing
+1999
+271
+Underground. No 6. Last issue. London
+c. 1995
+272
+Where’s My Giro? Newsletter of Brighton Against Benefit Cuts. No 9
+2000
+273
+The Sheffield Anarchist. Vol 1, No 13; Vol 3, No 1
+1977-1983
+274
+Heresy. The Magazine of the Revolutionary Socialist Network. No 8
+c. 1998
+275
+Red Banner. A Marxist Journal. No 6. Bristol
+1993
+276
+Echomedia. April. London
+1990
+277
+Bulletin. 56a Info Shop. No 3. Crampton Street : London
+1992
+278
+Fight the Poll Tax! No 11, 17. London
+1991-1992
+279
+A Lurking Doubt. Campaign to Free Tom Curtis. No 1-2. Edinburgh
+1988
+280
+Viraj Mendis in Sactuary. Defence Campaign. Bulletin. 30th July
+n.d.
+281
+The Enemy Within. Bulletin of Anarchist Communist Federation. London Group. March/April.
+n.d.
+282
+Warzine. No 6Warzine Collective. Belfast.
+1988
+283
+The Long March Bulletin. No 2. SAWCO Sarmcol Workers Co-operative. Leicester
+1988
+284
+The Cutting Edge. Campaign against redundancies and cuts. No 2. CRAC Edinburgh
+c. 1980s
+285
+The Informer. Leeds Claimants Union.
+1988
+286
+Action Against Workfare. Bulletin. TGWU CP Stewards Combine. No 2
+1988
+287
+Oxfiend. No 128, 129. Oxford. Four photocopies
+1994
+288
+Bulletin. Hackney Solidarity Group. No 2
+1990
+289
+Our Water. Keep Water Public Campaign. December. Edinburgh
+1995
+290
+The Flying Brick. Reading’s free information network. No 1
+1995
+291
+Leeds Other Paper with What’s On. No 337
+1984
+292
+Bad Attitude. Radical Women’s Newspaper. No 2, 5, 6. London
+1994
+293
+Green Anarchist. No 54/55. Loose A3 papers
+c. 1988
+294
+Hackney Heckler. Taking Things One Step Further. Hackney Solidarity Group. No 9
+1991
+295
+The Road Breaker. No M11 Link Road Campaign Newsletter. No 11
+1993
+296
+Leeds Prisoners Support Group. Anti-poll tax newsletter. No 1
+1992
+297
+The Citizen. October/November. Glasgow
+1992
+298
+Do or Die. A Voice of British Earth First! April/May
+1993
+299
+Anti-nuclear Network. No 28. London
+1993
+300
+Thee data base. Thee Data Collectiv. No 4
+1994
+301
+Break/Flow. Strictly underground funk…keep the crossover. London
+1990s
+302
+Anarchoi. 100% DIY Punk Rock. No 19
+n.d.
+303
+Voices of Resistance from Occupied London. No 2
+2007
+304
+Best of the Anarchist Tubes. Selected Stories. Vol 1, No 3
+2009
+305
+Front Magazine. Western Front Society. Vol XIV, No 3. ISSN 11875267
+2003
+306
+Casablanca. No 1. ISSN 09671242
+1992
+307
+Wedge. No 2. London
+1978
+308
+Linchpin. A publication of common cause. Vol 1, No 1
+2007
+309
+Open Eye. Challenging Media Censorship. No 3. London
+1995
+310
+The Loombreaker. Manchester. No 9
+2000
+311
+Bridge City Revue. No 2. Saskatchewan
+1981
+312
+Fast Forward Weekly. Calgary’s news and entertainment weekly. Vol 6, No 21
+2001
+313
+Westender. Vancouver’s urban voice. April/May
+2001
+314
+Red &amp; Black Notes. News and views. Don Mills, Ontario. No 8, 9, 10, 12
+1999
+315
+Monkey Pirates. No 3. Vancouver
+1980s
+316
+Kick it Over. Toronto. No 32, 33, 35, 36, 37
+1993-2000
+317
+Caustic Truths! Noizy Music Zine. Toronto. No 75
+2000
+318
+The Workers’ Dreadnought. Workers’ Suffrage Organisation. London. Vol IV, No 18
+1917
+3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1995-2000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>5. Bratach Dubh Collection.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/bratach-dubh-collection-2/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1
+North American Publications
+1
+Kick It Over. No. 8. Read on line.
+1983
+2
+Lightening Rod: a synthesis publication. Nos. 1-2.
+1986-1987
+3
+Prairie Fire: the politics of revolutionary anti-imperialism. Political Statement of the Weather Underground.  Read on line. 
+1974
+4
+Soil of Liberty: put out by North Country Anarchists and Anarcha-Feminists. Vol.3 nos. 1, 2, Read On Line,   PDF and others downloads, 5 and vol. 4 nos. 1-2.
+1977-1978
+5
+Bayou La Rose. Nos. 3,  6, Read On Line,   PDF and other downloads.
+1979-1980
+6
+Reality Now. Nos. 6 Read on line,  No. 7 Read on line.
+1986-1987
+7
+A Forum for Changing Men: monthly paper of the men’s resource centre. No. 46.  Read on line,   PDF and other downloads.
+1978
+8
+Renaissance: Detroit’s official welcome to the Rebirth of Capital. 
+c.1982
+9
+Processed World. No. 12.  Read on line.
+1984-1985
+10
+Scream!: A voice of the youth movement. Youth Information Network. 1 issue. Read on line,   PDF and other downloads.
+c.1980
+11
+The Anarchist Black Hammer: Woodstock Anarchist Party Magazine. Nos. 2, 5-7.
+1975-1976
+12
+The Kite: anti-prison news-journal. Summer issue. Read on line,   PDF and other downloads.
+1979
+13
+Bluff! Vol.1 nos.2. Canada/USA, Read on line,   PDF and other downloads.
+n.d.
+14
+A.L.F. Canada Front Line News: Fighting in the front lines for Animal Liberation. No. 3.
+1986
+15
+The Daily Battle. Summer issue. Read on line,   PDF and other downloads.
+1985
+16
+Emancipation: published by the Anarchist Association of the Americas. Vol. 4, issue 8, no. 29.
+1981
+17
+Anarchist Agitators: Information and correspondence organ of the Social-Revolutionary Anarchist Federation. No. 50, read on line,   PDF and other downloads. No. 51,  Read on line,   PDF and other downloads. No. 54, Read on line,   PDF and other downloads.  62-64, Read on line,   PDF and other downloads, 95.
+1976-1986
+18
+Fifth Estate. Vol. 12, no. 11; vol. 13, no. 7;  vol. 17, nos. 1-3; Read on line,   PDF and other downloads,  vol. 18, no. 2 Read on line, (Some pages out of sequence.)  PDF and other downloads, no.3;  Read on line,   PDF and other downloads, vol. 19, nos. 1-2.
+1977-1984
+19
+Strike!: Workers’ Autonomy For Social Revolution. Vol. 1, nos. 11-12, Read on Line,   PDF and other downloads,  vol. 2 no. 2; Read On Line,   PDF and other downloads, vol. 3, no.3; vol. 4, nos. 1 &amp; 5, Read On Line,   PDF and other downloads, vol. 5, no. 1.
+1981-1986
+20
+Bulldozer: The only vehicle for prison reform. Nos. 2 and 4-5, Read on line.
+1981-1983
+21
+The Last SLA Statement: an interview with Russ, Joe, Bill and Emily. Read on line.  Courtesy of Fifth Estate.
+1976
+22
+Dragon: Bay Area Research Collective. Read On Line Courtesy of freedom archives.org Nos.4 On Line,         5 On Line,               6 On Line,                 8 On Line,                9 On Line,               10 On line.
+1975-1976
+23
+Anarchist Black Dragon!: Washington State Penitentiary. No. 8, Read on line,   PDF and other downloads, No.9, Read on line,   PDF and other downloads,  No.10.  Read on Line,   PDF and other downloads. You can read more copies HERE:
+1982
+24
+Free Socialist: An Occasional Paper of Anarchist Opinion. Vol. 1, nos. 2-7. Also includes Autonomia (formerly Free Socialist) vol. 1, no. 9.
+1977-1979
+25
+Ideas for setting your mind in a condition of: Disease. 
+n.d.
+26
+Leaflets produced by The Last International. Read on line.
+n.d.
+27
+Newsletter produced by O.K.A. Read on line.
+n.d.
+28
+The Weekly People: published by the Socialist Labour Party. Vol. 87, no. 23.
+1977
+29
+Russia 1917-1921: There is no stopping half-way. We must conquer or die. Tampa Red and Black.
+n.d.
+30
+Parallelogramme. Vol. 8, nos. 2-3, 5; vol. 9, nos.  2-3.
+1983-1984
+31
+Criticism and analysis of the Political Statement of the George Jackson Brigade from The Anarchist Angle by Carl Harp. Read Online,  PDF and other downloads.
+1978
+32
+Political Statement of the George Jackson Brigade. Read on line.
+1977
+33
+The USAF Airbase Workers Dispute 1978. Printed and published on behalf of the workers strike committee.
+1978
+34
+Bar None. No. 8.
+c.1978
+35
+Leftward. Vol. 1, no. 3.
+n.d.
+36
+National Unity Cannot Solve the Economic Crisis! E.W. Plawick.
+1977
+37
+Libertarian Socialist Flash Point. Vol. 2, nos. 8-11.
+1978-1979
+38
+The Red Menace: A Libertarian Socialist Newsletter. Vol. 3, no. 1.
+1979
+39
+North American Anarchist: The Newspaper Dedicated to Direct Action. Vol. 1, no. 1. Read on line,  No.4. Read on line.  No.7. Read on line. No.8.- No.9. Read on line .  No.10. Read on line. All links courtesy of LIBCOM
+1979
+40
+The Gentle Anarchist. No. 12.
+1986
+41
+Leaflets produced by Black Thumb Press
+1979-1982
+2
+Spanish, Basque and Catalan Publications
+1
+Eltopo Avizor: compuesto por trabajadores casuales. Vol. 1, no. 5.
+1977
+2
+Momentos. Federico Arcos.  Read on line,   PDF and other downloads.
+1976
+3
+Blues de perro curto. Daniel De Culla.  Read on Line,   PDF and other downloads.
+1982
+4
+Plataforma Para una Intervencion Comunista: ¿Luchar Contra El Paro O Contra El Capital?
+1984
+5
+Lemoniz dossier/antinuclear. Comite Antinuclear Santurce. Nov.-Dic. Read on line  courtesy of Euskalet.
+1978
+6
+ITACA: Organ d’expressió de L’ateneu Llibertari de Sant Andreu (centre cultural d’estudis I discussió). 
+n.d.
+7
+Solidaritat. No. 36-38.
+1976-1977
+8
+Cultura Libertaria: boletin de la A.I.P. Nos. 7, 9.
+1986
+9
+Etcetera: Correspondence de la guerra social. No.6, Read on line  No.7, Read on line   No.8, Read on line   No.9 Read on line  No.10 Read on line   No.11 Read on line   All courtesy of Sin Dominio
+1985-1987
+10
+Askatasuna: revista libertaria de Euskadi. Nos. 0-2.  6-8, Front cover and index, Read on line,   PDF and other downloads. 11, 14-23 and a special issue.
+1977-1981
+11
+Bicicleta. No.1 Read on line  No.2, Read on  line  No.7 Read on line  No.8 Read on line  No.9 Read on line  No.10 Read on line  No.11 Read on line  No.12 Read on line all courtesy of anarkobiblioteka
+1977-1979
+12
+CNT-AIT Newspapers.  Nos.  4-5 and a special issue. Also includes issue no. 151 of Solidaridad Obrera and two newsletters.  Read on line,   PDF and other downloads.
+1976-1984
+3
+Portuguese publications. Front covers only, displayed.
+1
+Pela Revolução Socialista Pelo Poder Dos Trabalhadores. No. 1. View on Line.   PDF and other downloads.
+1975
+2
+Contraacorrente Edições/Livraria. Leaflet. View on line.   PDF and other downloads.
+n.d.
+3
+Colectivo Anarquista. No. 1. View on line.  PDF and other downloads.
+1976
+4
+Pé de Cabra: Jornal da Comissão Revolucionária Autónoma de Moradores e Ocupantes de S. José. No. 1.  View on line.   PDF and other downloads.
+1975
+5
+República. No. 15861.  View on line.   PDF and other downloads.
+1975
+6
+Combate: A Libertação dos Trabalhadores é Obra dos Próprios Trabalhadores. No. 29.  View on line.   PDF and other downloads.
+1975
+7
+Aideia: Orgão Anarquista Especifico de Expressão Portuguesa. No. 5-9.  View on line.   PDF and other downloads.
+1976-1978
+8
+A Brigada Da Cólera: guerrilha urbana na grã-bretanha 1967-1972.   View on Line.   PDF and other downloads.
+1980
+9
+A Batalha:  Jornal Anarco-Sinicalista. Antigo Órgão da Confederação Geral do Trabalho. Nos. 24, 29, 32, 34-42, 44-71, 73-75, 77, 80-81. Front Covers Only,  View on line.   PDF and other downloads. and  Read on line,   PDF and other downloads.
+1975-1982
+10
+Acção Directa: Revista Anarquista. Nos. 6, 7,9,10, 12-15.  Front Covers Only,  View on line.   PDF and other downloads.  No.8, View on line.   PDF and other downloads. 
+1976-1979
+11
+Revolução. No. 32 and unknown issue.  View on line.   PDF and other downloads.
+c.1975
+4
+French and Italian publications
+1
+Le Monde Libertaire: Organe de la Fédération Anarchiste. Nos. 214, 247, 597-599, 604, 609, 623-625, 627-628, 630, 633-638, 640-642, 661-668, 677-680, 682-683. Also includes pages from unknown issues.
+1975-1987
+2
+Lavoro Intellettuale E Lavoro Manuale. Pietro Kropotkin.
+1972
+5
+Austrailian publications
+1
+Treason: Against the State. No. 7.  Read on line,   PDF and other downloads.
+1981
+2
+Federation of Australian Anarchists Bulletin. No.2 Read on line  Courtesy of Reason in Revolt.
+1976
+3
+Libertarian Workers Bulletin. Vol. 5, no. 2; vol. 6, nos. 1-2, vol. 7, no. 1; vol. 8, nos. 1-2.
+6
+UK and Irish Publications
+1
+Glasgow Peoples Press: Clydeside alternative monthly. Nos. 1-3.  Nos. 4-5, Read on line and other options  No.6, Read on Line and other options  Nos. 7-9 Read on line and other options  No.10 Read on line and other options  No.11 Read on line and other options
+1977-1978
+2
+Practical Anarchy: Clydeside Anarchist Paper. 1981: Pilot issue. February  1982: April, May Day Special Read on line and other options. July, August, October, Christmas. 1983: February, Easter, Summer, August, December. 1984: February, March, June.
+1981-1984
+3
+The Source: Independent Monthly Magazine. No. 1. Read on line and other options
+1977
+4
+Clydesider. 1 issue.
+c.1986
+5
+2 ‘Stuff the Law: We Want Justice!’ posters from the Miners Strike. Glasgow Anarchists.
+1984
+6
+Nottingham Anarchist News. Nos. 2-3.
+1985
+7
+Stuff It: the theoretical journal of a Bristol Anarchist Group. Vol. 2, no. 3.
+n.d.
+8
+Alarm. 1 issue.
+1986
+9
+No Choice. No. 12, anti-militarist special. Read on line,   PDF and other downloads.
+1985.
+10
+Between the Lines. No. 2-3.
+n.d.
+11
+Trees and Flowers Fanzine. No. 9. Read On Line,  PDF and other downloads.
+n.d.
+12
+Angry! Pilot issue. Class War paper, Read On Line
+1985
+13
+Liverpool People’s News. Vol. 3, no. 1.
+1982
+14
+North West Anarchist Federation Bulletin. February issue.
+1984
+15
+Brighton Bomber. Vol. 1, no. 5.
+1982
+16
+News From Nowhere: Anarchist Views.
+1980
+17
+Lib Ed: A magazine for the liberation of learning. Issue number 30 and vol. 2, no. 5. Read on line,   PDF and other downloads.
+1987
+18
+Libertarian Student Network Bulletin.
+1976
+19
+Total Subversion! Reading Students.  Read on line,   PDF and other downloads.
+1983
+20
+Know University: An alternative prospect for prospective students.  Read on line,   PDF and other downloads.
+n.d.
+21
+Crowbar: Squatting news. Nos. 32 &amp; 47, Read on line,   PDF and other downloads. and an unknown issue.
+c.1986
+22
+Pigs for Slaughter. No. 2.
+c.1983
+23
+Vote Labour and still die horribly. Thames Valley Anarchists.  Read on line,   PDF and other downloads.
+1980s
+24
+Peoples’ News Service. No. 145.  Read on line,   PDF and other downloads.
+1978
+25
+Grapevine. Nos. 14-16.
+1986-1987
+26
+Brighton Voice. No. 109.  Read on line,   PDF and other downloads.
+1980s
+27
+The Beast: the magazine that bites back. No. 8.
+1980-1981
+28
+Bulletin of Anarchist Research. Nos. 7-8, 10-12.
+1986-1987
+29
+Zero: Anarchist/Anarca-feminist Monthly. Nos. 1-7.  Read on line,   PDF and other downloads.
+1977-1978
+30
+Free Winged Eagle: Orkney’s Alternative Press. Nos. 1-4, January 1981 issue. Read on line,   PDF and other downloads.
+1979-1981
+31
+The Sheffield Anarchist. Vol. 1, no. 14; vol. 2, no. 1; vol. 3, nos. 1, 8.  Read on line,   PDF and other downloads.
+1978-1985
+32
+Emergency. No. 4.
+n.d.
+33
+Verbal Assault: South Hants Anarchist Paper. Nos. 1-2, 4-8, 16-17. 
+1983-1985
+34
+Northern Star: Disbelieve Disobey Resist. Nos. 1453, 1455.
+1983
+35
+Red Rag. Vol. 4, no. 10; an April, May and 2 June issues from unknown year; and one undated issue.
+c.1982
+36
+Me, Myself, I. No. 2.
+1982
+37
+Untitled publication containing short stories and political comment.
+c.1982
+38
+Punk fanzine. Contains article about The Destructors on front page.  Read on Line,   PDF and other downloads.
+1982
+39
+Bread, love and struggle: a few Brixton anarchists. Read on line,   PDF and other downloads.
+c.1981
+40
+Anarchist Insurrection. Nos. 1-3.  Read on line,   PDF and other downloads.
+c.1984
+41
+Prisoners of War. No. 1. South Manchester Anarchist Group.  Read on line,   PDF and other downloads.
+c.1984
+42
+Gettin’ Angry!?: a magazine by and for claimants. No. 1. Read on line,   PDF and other downloads.
+1985
+43
+The Gutted. One issue.  Read on line,   PDF and other downloads.
+c.1986
+44
+Blast. No. 3 and a special class war issue. 
+c.1983
+45
+Text of ‘Desire, Value and the Pleasure Tendency’. 
+1985
+46
+Text of ‘The Subversive Past’.
+1985.
+47
+No Choice: Cambridge’s Alternative Paper. No. 10.  Read on line,   PDF and other downloads.
+n.d.
+48
+Common Cause: a magazine covering community and industrial struggles in South Wales. No. 2.  Read on line,   PDF and other downloads.
+1978
+49
+York Free Press: York’s Community Newspaper.  No. 43.  Read on line,   PDF and other downloads.
+1980
+50
+Treason: Sunderland’s Own Anarchist Paper. No. 1.  Read on line,   PDF and other downloads.
+n.d.
+51
+As it is. No. 1.  Read on line,   PDF and other downloads.
+n.d.
+52
+Autonome. No. 9.  Read on line,   PDF and other downloads.
+1981
+53
+Cool Notes. No. 3.  Read on line,   PDF and other downloads.
+1980s
+54
+Ludd &amp; Swing. One issue.  Read on line,   PDF and other downloads. 
+1982
+55
+Fuck Off: a fanatical magazine for Wales. Pilot issue.  Read on line,   PDF and other downloads.
+1985
+56
+Green Options. No. 1.  Read on line.   PDF and other downloads.
+1987
+57
+El Salvador: News Bulletin, El Salvador Solidarity Campaign. No. 14.  Read on line.   PDF and other downloads.
+1982
+58
+Black Chip: A Radical Journal of New Technology. No. 86:2.  Read on line.   PDF and other downloads.
+1986
+59
+Lords of the Realm. No. 1.  Read on line.   PDF and other downloads.
+n.d.
+60
+Scram Energy Bulletin: The Scottish Campaign to Resist the Atomic Menace. No. 11.  Read on line.   PDF and other downloads.
+1979
+61
+Ecology &amp; Anarchism. No. 3.  Read on line.   PDF and other downloads.
+n.d.
+62
+Seditious Whispers: Doncaster’s Free Anarchist Paper. Nos. 8, Read on line,   PDF and other downloads, 10-11, 12-13, Read on line,   PDF and other downloads.
+n.d.
+63
+Poison Pen: Hastings Anarchist Weekly. 31 issues.  Read on line,   PDF and other downloads.
+1980-1983
+64
+The Scorcher. No. 2, 1983; and undated December issue. Read on line,   PDF and other downloads.
+c.1983
+65
+Stuff It: The theoretical journal of the Bristol Anarchist Group. Nos. 2-3, 5.
+c.1984
+66
+Kill Your Pet Puppy. Nos. 2-3  1-2-3, Read on line. Courtesy of Sparrows nest.
+1980
+67
+Outta Control: News and Vies of the Belfast Anarchist Collective. Nos. 10, 12, 21, 23-26, 32, 34, 41-42. Includes issue of Gaining Ground, No. 13 which was sold with Outta Control.
+1980-1984
+68
+Aberdeen Peoples Press. Nos. 22, 24-25, 32, 39, 40, 47, 55, 56, 58.
+1974-1976
+69
+Wildcat. Nos. 3-6.
+1974-1975
+70
+Xtra!: The paper for the armchair terrorist. Pilot issue; January issue; and nos. 3-8. 
+1980s
+71
+South London Stress. No. 4-6.
+c.1981
+72
+Voice of Resistance: Towards Socialist Liberation. Nos. 1-2.
+n.d.
+73
+Peace News: for nonviolent revolution. Nos. 1988-1990, 1992-1995, 2096, 2102, 2127, 2142, 2158, 2179, 2188, 2199, 2207. No.10, 28, October, 1983, Read on line. Courtesy of Sparrows Nest.
+1975-1983
+74
+Dawn: an Irish journal of nonviolence. Nos. 21, 23-25. Nos. 38-39 Read on line.
+1977-1978
+75
+Second Generation: The magazine of youth C.N.D. No. 10.
+c.1983
+76
+Violence &amp; Nonviolent Action. 1 issue.
+n.d.
+77
+Sanity: Voice of CND. No. 2-3.
+1975
+78
+Resistance. Dublin Anarchist Collective. June/July issue.
+1983
+79
+Teaching London Kids. No. 17.
+c.1981
+80
+Black Bairn: Grangemouth/Falkirk Area News-Sheet. December issue.
+1982
+81
+Poster for a new anarchist news-sheet, West End Crimes. 
+n.d.
+82
+Toe Jam: The Real Free Press. No. 1.
+c.1982
+83
+Practical Anarchy leaflets and posters. 12 items.Read On Line,  PDF and other downloads.
+n.d.
+84
+Clydeside Anarchists. Posters for events held by Clydeside Anarchists.  Read On Line,  PDF and other downloads.
+n.d.
+85
+The Big Print: North-East Libertarian Paper. Issues from: April, May, June, September, October, December 1978; February, April 1979.
+1978-1979
+86
+Theses Against Cynicism. Printed and published by The Pleasure Tendency.
+1987
+87
+Black Jake’s Occasional Organ. Produced by Newcastle Anarchist Group. Nos. 1-2.
+1976
+88
+The Hungarian Revolution, 1956. Council Communist Pamphlet No. 1.
+n.d.
+90
+Catalyst: Anarchy Peace and Freedom. 1 issue.  Read on line,   PDF and other downloads.
+n.d.
+91
+News from Neasden: a catalogue of new radical publications. No. 10. Read on line,   PDF and other downloads.
+1978
+92
+University Destroyed: MOI Crowns Ten Years of Government Terror in Kenya. Produced by The Committee for the Release of Political Prisoners in Kenya. Read on line,   PDF and other downloads.
+1980s
+93
+Z Revue. Nos. 2-3. Read on line,   PDF and other downloads.
+1977
+94
+Return of the Moral Subject: An essay on class, identity &amp; free will from The Pleasure Tendency.
+1986
+95
+The Commonweal. News series issue no. 1.
+1983
+96
+It’s Up To Us. Produced by the Alpha Group, a collective of graphic designers, and published by Left Review. Anti-war and anti-rearmament  pamphlet.  Read on line,  PDF and other downloads.
+1936
+97
+Pacifists and the Election: Peace or Party. Frank Hancock, A Peace News Pamphlet.
+c.1950
+98
+Life and its replacement with a dull reflection of iteself. The Pleasure Tendency.
+1984
+99
+Worker-Student Action Committees France May ’68. R. Gregoie and F. Perlman. 
+n.d.
+100
+Social Struggles in Spain.
+1976
+101
+Mirror Image: an insight into how the Daily Mirror handled the lorry drivers strike of Jan 1979.
+1979
+102
+An Anarchist Window Pane. No. 2. 
+n.d.
+103
+Subversive Graffiti: Free news sheet produced in Aberdeen. Nos. 6-8.
+c.1982
+104
+Western Daily Stress. Don’t vote special issue.
+n.d.
+105
+Bread, love and struggle: a few Brixton Anarchists.
+n.d.
+106
+Boot ‘Em! A Southampton Anarchist Paper. Nov./Dec. Issue.
+1985
+107
+Police News: for nonviolent authoritarianism. No. 121984.
+108
+Sedition: Birmingham’s Very Own Anarchist Paper. No. 1.
+n.d.
+109
+Taking Liberties: Free news-sheet of the Easterhouse Civil Liberties Group.
+n.d.
+110
+After Marx – Autonomy. Alfredo M. Bonanno
+n.d.
+111
+Elephant Editions Anarchist Pocketbooks. Complete Catalogue.
+1986
+112
+Black Flag Quarterly: Journal of anarchist ideas news and comments. Vol. VII, nos. 5-6.
+1984
+113
+Bahd News: Rathcoole Community Newspaper. No. 16. 
+1986
+114
+Castlemilk Today. Nos. 33-34.
+n.d.
+115
+Insurrection: Bimonthly anarchist review. No. 1. 
+1982
+116
+Weekly World Anarchy. No. 13.  Read on line,   PDF and other downloads.
+1986
+117
+Paisley Gutterpress. Nos. 1, 4, 11-12. 
+1981-1982
+118
+Me Myself I. No. 1.
+n.d.
+119
+Anarchist News Service. 1 issue.
+c.1984
+120
+South East Anarchist Federation News.
+n.d.
+121
+ALF Action in Leeds. Feb-Sept. Issue.
+1986
+122
+Green Teacher. Preview edition.
+1986
+123
+Organising for Workers’ Power. Porere Operaio. Rising Free reprint 3.
+1974
+124
+Anarchist newsletter titled What I Did On My Holidays.
+n.d.
+7
+News cuttings and articles
+1
+Folder of news cuttings and other material on Torness Power Station.  Read on line,   PDF and other downloads.
+c.1977-1979
+2
+Photocopied news cutting on the banning of anarchist publication Stuff It from a Britsol bookshop.
+n.d.
+3
+Cutting from Peace News, 18 April 1975, featuring an article on resistance to nuclear power plants being built beside the River Rhine.
+1975
+4
+Typed article on the experience of arrest, court appearances and prison.
+n.d.
+5
+Typed article titled Stop Business As Usual… Tuesday 25th Novemeber.
+1985
+6
+Folder of articles, bulletins and political statements, in Spanish and English, relating to the Spanish anarchists movement. 
+1970s
+8
+Posters and leaflets publicising anarchist meetings, campaigns, demonstrations and book-fairs.
+1970s-1980s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1972-1987</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>6. Charlie Baird Collection.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/charlie-baird-collection/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1
+Barrowfield Free School
+1
+Administrative papers
+1
+Constitution of Barrowfield Community School. Read on line.
+n.d.
+2
+Document detailing budget, staff, curriculum, patrons and ethos of Barrowfield Community School. Read on line.   PDF and other downloads.
+n.d.
+3
+A request for financial assistance to the Gulbenkian Foundation.  Read on line,   PDF and other downloads.
+n.d.
+2
+Correspondence
+1
+Letter to Dr. T. R. Bone, Principal of Jordanhill College of Education, requesting support for Barrowfield Community School.  Read on line,   PDF and other downloads.
+n.d.
+2
+Correspondence sent by John McLeod from the Contemporary Violence Research Centre, Oxford University, to John MacBeath from Jordanhill College of Education and community leaders in Barrowfield about conducting research in Barrowfield. Includes photocopy of an article titled Towards a Radical Reform of Education by Jack Goody from New Society, 30 March 1978.  Read on line,   PDF and other downloads.
+1978
+3
+Reports and papers
+1
+Scotland Road Community Trust: Our lives in our hands.
+1973
+2
+Barrowfield Community School Progress Report.
+n.d.
+3
+Free School Handbook. Second Edition.
+n.d.
+4
+Our Education Must Be For Liberation: The Dag Hammarskjold Seminar on Education and Training and Alternatives in Education in African Countries. President Nyerers’s speech to the Dag Hammarskjold seminar on education.
+1974
+5
+Scottish Council for Civil Liberties. Discussion Paper – Children’s Rights Conference.
+1978
+6
+Report on Barrowfield.
+n.d.
+7
+Report on field research in Barrowfield, Glasgow. John McLeod, Contemporary Violence Research Centre, University of Oxford.
+1978
+8
+The Barrowfield Alternative. John MacBeath.
+n.d.
+9
+Barrowfield Community School… its philosophy, history and operation. Brian Addison and Margaret Graham.
+n.d.
+10
+Barrowfield Community School, Glasgow: an alternative for education in a multi-deprived community. J E C MacBeath.
+1976
+11
+Barrowfield Community School: Is there a need for such a school in Barrowfield?
+n.d.
+12
+Goodbye Free School, Hello Special Unit.
+1977
+4
+News cuttings
+1
+Article from the Daily Record about Barrowfield titled ‘Pupils in a class of their own – for making history.’  Read on line.
+1973
+2
+Handmade booklet about local and community political decision making containing news cuttings from various sources. Read on line,   PDF and other downloads.
+c.1973
+3
+Article from the Scottish Educational Journal which mentions Barrowfield Community School.  Read on line,   PDF and other downloads.
+1973
+5
+Photographs
+One photograph from the Glasgow Herald of children and teacher in a classroom at Barrowfield Community School.  View on line.
+n.d.
+6
+Ephemera
+Print out of posts to the Hidden Glasgow Discussion Forum regarding Barrowfield Community School.  Read on line,   PDF and other downloads.
+2007
+2
+IWW publications
+1
+Preamble to the Industrial Workers of the World.
+n.d.
+2
+Rebel Voices: An IWW Anthology. Edited by Joyce L. Kornbluh.
+1988
+3
+The Industrial Unionist. No. 2.
+n.d.
+4
+Industrial Worker: Official newspaper of the Industrial Workers of the World. Nos. 1527-1528, 1697-1698.
+1990-2007
+5
+The General Strike For Industrial Freedom. Pamphlet.
+1946
+6
+Proceedings of the First Convention of the Industrial Workers of the World.
+1905
+7
+A Union For All Workers: Industrial Workers of the World. Pamphlet.
+n.d.
+8
+What Is The IWW? Pamphlet.
+n.d.
+9
+Unemployment and the Machine. Pamphlet.
+n.d.
+10
+Coal Mines and Coal Miners: The Story of a Great Industry and the Men Who Work in It.
+n.d.
+3
+Bratach Dubh Pulications
+1
+The Angry Brigade. Bratach Dubh Documents no. 1.
+1978
+2
+Critique of Syndicalist Methods: Trade-unionism to anarcho-syndicalism. Alfredo M. Bonanno. Bratach Dubh Anarchist Pamphlets no. 2.
+n.d
+4
+Emma Goldman
+1
+Trotsky Protests Too Much. Emma Goldman. Published by The Anarchist Communist Federation.
+n.d.
+2
+Anarchism and other essays. Emma Goldman. Dover Publications.
+1969
+5
+Freedom Press
+1
+Max Stirner’s Egoism. John P. Clark.
+1976
+2
+ABC of Anarchism. Alexander Berkman.
+1942
+3
+The Wilhelmshaven Revolt. Icarus.
+1944
+4
+The Two Communisms. R. Corn. Freedom Publications no. 2.
+n.d.
+5
+The May Days Barcelona 1937.
+1987
+6
+Workers In Stalin’s Russia. M. L. Berneri
+1949
+7
+About Anarchism. Nicolas Walter. Read on line,   PDF and other downloads.
+1977
+8
+The Raven: Anarchist Quarterly. Nos. 1, 33.
+c.1987-c.1996
+9
+Anarchism and Selfishness. Donald Rooum. An offprint from The Raven Volume 1 (1987) 251-259.
+1987
+10
+Wildcat: ABC of Bosses. Anarchist comics by Donald Rooum.
+1991
+6
+Guy Aldred
+1
+Michel Bakunin Communist. Guy Aldred. Published by The Bakunin Press, Glasgow.
+1920
+2
+Communism: Story of the Communist Party. Guy A. Aldred. Published by The Strickland Press.
+1943
+3
+A Call to Manhood and other studies in social struggle. 26 essays by Guy A. Aldred. Published by The Strickland Press.
+1944
+7
+Publications
+1
+Bolshevism Promises and Reality: An Appraisal of the Results of the Marxist Dictatorship over Russia. G. Maximov.  Read on line,   PDF and other downloads.
+1937
+2
+Does God Exist? Twelve Proofs of the Inexistance of God as Presented in a Lecture by Sebastien Faure.
+n.d.
+3
+Flashlights of the Amsterdam Congress. Daniel De Leon.
+1904
+4
+Anarchism and Formal Organizations. Research Group One. No. 23.  Read on line,   PDF and other downloads.
+1977
+5
+Selected Writings. Errico Malatesta.   Read on line,   PDF and other downloads.
+n.d.
+6
+Anarchism &amp; Law. Alexei Borovoi.  Read on line,   PDF and other downloads.
+n.d.
+7
+Catechism of the Revolutionist. Sergei Nechayev.  Read on line,   PDF and other downloads.
+1989
+8
+Message of a Wise Kabouter. Roel Van Duyn.
+1972
+9
+Marx Engels Lenin: Anarchism and Anarco-syndicalism. Progress Publishers, Moscow.
+1972
+10
+Anarchism: arguments for and against. Albert Meltzer.  Read on line,   PDF and other downloads.
+1981
+11
+Mutual Aid. Petr Kropotkin.
+n.d.
+12
+Ten days that shook the university. On the poverty of student life. Situationist International.
+1973
+13
+Introduction to the Anarchist Communist Association.  Read on line,   PDF and other downloads.
+1979
+14
+Anarchist Economics: an alternative for a world in crisis. Abraham Guillen.  Read on line,   PDF and other downloads.
+n.d.
+15
+God and the State. Michael Bakunin.
+n.d.
+16
+Workers’ Councils. Published by Southern Advocate for Workers’ Councils, Melbourne.
+1948
+17
+Ethics and American Unionism. Sam Weiner. A Libertarian League Publication.  Read on line,   PDF and other downloads.
+1958
+18
+Underdogs vs. Upperdogs: A picture-story of the struggle against social injustice. Jim peck.  Read on line,   PDF and other downloads.
+1951
+19
+Evolution and Revolution. Elisee Reclus.  Read on line,   PDF and other downloads.
+n.d.
+20
+Poll Tax Rebellion. Danny Burns.
+1992
+21
+Of Man and Revolution: An Anarchist Vision. Michael Tobin.  Read on line,   PDF and other downloads.
+n.d.
+22
+Origenes Del Movimiento Anarquista En China por Albert Meltzer.  Read on line,   PDF and other downloads.
+n.d.
+23
+Under the Fifth Rib. H.T. Derrett. Published by Anarchist Communist Federation, Glasgow.  Read on line,   PDF and other downloads.
+n.d.
+24
+Why I Won’t Vote: arguments for abstention from Anarchy 27. Introduction by R. Lynn.  Read on line,   PDF and other downloads.
+n.d.
+25
+The Source: Independent Monthly Magazine. No. 1.  Read on line,   PDF and other downloads.
+n.d.
+26
+Glasgow Peoples Press: Clydeside Alternative Monthly. Nos. 4-5.  Read on line,   PDF and other downloads.
+1977-1978
+27
+Hammer and Tongs: Bulletin of the Lower Clyde Shipyard Workers. No. 10.  Read on line,   PDF and other downloads.
+n.d.
+28
+Women of the Gestapo. Richard Baxter.
+1943
+29
+Jail Journal and other writings. Richard Carlile. Edited and arranged by Guy Aldred.
+1942
+30
+Education: an anarchist approach. Farquhar McLay. Autonomy Press.  Read on line,   PDF and other downloads.
+1983
+31
+Manifesto of the Communist Party. Karl Marx and Frecerick Engels.
+1942
+32
+The Case for Socialism. Socialist Party of Great Britain.
+1962
+33
+Marxism and Modern Art: An approach to social realism. F. D. Klingender. Marxism Today series no. 3.
+1943
+34
+Karl Marx: His life and teaching. Zelda Kahan-Coates. British Socialist Party.
+1918
+35
+The Socialist Reconstruction of Society. Daniel De Leon. Photocopy.
+1980
+36
+Milestones in Working Class History. Norman Longmate.
+1975
+37
+The Scottish People 1840-1940: A social and economic history. Published by the Scottish Consultative Council on the Curriculum. CD-ROM containing resources including images, essays and statistical evidence.
+1997
+38
+Is Labour Government the way to Socialism? Published by the Socialist Party of Great Britain.
+1946
+39
+Wage Labout and Capital. Karl Marx.
+1952
+40
+The Hell Myth. Dr. Walter Walsh. Free Religious Addresses No. 221.  Read on line,   PDF and other downloads.
+1923
+41
+The Communist Movement. A Personal Investigation by Dr. A. Shadwell.
+1925
+42
+An Introduction to the Philosophy of Herbert Spencer. Professor W. H. Hudson.
+1904
+43
+Trade Unionism and Political Action. Joe McDonald.
+1955
+44
+I Appeal Unto Caesar: The case of the conscientous objector. Mrs Henry Hobhouse.
+n.d.
+45
+What is Morality? George Whithead.
+1925
+46
+The Slave Farm: being letters from Alf Budden to a fellow farm slave and comrade in revolt. Socialist Party of Canada.
+1914
+47
+The Commune of Paris: Its Story and Meaning. James Leatham.
+n.d.
+48
+Workers’ Control. Direct Action Pamphlets no. 4.
+n.d.
+49
+The Commune. Vol. II, no. 13.  Read on line,   PDF and other downloads.
+1929
+50
+Preparing for Non-Violent Direct Action. A Peace News/CND Publication.
+1984
+51
+The Silent Killers: New developments in gas and germ weapons. David Bays.
+n.d.
+52
+Anarchist Communism: Its basis and principles. Freedom Pamphlets.
+n.d.
+53
+Spain’s Civil War. Harry Browne. Seminar Studies in History.
+1984
+54
+John Maclean: Educator of the Working Class. James D. Young. Clydeside Press.
+1988
+55
+Poll Tax Handbook. Co-produced by Scottish Trades Union Congress; Scottish Council for Civil Liberties; Scottish Local Government Information Unit.  Read on line,   PDF and other downloads.
+1989
+56
+Trades Councils. Joe McDonald.  Read on line,   PDF and other downloads.
+1930
+57
+The Rights of Labour according to John Ruskin. Arranged by Thomas Barclay.  Read on line,   PDF and other downloads.
+n.d.
+58
+A Public Nuisance: Tales of adventure &amp; a spirit of revolt, Glasgow Anarchists 1974 to 1986. Jim McFarlane. Photocopy from the Edinburgh Review.  Read on line,   PDF and other downloads.
+n.d.
+59
+The Working Class Against Fascism. G. Dimitrov.  Read on line,   PDF and other downloads.
+1935
+60
+New Beacon Review. No. 1.
+1985
+61
+Killed on the picket line 1984: The Story of David Gareth Jones. Mark Jones.
+1985
+62
+Two Pages from Roman History. Daniel De Leon. Socialist Labour Party.  Read on line,   PDF and other downloads.
+n.d.
+63
+The Origin of Madness. Dr M. E. Elsarrag.
+1985
+64
+Asylum to Anarchy. Claire Baron.
+1987
+65
+Anarchism: Arguments for and against. Albert Meltzer.   Read on line.
+1986
+66
+As We Don’t See It. Solidarity London.  Read on line,   PDF and other downloads.
+n.d.
+67
+Rent Strike! The Clydebank Rent Struggles of the 1920s. Sean Damer. A Clydebank People’s History Pamphlet.  Read on line and download options.
+1982
+68
+Fighting Back Against Unemployment. Produced by Clyde Action.
+n.d.
+69
+Class Health and Profit. Ian Gibson.
+n.d.
+70
+The Singer Strike, Clydebank, 1911. Glasgow Labour History Workshop.
+1989
+71
+Workers City: The Real Glasgow Stands Up. Edited by Farquhar McLay. Clydeside Press. Read on line,   PDF and other downloads.
+1988
+72
+The Clydebank Blitz. I. M. M. MacPhail.
+1995
+73
+Severely Dealt With: Growing up in Belfast and Glasgow. John Taylor Caldwell.
+1993
+74
+Windscale: A summary of the evidence and the argument. The Guardian.
+1970s
+75
+News From Nowhere. William Morris. Edited by James Redmond.
+1976
+76
+Authority and Delinquency: a study in the psychology of power. Alex Comfort.
+1970
+77
+Feminism As Anarchism. Lynne Farrow. Black Bear Pamphlet No. 2.  Read on line,   PDF and other downloads.
+n.d.
+8
+Books on Education
+1
+The Child’s Discovery of Space. Jean and Simonne Sauvy.   Read on line,    PDF and other downloads, cover pages.
+1974
+2
+Education and the Working Class. Brian Jackson and Dennis Marsden.  Read on line,   PDF and other downloads, cover pages.
+1966
+3
+English Progressive Schools. Robert Skidelsky.   Read on line,   PDF and other downloads, cover pages.
+1969
+4
+Reading, How To. Herbert Kohl.   Read on line,   PDF and other downloads, cover pages.
+1976
+5
+The Comprehensive School. Robin Pedley.   Read on line,   PDF and other downloads, cover pages.
+1970
+6
+Children in Distress. Alec Clegg and Barbara Megson.   Read on line,   PDF and other downloads. Cover pages.
+1971
+7
+State School. R. F. Mackenzie.   Read on line,   PDF and other downloads. Cover pages.
+1973
+8
+The Little Red School Book. Soren Hansen and Jesper Jensen.   Read on line,   PDF and other downloads. Cover pages.
+1971
+9
+Compulsory Miseducation. Paul Goodman.   Read on line,   PDF and other downloads. Cover page only.
+1972
+10
+Teaching as a Subversive Activity. Neil Postman and Charles Weingartner.   Read on line,   PDF and other downloads. Cover pages.
+1983
+11
+Teaching Controversial Issues. Robert Stradling, Michael Noctor, Bridget Baines.
+1984
+12
+A Dominie’s Log: The story of a Scottish teacher. A.S. Neill.
+1986
+13
+The Progress of Education: a searching discussion of school education opening new paths to learning and teaching. Jerome S. Bruner.
+1960
+14
+Learning. J. Charles Jones.
+1967
+15
+The Home and the School: a study of ability and attainment in the Primary School. J.W.B. Douglas.
+1973
+16
+Free Way to Learning: Educational Alternatives in Action. Edited by David Head.
+1974
+17
+Nurseries Now: a fair deal for parents and children. Hughes, Mayall, Moss, Perry, Petrie, and Pinkerton.  Read on line,   PDF and other downloads.
+1980
+18
+Patterns of Infant Care in an Urban Community. John and Elizabeth Newson.  Read on line,   PDF and other downloads.  Cover pages.
+1966
+19
+Soviet Education. Nigel Grant.  Read on line,   PDF and other downloads.  Cover pages.
+1968
+20
+How Children Fail. John Holt.  Read on line,   PDF and other downloads.  Cover pages.
+1975
+21
+Educating the Intelligent. Michael Hutchinson and Christopher Young.
+1962
+22
+The Impact of Robbins. Richard Layard, John King and Claus Moser.   Read on Line,   PDF and other downloads. Cover pages.
+1969
+23
+Priority Education: an account of the Liverpool project. Eric Midwinter.   Read on line,   PDF and other downloads. Cover pages.
+1972
+24
+The Burnston School Strike. B. Edwards.   Read on line,   PDF and other downloads. Cover pages.
+1974
+25
+The Growth of Understanding in the Young Child: a brief introduction to Piaget’s Work. Nathan Isaacs.   Read on line,   PDF and other downloads. Cover pages.
+1969
+26
+Starting School. A Citizen 2000 Booklet.  Read on line,   PDF and other downloads.  Cover pages.
+1988
+27
+Freedom – Not License!: the world famous author of Summerhill answers important questions about the everyday problems of child rearing. A. S. Neill.  Read on line,   PDF and other downloads.  Cover pages.
+1966
+28
+The Free School. W. Kenneth Richmond.
+1973
+29
+Childrens Rights – Extinction or Rebirth. Scottish Council for Civil Liberties.  Read on line,   PDF and other downloads.   Cover pages.
+1978
+9
+Ephemera
+Includes Charlie Baird’s Community Worker business card and a postcard from John Jnr. sent from an anarchist conference in Barcelona.
+c.1993</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1904-2007</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>7. M.V. Edinburgh Collection.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/m-v-edinburgh/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1
+SERIALS &amp; PUBLICATIONS. 
+Leaflets, posters and badges from various campaigns and events including: 2005 G8 demonstrations at Gleneagles; Edinburgh Claimants Solidarity Network; Faslane Peace Camp; Anti-war in Iraq; Miners Strike; Glasgow Anarchist Summer Schools; protests against Glasgows’ new Sheriff Court; Glasgow Radical Festival; Glasgow Anarchist Dayschool; Anti-Poll Tax.
+c.1982-2005
+ 1
+K-P News: Kinning Park’s Unofficial Newssheet. No. 1. 
+1986
+2
+Subversise Graffiti. No. 1.
+1981
+ 3
+Information is Strength: Info-Bulletin of the Autonomous Centre of Edinburgh’s collective users. Autumn issue.
+2002
+4
+Ar-A-Mach: resisting capitalism in Scotland… No. 3.
+2002
+5
+The Glasgow Keelie. No. 5 and September issue from 1992.
+1990-1992
+ 6
+KBC: the life and crimes of Kingston Bridge.
+n.d.
+ 7
+Burning Issue: The voice of the IWW in Scotland. Nos. 1-2.
+2004
+ 8
+Dissnet!: A network of resistance, against the G8.
+2004
+9
+Scottish Anarchist. No. 1,   Read On Line,   PDF and other downloads. 
+and two A4 leaflets.
+1994-c.2003
+10
+Indymedia Scotland: the free newspaper of Indymedia Scotland. Nos. 1-2, 6-7.
+2008
+11
+Solidarity. August issue.
+1997
+ 12
+The Edinburgh Muckraker: Equal Pay means Fair Pay. Nos. 2-5, two copies of No. 3.
+n.d.
+13
+Black Flag: For Anarchist Resistance. “Ideas to Change the World” Special.
+n.d.
+ 14
+Global Action Scotland. March issue.
+2001
+ 15
+Fighting for our lives. Published by CrimethInc. 
+n.d.
+ 16
+The Commune. No. 30.
+2012
+ 17
+The Agitator: a directory of autonomous, non-hierarchical groups, centres, bookshops &amp; such like. 
+2000
+ 18
+Malicious Mischief: Beware the wolf in green clothing. 
+n.d.
+ 19
+Aufheben. No. 5.
+1996
+ 20
+CNT: Órgano de la Confederación Nacional del Trabajo. Nos. 263-265, 267-269, 271-274, 277, 281, 286-287, 324.
+2001-2006
+21
+Abrer Prisioner: Periódico contrainformativo internacionalista de los presos anarquistas en lucha. Nos. 
+2001-2003
+ 22
+Etcetera: corrspondencia de la guerra social. No. 36.
+2002
+ 23
+Butletti Estel Negre: órgan d’expressió i combat de l’ateneu llibertari estel negre. Nos. 115-117, 139-140.
+2002-2004
+ 24
+Ekintza Zuzena: Aldizkari Libertario. 1 issue.
+2002
+ 25
+Polémica: Información – Critica – Pensamiento. Nos. 74, 77.
+2001-2002
+ 26
+Ecologia Social: Ecologistas En Accion-Alaides. No. 4.
+2002
+ 27
+Pandora: Periódico libertario y confederal. No. 18.
+2003
+28
+Bandera Negra: órgano de expresión de las juventudes libertarias de Madrid. No. 6.
+n.d.
+29
+Valéncia Llibertária: Periódic de difusió llibertária I anarcosindicalista. No. 9.
+2002
+ 30
+Kleintje Muurkrant: Het onafhankelijke maanblad dat aanzet tot zelfstandig kritisch denken en handelen. Nos. 342, 368-373.
+2000-2002
+ 31
+Buiten de orde. Vol. 11, no. 1; vol. 12, nos. 1-4; vol. 13, nos. 2-3; vol. 14, no. 2; vol. 15, nos. 1-3. vol. 16, nos. 1-2; vol. 17, nos. 3-4; vol. 18, nos. 1-3. vol. 19, nos.1, 3; vol. 20, no. 1.
+2000-2009
+32
+Die Rote Hilfe. No. 2/2001.
+2001
+ 33
+NoborderZONE, 19.-28.7.2002, Stasbourg. 
+2002 
+ 34
+Incipito: Das Heft mit Beschimpfungen aus der Szene für die Szene. No. 14.
+2004
+35
+Interim: Vierzehntägiges Berlin-Info. Nos. 224, 495, 529-543, 547-555, 557-558, 560, 562-564, 567-573, 582-584, 586-588, 590-609, 621, 625-626, 634-635, 637-638, 644, 648, 651. Unnumbered issues from 2002-02-06, 2002-09-12, 2002-11-21, 2005, February 2007, and one undated issue.
+2002-2005
+ 36
+A Distribution August 84 Catalogue.
+1984
+ 37
+Direkt Aktion: Syndikalistiska Ungdomsförbundet. Nos. 4/1990, 4/1992, 4/1998, 3/2003 and a special issue from September 1994.
+1990-2003
+ 38
+Brand: anarkistick tidning sedan 1898. Nos. 14-16, 25-26, 29-30, 37 and English-language Brand news sheet from 1988. 
+1988-2004
+ 39
+El Acratador: boletin contrainformativo. Nos. 54, 57-63, 65-69. 
+1996-2000
+ 40
+Acção Directa: Revista Anarquista. Vol. 2, nos. 6, 14-15, 18-20, 32-33, 36, 38, 40. 
+2000-2007
+ 41
+The Pork-Bolter: Independent Voice of Today’s Worthing. No. 67.
+2005
+ 42
+Alternative Libertaire. Nos. 152-153, 156, 161-162.
+1993-1994
+ 43
+Con Ogni Mezzo Necessario: dossier sulla nuova Inquisizione.  Read on line.  Courtesy of ECN
+1996?
+ 44
+Federalismo e libertà. Carol Molaschi.
+1991.
+ 45
+A: rivista anarchica. No. 255,  264.
+1999-2000
+ 46
+Lotta di Classe. Nos. 57, 65-69, 74, 76-78, 80-83, 85, 93.
+2001-2006
+ 47
+Umanita’ Nova: settimanale anarchico. Vol. 63, nos. 30,35,40; Vol. 64 nos. 3,6-8,11,13,18; Vol. 65 nos. 23,30-34; Vol. 66 no. 32; Vol. 67 No’s 15-16; Vol. 68 nos 3,9; Vol. 70 nos. 6,8,10,13-27,29-37; Vol. 71 nos. 3-8,12-38/39; Vol. 72 nos. 1-4,6-29,31-39; Vol. 73 nos.1-4,7,9-18, 21,23-31,31-39; Vol. 74 nos. 2-4,6-11,13-14,16-32,35; Vol. 76 nos. 8,11,16-17,19-21,24-28,33 ;Vol. 77 nos. 1-3,7-14,16-22,24-26,28-29,31-38; Vol. 78 nos.9,11-12,17; Vol. 79 nos.1,10,12,27; Vol. 80 nos.1,3,8,40; Vol. 81 nos. 12,14,17-18,20,23-38,40-44; Vol. 82 nos. 1-9,22-23,25-33,35-43 ;Vol. 83 no’s 1-3,8-38-39,41-42; vol. 84 nos. 1-27,29,31-36,38-41 Vol. 85 nos. 1-3,5,17,19-29; Vol. 86 nos.1-14,16,33. Also includes 5 supplements and a cover less issue from 26 May 1991.
+1983-2006
+ 48
+Speed the Plough. Occasional newsletter of Trident Ploughshares. No.9 November 2000 and November 2005.
+ 2000-2005
+ 49
+Dossier Internazionale. Nos. 1-6; 9-11; 15.
+ 1984-1991
+50
+ Muutoksen Kevat No.18
+ 2000</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1982-2005</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>8. Anarchy a Journal of Desire Armed Collection.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/anarchy-a-journal-of-desire-armed-collection/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1985-2005</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>9. Black Flag Collection.</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/black-flag/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1974-2005</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>10. Class War Collection.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/class-war/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1985-2010</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>11. Contra Flow Collection.</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/contra-flow-collection/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1993-1998</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>12. Counter Information Collection.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/counter-information/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1984-2004</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>13. Direct Action Collection.</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/direct-action-collection/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>14. Freedom Collection.</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/freedom-collection/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1964-2011</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>15. Here and Now:  A Magazine of Radical Ideas Collection.</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/here-and-now-collection/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1985-1994</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>16. Organise! For class struggle anarchism Collection.</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/organise/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1989-2009</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>17. Resistance: The anarchist bulletin Collection.</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/resistance/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>18. Subversion Collection.</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/subversion/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>19. Weekly SchNews Collection.</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/weekly-schnews/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1995-2003</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>20. Workers Solidarity: Irish Anarchist Paper Collection.</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/workers-solidarity-irish-anarchist-paper/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1994-2009</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/21</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>21. Stuart Christie Collection.</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/stuart-christie-collection/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1
+Correspondence
+1
+Correspondence between Stuart Christie’s mother Olive[?] and Walter Morrison regarding actions by the Scottish Committee of 100 in supprot of Stuart prior to his trial in Spain. Includes a statement by the Scottish Committee of 100 on Stuart Christie. Read on line.
+1964
+2
+2 letters from Leigh Morrison and Walter Morrison to Stuart Christie.  Read on line.
+n.d.
+2
+Press cuttings
+1
+Obituary written by Stuart Christie of Walter Morrison in the Guardian. Read on line.
+2004-03-27
+2
+Obituary of Walter Morrison in The Herald. Read on line.
+2004-02-14
+3
+Printed draft of obituary written by Stuart Christie of Walter Morrison.  Read on line.
+n.d.
+3
+Publications
+1
+Corkerhill: A Place Worth Fighting For. Written by Walter Morrison.  Read on line.
+2003</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/22</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>22. Walter Morrison Collection.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/walter-morrison-collection/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1
+Correspondence
+1
+Letter to Kathleen Beharrell from Donald and Irene Rooum regarding a boycott letter. Read on line.
+1962
+2
+Letter to Miss Lindsay from Ronald H. Macintosh of the Scottish Council for Nuclear Disarmament. Regarding a route for marchers from Trafalgar Square to the Holy Loch. Read on line.
+1961
+3
+Letter to Walter Morrison from T.S. Maxwell of the World Peace Brigade. Regarding a request for information on the WPB.
+1962
+4
+Letter from the Scottish Committee of 100 regarding a march to the Rosyth NATO base on Easter Sunday.
+n.d.
+5
+Letter from Peter Moule, secretary of the Committee of 100 regarding a meeting with the CND National Aldermaston Committee.
+1963
+6
+Letter from Bradford Campaign for Nuclear Disarmament to Owen Staley regarding arrangements for Glasgow to London marchers. Includes itinerary for the march.
+1963
+2
+Statements and Administrative Papers
+1
+Statement by the National Working Group of the Committee of 100 on the Aldermaston march.
+1963
+2
+Statement on Hiroshima Day
+1961-08-06
+3
+Circular to Scottish Committee of 100 members requesting attendance at Rosyth protest and financial assistance.
+n.d.
+4
+Information about International Polaris Action, June 21st to 26th 1965 at Faslane.
+1965
+5
+Statement by the Scottish Committee of 100 on public inspection of military establishments.
+n.d.
+6
+Draft constitution of the Scottish Council for Nuclear Disarmament.
+n.d.
+7
+List of events from the Scottish Committee of 100.
+n.d.
+8
+Campaign for Nuclear Disarmament Annual Conference 1962 resolutions.
+1962
+3
+Publications
+1
+Glasgow Council for Nuclear Disarmament Newsletter. 
+August 1962
+2
+Glasgow Council for Nuclear Disarmament Newsletter.
+June 1962
+3
+Danger! Official Secret: RSG-6. Published by the Committee of 100.
+1963
+4
+Action for Peace. Published by the Committee of 100. 
+1963
+5
+Official Secret RSG-4.
+n.d.
+6
+Scottish Broadsheet of the Council for Nuclear Disarmament. 4 copies.
+1961
+7
+Call to Women. Monthly newsletter of the Liason Committee for Women’s Peace Groups.
+1963
+8
+National Bulletin of the Committee of 100.
+September 1963
+9
+National Bulletin of the Committee of 100.
+October 1963
+4
+Leaflets and PampletsCollection of leaflets and pamphlets on a range of issues and campaigns including nuclear disarmament; Corkerhill Community Council; Keep Bellahouston Park Green Campaign; UCS work-in; the Pollok Country Park local plan.
+1960s-1990s
+5
+News CuttingsNews cuttings on a range of stories including the poll tax; anti-fascism; privacy; Corkerhill; nuclear disarmament; the Committee of 100. From the Daily Herald; Evening Times; Scots New Leader; Peace News; The Scotsman; Scottish Daily Express; The Press; Speak Out; Young Guard; 
+1935 – 1990
+6
+Papers relating to protest and civil disobedience
+1
+File of papers relating to various protests and events held by the Committee of 100.
+1962 – 1964
+2
+File of papers relating to activity of Scottish Council for Disarmament and the Scottish Committee of 100.
+1960 – 1964
+7
+Publications
+1
+Why the League has Failed by “Vigilantes”. Left Book Club Edition.
+1938
+2
+Inflation Unemployment: Who is to blame? Labour Research Department.
+n.d.
+3
+Whatever happened to our wages? The anatomy of a wage packet 1938-68. Norman Atkinson MP.
+1969
+4
+The Way Forward For Workers’ Control. Hugh Scanlon. Published by the Institute for Workers’ Control. 
+1968
+5
+Will the Peace Last? Harold J. Laski. Peace Aims Pamphlet No. 28.
+1944
+6
+Unassigned.
+7
+Anarchy 27 (Vol 4 No 3)
+1964
+8
+On the Industrial Relations Bill. Text od a speech by Professor K.W. Wedderburn. 
+1971
+9
+Common Sense about Colonies. Philip Noel-Baker M.P. Published by the Labour Party.
+1938
+10
+Accidental War: Some Dangers in the 1960s, The Mershon Report. Published by The Campaign in Oxford University for Nuclear Disarmament
+1960s
+11
+A Study of the Meanings of Non-violence. Gene Sharp. Reprinted from Gandhi Marg.
+1959
+12
+LEFT. No. 57. Journal of the Left Forum.
+1941
+13
+Stop the War by Socialism. Independent Labour Party policy stated by Fenner Brockway.
+1941
+14
+The Political Objector to War: His right to exemption from military service. Douglas J.J. Owen.
+1940
+15
+John Maclean and Scottish Independence. Published by the John Maclean Society. 
+n.d.
+16
+Inside Story. No. 9. May/June
+1973
+17
+Inside Story. No. 10. August
+1973
+18
+Vietnam by Bob Potter.
+n.d.
+19
+Clydeside Action. No. 9.
+n.d.
+20
+Inside Story. Prison Secrets: Holloway, Peterhead, Parkhurst – &amp; Broadmoor.
+n.d.
+21
+The Great March: A commemorative collection of picutres and impressions of the TUC demonstration against the Industrial Relations Bill held in London on February 21st 1971. Trades Union Congress.
+n.d.
+22
+ Mail Interception and Telephone Tapping In Britain. Published by Hamstead Group, Committee of 100.
+n,d.
+ 23
+ Cyprus Special report.
+n.d.
+24
+ Window on the world.No. 41. Mary H. Weik, Fellowship of World Citizens.
+ 1965
+8
+Papers, pamphlets, news cuttings and publications relating tovarious interests of Walter Morrison including: the Scottish committee of 100; Cockerhill Community Council and the M77 campaign.
+1
+Collection of correspondence; reports, leaflets, and news cuttings on a range of issues relating to Corckerhill Community Council, issues including: Pollok Estate; the Ayr Road route; Gas conversion; the M77 Campaign and the Dangerwatch Kids campaign. News cuttings from the Greater Pollok Post; The Govan press; Evening Times and the Herald.
+ 1967-1995
+2
+Papers and news cuttings relating to the Committee of 100 including correspondence with the Corporation of Glasgow; British Railways and the Clyde Navigation Trust, relating to hall rental and transport to demonstrations. News cuttings from the Herald and the Stevenage Gazette about demonstrations.
+ 1962-1963
+3
+ News cuttings relating to theM77 campaign from the Daily mail; Evening Times; The Scotsman and the Herald.
+ 1994-1995
+4
+Collection of papers and news cuttings relating to different issues including; correspondence regarding Walter Morrison’s employment insurance dispute; financial appeal leaflet by Society of Graphical and Allied trades; Article from Daedalus Journal, The Arms Race and its Hazards; issues of Peace News; Socialist leader and Freedom.
+1968-1968</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1967-1995</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/23</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>23. Clydeside Hunt Saboteurs Collection.</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/julia-walton-collection/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1
+Administrative papers
+1
+Clydeside Hunt Saboteurs notepad containing minutes; notes about finances and events. Read on line and other options.
+1989-1990
+2
+Folder of mintutes and other administrative papers including documents relating to tactics, times and dates of hunts, correspondence, news cuttings, and contact lists. Read on line and other options.
+1983-1990
+3
+Hunt Saboteurs Association Tactics Booklet.  Read on line and other options.
+1985
+4
+Clydeside Hunt Saboteurs Association Advice for New Hunt Saboteurs. Read on line and other options.
+n.d.
+5
+Document containing list of foxhunting terms.  Read on line and other options.
+n.d.
+6
+Clydeside Hunt Saboteurs introduction to foxhunting.  Read on line and other options.
+n.d.
+7
+Clydeside Hunt Saboteurs Renfrewshire Report.  Read on line and other options.
+1986-1987
+8
+Note from the chairman of the Eglinton Hunt regarding hunt saboteurs. Read on line and other options.
+n.d.
+2
+Serials
+1
+Wild Times: Protecting Scotland’s Wildlife. Newsletter of Scottish Action Against Bloodsports.
+1
+Issue 1. Read on line and other options.
+1992
+2
+Issue 2. Read on line and other options.
+1993
+3
+Issue 3.  Read on line and other options.
+1993
+2
+Scottish H.S.A. Newsheet. Read on line and other options.
+n.d.
+3
+HOWL: Magazine of the Hunt Saboteurs Association
+1
+No. 43. Read on line and other options.
+1990
+2
+No. 45. Read on line and other options.
+1990
+3
+No. 52. Read on line and other options.
+1993
+4
+No. 54. Read on line and other options.
+1994
+5
+No. 69. Read on line and other options.
+2000
+3
+News cuttings
+1
+Picture of Clydeside Hunt Saboteurs activists in the Scotland on Sunday. Read on line and other options.
+1990-01-21
+2
+Strathclyde Telegraph containing article about the death of hunt saboteur Mike Hill during a protest against the Cheshire Beagles Hunt. Read on line and other options. 
+1992-03-10
+3
+Article in The Scotsman about the rescue of a fox by Clydeside Hunt Saboteurs. Read on line and other options.
+1992-01-13
+4
+Leaflets and pamphlets Includes pamphlets and leaflets from the Hunt Saboteurs Association; the RSPCA; Clydeside Hunt Saboteurs. Read on line and other options.
+n.d.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1989-1990</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/24</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>24. Jayne Taylor O’Neil Collection.</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/jayne-taylor-oneil-collection/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1
+Correspondence
+1
+Letters from Stewart Home to Jane Taylor O’Neil. Read on line.
+c.1993
+2
+Letters from Jayne Taylor O’Neil to Pete Horobin.  Read on line.
+c.1987 – 1988
+2
+Leaflets and flyers
+Includes leaflets from Greenpeace, Save Pollok Estate, Scottish Artists Union, Recycled Art, Art Strike. Read on line.
+1990s
+3
+Pamphlets and publications
+1
+The Psychosomatic Variations. By John Berndt. Read on line.
+1989
+2
+Return of the Moral Subject: An essay on class, identity &amp; free will from The Pleasure Tendency. Further Theses 3. Read on line.
+1986
+3
+Ruins of Glamour, Glamour of Ruins. Booklet accompanying the ‘Ruins of Glamour, Glamour of Ruins’ installation at Chisenhale Studios. Read on line.
+1986
+4
+SCUM Manifesto. Valeria Solonas. Read on line.
+c.1983
+5
+The Festival of Plagiarism. Stewart Home. Read on line.
+1989
+6
+Beyond Social Inclusion, Towards Cultural Democracy. Cultural Policy Collective. Read on line.
+n.d.
+7
+SMILE. Issue 10. Read on line.
+n.d.
+8
+VAGUE. Control Data Manual. Issue 18/19
+1986
+9
+Fluxshoe. Published by Beau Geste Press. Read on line.
+1972
+10
+Performance by Artists. Edited by AA Bronson and Peggy Gale.
+1979
+11
+Art &amp; Design Magazine: Fluxus Today and Yesterday. 
+1993
+4
+Posters
+Posters include: Local Exchange Trading System Christmas Trade in Lansdowne Church; Yes, You Can Say NO!; International No Shop Day; Cactus Communication Network; Young Scottish Designer of the Year; Jayne Taylor O’Neil exhibition at CCA. Read on line.
+1990s</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1972-1990</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>25. Simon Yuill Collection.</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/simon-yuill-collection/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1
+Publications
+1
+(Book) ISBN: 978-0-9562713.8.9 Stackwalker: Interviews 2008-2010. By Simon Yuill. Published by CCA, Glasgow. Interviews recorded over a period from August 2008 to June 2010, mostly in the Hebrides and the North East of Scotland, with others in Edinburgh, Glasgow, and London. Presented as near verbatim transcripts following the original order of recording.Front Cover.Back Cover.
+2012
+2
+Photographs 
+1
+CD of 240 photographs of Pollok Free State.
+A collection of photographs, articles, documents, posters and publications from the Pollok Free State.
+Pollok Free State: an organisation protesting against the building of the M77 motorway through public woodlands in Pollok in 1995. This motorway development would cut through one of Europe’s largest inner city public commons. The rights of local people to determine the use and development of public space were also an issue. It was part of a bigger ‘No M77’ protest across Glasgow that included many groups, including Earth First! and Glasgow For People, and attracted support internationally.From the Spirit of Revolt Archive: Simon Yuill Collection.
+Read Online:
+Full Text.
+DjVu.
+c.1995
+3
+Film
+1
+To Pollok With Love.A video about Pollok Free State: an organisation protesting against the building of the M77 motorway through public woodlands in Pollok in 1995. This motorway development would cut through one of Europe’s largest inner city public commons. The rights of local people to determine the use and development of public space were also an issue. It was part of a bigger ‘No M77’ protest across Glasgow that included many groups, including Earth First! and Glasgow For People, and attracted support internationally.MPEG4.
+Ogg Video.
+c.1995</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2008-2010</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/26</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>26. James Kelman Collection.</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/james-kelman-collection/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1
+Clydeside Action On Asbestos.
+Material relating to a campaign and self help group set up in 1984 and run by volunteers who were victims of asbestos. They provided support and counselling and campaigned vigorously for the rights of asbestos victims to receive recognition of the disease which was killing them, appropriate medical care and the correct level of compensation. Collectively they became the foremost experts on asbestos in the British Isles. They ran a major national campaign on the use of C.T. Scan rather than a biopsy (which often hastened death) and an international campaign – “The Asbestos Charter”, which called for a Universal Declaration by all states to ban asbestos and implement an ethical Code of Practice for the diagnosis and treatment of terminal victims. CAA carry on their work today with employed staff who provide a number of services for the victims of asbestos.
+Includes: administrative papers; minutes; handwritten notes; letters; finances; newspaper clippings, publicity materials; photocopies of medical text on the disease and policy documents.
+1
+A two page account by Pat McCrystal – entitled Mesothelioma, about the working conditions in the ship yards of Glasgow where he contracted the disease and a seven page document by James Kelman describing Pat McCrystal’s fight for justice, the background to asbestos related illness and the medical, political and legal barriers which he and others met (page 3 of this document is missing). Read on line.   PDF and other downloads.
+n.d
+2
+Annotated photocopy of the chapter on Asbestos-Related Diseases from the textbook Occupational Medicine held at Glasgow University. Read on line.   PDF and other downloads.
+n.d
+3
+Medical Appeal Tribunal findings, with notes, for Mary Mulligan. James Kelman made submission to the Tribunal (page 1 is missing). Read on line,   PDF and other downloads.
+17/06/1992
+4
+Department of Employment letter to Pat McCrystal thanking him for his application under Pneumoconiosis Etc (Workers’ Compensation) Act 1979. View on line,   PDF and other downloads.
+22/06/1992
+5
+A letter to Robert Black from the Benefits Agency rejecting a review of his assessment for disablement for the industrial disease Pneumoconiosis on 17.5.1991, with handwritten notes. View on line,   PDF and other downloads.
+11/06/1992
+6
+The Asbestos Tragedy, typed document produced for a public meeting in Govan urging people to get a pledge from their local politicians that they will deal with the Asbestos issue (earlier version of T_SOR_26_1_114, see also T_SOR_26_1_9 publicity flyer for the meeting).  View on line.  PDF and other downloads.
+14/06/1992
+7
+Families Protest against law to limit compensation, newspaper clipping, The Herald.  View on line.  PDF and other downloads.
+03/02/1993
+8
+Ships’ asbestos dust kills man 50 years on, newspaper clipping, The Herald.  View on line,  PDF and other downloads.
+n.d
+9
+CAA flyer publicising a public meeting in Govan on ‘Asbestos Kills, Govan – a high risk area, support The Asbestos Charter for a global ban’.  View on line.   PDF and other downloads.
+1992
+10
+CAA handwritten note discussing the lengths to which the authorities will go to prevent justice, there is a missing page. View on line,   PDF and other downloadds.
+n.d
+11
+Handwritten notes from a CAA meeting. View on line,    PDF and other downloads.
+20/09/91
+12
+Letter from Bert Connors, Chairperson, CAA asking people to support CAA recommendations and bring pressure to bear on behalf of the victims of asbestos related illnesses.  View on line,   PDF and other downloads.
+n.d
+13
+Handwritten notes relating to Death on the Clyde an article published in The Glasgow Keelie, May 1991.  View on line,   PDF and other downloads.
+1991
+14
+Culture and Oppression – B. Business versus A. Worker, pages 16-19. See also T_SOR_26_1_19 and T_SOR_26_1_43 – ‘Reasoning Flaws and the Asbestos Industry’. View on line.   PDF and other downloads. 
+n.d
+15
+Leaflet published by CAA entitled – Biopsy.  Read on line,   PDF and other downloads.
+n.d
+16
+5th 
+National Hazards Conference held in Edinburgh University with an income and expenditure statement and handwritten notes of the proceedings. Read on line,   PDF and other downloads.
+8-9/11/91 
+17
+Unassigned
+18
+Letter from Michael J. Martin, M.P. to Mrs Frances Rickus, Glasgow North Area Co-ordinator, Glasgow District Council regarding Rosemount Development Trust Ltd.  Read on line,   PDF and other downloads.
+24/11/1991
+19
+Reasoning Flaws and the Asbestos Industry. See also T_SOR_26_1_14, Culture and Oppression – B. Business versus A. Worker, pages 16-19 and T_SOR_26_1_43, Reasoning Flaws and the Asbestos Industry pages 2-6.  Read on line,   PDF and other downloads.
+n.d
+20
+Hurting the Victims of Asbestos. Typed article with annotations published in The Glasgow Keelie.  Read on line,   PDF and other downloads.
+July
+1991
+21
+CAA Report.  Read on line,   PDF and other downloads.
+01/01/91
+22
+Press and broadcast media contacts list on reverse of W Kennedy Spouse Claim.  Read on line,   PDF and other downloads.
+n.d
+23
+Letter from Ian McKechnie to Mr K Crookston, Glasgow Building Department about the corruption and incompetency of the department in regard to tenemental repair works in Millbrae, Glasgow, G42, including a list of demands from the tenants.  Read on line,   PDF and other downloads.
+02/12/1991
+24
+CAA handwritten notes about the process of claiming compensation for asbestos related illnesses and the disparity of procedures between Scotland and the rest of the UK.  Read on line,   PDF and other downloads.
+n.d
+25
+CAA handwritten notes for fundraising events with a list of possible speakers and CAA’s priorities for victims: CT Scan; hospice and convalescence home for families of victims. Read on line,   PDF and other downloads.
+n.d
+26
+CAA handwritten notes planning how victims pay for their own CT Scan with a contact address for the NHS Support Federation.  Read on line,   PDF and other downloads.
+n.d
+27
+Notes from a publication which quotes T. G. Ison’s, The Dimension of |Industrial Disease and medical boards and Pneumoconiosis Panels in Canada.  Read on line,   PDF and other downloads.
+n.d
+28
+CAA handwritten notes comparing the differences between Scottish and British legislation and procedures for the diagnosis, treatment and claim for compensation of an asbestos related illness.  Read on line,   PDF and other downloads.
+n.d
+29
+Partially scanned newspaper article about the Frank Lefevre Practice and Quantum Claims, a compensation service for victims of ‘accident, injury, or loss’, operating on a ‘No Win No Fee’ basis, The Herald.  Read on line,   PDF and other downloads.
+05/02/92
+30
+CAA handwritten notes about the presence of asbestos in the body and posthumous claims for compensation. Read on line,   PDF and other downloads.
+n.d
+31
+Document detailing The CT Scan Campaign For Asbestos Victims.  Read on line,   PDF and other downloads.
+n.d
+32
+Typed notes about the Pat McCrystal court case and subsequent settlement.  Read on line,   PDF and other downloads.
+n.d
+33
+CAA Press Release for St Charles’ Players production of Mary Brown’s play, ‘Pals’, proceeds from which will go to The CT Scan Campaign For Asbestos Victims. Read on line,   PDF and other downloads.
+27/11/1991
+34
+Typed notes entitled, European Chemical Workers etc, which details the amount of asbestos fibres which people can be exposed to, with examples from the U.S.A and states that the is no ‘safe’ level of exposure to Asbestos and looks at the diseases caused by exposure either blue or white asbestos.  Read on line,   PDF and other downloads.
+n.d
+35
+CAA information sheet detailing the lengthy and gruelling process victims of Asbestosis have to go through to get diagnosed and to get compensation. Highlights the differences between the views adopted by the Courts, the Insurers, the DSS and the Doctors.  Read on line,   PDF and other downloads.
+n.d
+36
+Sketch for a poster for a CAA Charity Night presenting the play ‘Pals’ written by Mary Brown and performed by the St. Charles Players at the Murray Community Hall, East Kilbride. proceeds from which will go to The CT Scan Campaign For Asbestos Victims. Read on line,   PDF and other downloads.
+05/12/1991
+37
+Information sheet with advice on how to fill out a Restart interview form with a contact list for organisations in Edinburgh, West Lothian and Midlothian who can give advise.  Read on line,   PDF and other downloads.
+n.d
+38
+‘ I Prayed my Dad Would Die’, magazine article by Ann Parry and Mike Housego about the actor Steve McQueen who died of mesothelioma because of exposure to asbestos.  Read on line,   PDF and other downloads.
+n.d
+39
+Letter from John Gilchrist to his lawyer Frank McGuire of Robin Thompson &amp; Partners asking him to clarify a number of points in his claim for compensation for an asbestos related illness from his previous employers Newalls Installation Co. Ltd and Manotonello Ltd respectively. Read on line,   PDF and other downloads.
+08/12/1991
+40
+Letter from James W Kerr, Consultant Physician regarding the pulmonary function tests of Robert McKenzie which confirm reduced lung volume are due to asbestos damage (page 1 is missing).  Read on line,   PDF and other downloads.
+n.d
+41
+CAA Discussion Paper for the Diagnosis Campaign.  Read on line,   PDF and other downloads.
+n.d
+42
+The Campaign for Medical Justice, A Study Document Pending Potential Implementation in 1993 by Allan Mansfield for CAA.  Read on line,   PDF and other downloads.
+c. 1993
+43
+Reasoning Flaws in the Asbestos Industry pages 2-6. See also T_SOR_26_1_14, Culture and Oppression – B. Business versus A. Worker, pages 16-19 and T_SOR_26_1_19 also Reasoning Flaws and the Asbestos Industry.  Read on line,   PDF ands other downloads.
+n.d
+44
+Letter detailing the Asbestos Homes Analysis Service offered by the Asbestos Victims of America group.  Read on line,   PDF and other downloads.
+1984
+45
+CAA handwritten notes on two compensation cases.  Read on line,   PDF and other downloads.
+n.d
+46
+Two letters from Mary McGowan, Community Programmes Co-ordinator, STV, to Bert Connor regarding an application by CAA to feature on STV’s Box 2000.  Read on line,   PDF and other downloads.
+1991
+47
+Second International Safe Communities Conference, Safe Castlemilk, Glasgow, Scotland. Registration and Call for Abstracts.  Read on line,   PDF and other downloads.
+1992
+48
+The Asbestos Charter. Stop the Third Wave Pandemic. Justice for the Victims and a Global Ban on Asbestos.  Read on line,   PDF and other downloads.
+n.d
+49
+Partially scanned article about CAA with photograph of Larry Nugent and Bert Connor, BLOW OUT magazine for OILC workers Sep/Oct 1991.  Read on line,   PDF and other downloads.
+1991
+50
+Cancer Unit Backs Asbestos Victims by Alan McDermid, The Herald.  Read on line,   PDF and other downloads.
+1993
+51
+Ready for any contingency in an inadequate Legal Aid system by Lorn Macintyre (half of article is missing).  Read on line,   PDF and other downloads.
+1992
+52
+Letter from Benefits Agency to Bert Connor regarding Mrs Jeanette Sawyer’s independent appeal tribunal for Disablement Benefit.  Read on line,   PDF and other downloads.
+1992
+53
+The Dying Men and the Fight for Justice by Bryan Christie, The Scotsman.  Read on line,   PDF and other downloads.
+1992
+54
+Letter from the Compensation Recovery Scheme, Department of Social Security to Robin Thomson &amp; Partners regarding Samuel Hardie’s Industrial Injuries Disablement Benefit.  Read on  line,   PDF and other downloads.
+1991
+55
+Published personal account by James Kelman of the proceedings at the Court of Session regarding Pat McCrystal’s fight for justice – ‘There seems no process in law by which the guilty people can face trial for their disregard of human life’.  Read on line,   PDF and other downloads.
+1991
+56
+Cancer Check Speeds Death, Family Claim by George Rosie, The Sunday Times.  Read on line,   PDF and other downloads.
+1983
+57
+Government Claws Back Cash From The Dying, partially scanned newspaper article, the Socialist newspaper.  Read on line,   PDF and other downloads.
+25/09-8/10/1991
+58
+Danger Tip Cash Appeal, by Loudon Temple, Evening Times.  Read on line,   PDF and other downloads.
+1981
+59
+Leaflet on how to apply for Industrial Injuries Disablement Benefit (page 2-3).  Read on line,   PDF and other downloads.
+n.d
+60
+Lawyers want to find Holy Loch ship workers from 1960’s by Carl Gordon,  Read on line,   PDF and other downloads.
+n.d
+61
+Killer Dust Victim Leaves Gift of Hope by Maggie Barrie, The Evening Times.  Read on line,   PDF and other downloads.
+10/07/1991
+62
+Extract from a companies Notes on the Accounts, Commitments and Contingent Liabilities, which discusses court actions for asbestos related illnesses in the UK and USA.  Read on line,   PDF and other downloads.
+n.d
+63
+Guide to provisional damages and benefits.  Read on line,   PDF and other downloads.
+n.d
+64
+Journal of Law and Society, Volume 19, Number 3, Autumn 1992, The Asbestos Regulations 1931; A Licence to Kill by Nick Wikeley, University of Birmingham UK, pages 365 -377.  Read on line,   PDF and other downloads.
+1992
+65
+Case notes on asbestos claims settlement totals. Read on line,   PDF and other downloads.
+n.d
+66
+Letter from Alan Dalton, Senior Lecturer in Health and Safety, Centre for Industrial and Environmental Safety and Health (CIESH), South Bank University, London in reply to a letter from CAA about making a complaint against the HSE (Health &amp; Safety Executive).  Read on Line,   PDF and other downloads.
+28/12/1992
+67
+CAA Reports, February and June 1991.  Read on line,   PDF and other downloads.
+1991
+68
+C.T. Scan Campaign – Handwritten notes planning National Campaign.  Read on line,   PDF and other downloads.
+n.d
+69
+The C.T. Scan Campaign document with handwritten corrections.  Read on line,   PDF and other downloads.
+n.d
+70
+Occupational Lung diseases: Claims for disablement Benefit 1985 (page 101 from academic book).  Read on line,   PDF and other downloads.
+n.d
+71
+The Brig, CAA Newsline, No 1 (front cover).  Read on line,   PDF and other downloads.
+04/12/92
+72
+Heart-breaking hurdles in the path of claimants, newspaper clippling, The Herald.  Read on line,   PDF and other downloads.
+1988
+73
+Letter from The Asbestos Induced Diseases Society (AIDS).  Read on line,   PDF and other downloads.
+12/09/1978
+74
+Letter from Asbestos Victims of America (AVA ) describing the work that they they do in US (2nd page missing).  Read on line,   PDF and other downloads.
+n.d
+75
+Dust of Death by Maggie Barrie, Daily Record newspaper clipping of article about Williamina Watkins.  Read on line,   PDF and other downloads.
+n.d
+76
+CAA Committee Meeting Minutes.  Read on line,   PDF and other downloads.
+16/04/92
+77
+Annotated list of journals and articles related to Asbestos.  Read on line,   PDF and other downloads.
+n.d
+78
+Criteria for the diagnosis of asbestos induced diseases.  Read on line,   PDF and other downloads.
+n.d
+79
+CAA application for: ‘Support Project for A.R.D. Sufferers’ to Strathclyde Regional Council’s Urban Programme.  Read on line,   PDF and other downloads.
+n.d
+80
+Thank you card from Mary Markwick to James Kelman.  Read on line,   PDF and other downloads.
+n.d
+81
+Hazards leaflet.  Read on line,   PDF and other downloads.
+1991
+82
+The Asbestos Charter: poster; aims; statement of support and appeal for donations.  Read on line,   PDF and other downloads.
+n.d
+83
+Directions for signing Deeds with schedule and specimen.  Read on line,   PDF and other downloads.
+n.d
+84
+Department of Health and Social Security, Special Medial Board Adjudication Officer’s Decision for Mr Thomas Kerr.  Read on line,   PDF and other downloads.
+12/06/1992
+85
+Letter from CAA to ‘notable personalities’ asking them to affiliate to the group.  Read on line,   PDF and other downloads.
+14/06/1992
+86
+Damages (Scotland) Bill [H.L.]  Read on line,   PDF and other downloads.
+16/07/92
+87
+Handwritten notes to challenge a tribunal decision.  Read on line,   PDF and other downloads.
+c. 1992
+88
+‘
+Scottish Law and the victims of asbestos‘ article written by James Kelman in September 1992 for The Herald and one page of typed notes written in November 1992.  Read on line,   PDF and other downloads.
+1992
+89
+Letter from Campbell Christie, General Secretary, STUC to Lord Hope, Lord President of the Supreme Court which concern the working of Part IV of the Social Security Administration Act 1992.  Read on line,   PDF and other downloads.
+17/10/1994
+90
+CAA Income &amp; Expenditure Account and Balance Sheet for year ended 31st March 1993.  Read on line,   PDF and other downloads.
+30/06/93
+91
+CAA Letter to members and questionnaire, ‘Survey into the Poverty that Victims of Asbestos Must Suffer.’  Read on line,   PDF and other downloads.
+n.d
+92
+CAA, Asbestos Sufferers and the Law, Support the Lobby to change the Law.  Read on line,   PDF and other downloads.
+n.d
+93
+CAA Annual Report 1992-93.  Read on line,   PDF and other downloads.
+1993
+94
+Robbing the Victims, Section 22 of the 1989 Social Security Act. A report by the TUC.  Read on line,   PDF and other downloads.
+01/07/93
+95
+Various newspaper cuttings.  Read on line,   PDF and other downloads.
+c. 1993 – 1996
+96
+Reasoning Flaws and the Asbestos Industry (see T_SOR_26_1_43 for an earlier version of this).  Read on line,   PDF and other downloads.
+n.d
+97
+CAA talk prepared for Albion Workers.  Read on line,   PDF and other downloads.
+n.d
+98
+CAA paper for internal discussion.  Read on line,   PDF and other downloads.
+c. 1992
+99
+Paper delivered at a CAA Emergency General Meeting with additional notes.  Read on line,   PDF and other downloads.
+01/08/92
+100
+‘
+Scottish Law and the victims of asbestos’ article written by James Kelman which was published in The Herald in September 1992 (please see T_SOR_26_1_88 for an early version of this article).  Read on line,   PDF and other downloads.
+1992
+101
+Fighting for the Living: Remember the Dead: Peter Coyle R.I.P by James Kelman.  Read on line,   PDF and other downloads.
+1992
+102
+Press statement on the death of Peter Boyle delivered to television cameras inside the City Chambers of Glasgow.  Read on line,   PDF and other downloads.
+12/10/92
+103
+CAA talk delivered at a public meeting in Govan, allowing prospective candidates for a local by-election to air their views on the subject.  Read on line,   PDF and other downloads.
+Autumn 1992
+104
+Asbestos and the fight for justice, article first published anonymously in BLOW OUT magazine for OILC workers in 1991.  Read on line,   PDF and other downloads.
+1991/1992
+105
+Deadly Dust, article first published anonymously in BLOW OUT magazine for OILC workers in 1991/1992.  Read on line,   PDF and other downloads.
+1991/1992
+106
+Discussion paper written for a meeting between CAA and the Social Security Benefit Agency (SSBA)to discuss mutual problems.  Read on line,   PDF and other downloads.
+1992
+107
+Typed and handwritten lists of various CAA internal and external discussion papers, letters, articles and notes and an annotated printout of electronic documents.  Read on line,   PDF and other downloads.
+n.d
+108
+The DSS Criteria for Diagnosing An Asbestos-related Illness, paper discussing the issues affecting claimants when applying for Industrial Disability Benefit and Victims Twice Over – The Battle for Recognition, examples of the experiences of asbestos victims.  Read on line,   PDF and other downloads.
+n.d
+109
+Annotated list of printed CAA electronic documents.  Read on line,   PDF and other downloads.
+1992
+110
+Why don’t we do undertaking on the side? Document concerning Case 27.  Read on line,   PDF and other downloads.
+n.d
+111
+CAA letters to: Medical Appeal Tribunal; Professor F Edwards, Social Work Department, Strathclyde Region; Dr Greenberg and a letter regarding the Pat McCrystal case which was cc’d to John Smith M.P.  Read on line,   PDF and other downloads.
+c. 1992
+112
+Press Release to publicise the Pat McCrystal court case and the background to asbestos related diseases, compensation and Scottish Law.  Read on line,   PDF and other downloads.
+1991
+113
+Typed notes and leaflet produced for the TUC conference in Glasgow.  Read on line,   PDF and other downloads.
+1991
+114
+The Asbestos Tragedy, leaflet produced for a public meeting in Govan urging people to get a pledge from their local politicians that they will deal with the Asbestos issue and typed notes of procedures for the meeting (see also T_SOR_26_1_9 publicity flyer for the meeting).  Read on line,   PDF and other downloads.
+1992
+115
+Letter regarding the court case of Pat McCrystal to the secretary of the GMB union, cc’d to the STUC and TUC.  Read on line,   PDF and other downloads.
+1992
+116
+CAA letters to: Thomas Smith, Jasper Robinson and Partners; George Galloway MP; EIS membership and James Harkins, SSBA.  Read on line,   PDF and other downloads.
+1992
+117
+CAA Letterheaded Notepaper.  Read on line,   PDF and other downloads.
+n.d
+118
+Typed notes on Medical Appeal Tribunals.  Read on line,   PDF and other downloads.
+n.d
+119
+Death on the Clyde, article about asbestos related diseases, claims for compensation and CAA, part of which was published in The Glasgow Keelie.  Read on line,   PDF and other downloads.
+01/05/91
+120
+CAA letters to: Dave Feikert, NUM and Tom Cook, Asbestos Diseases &amp; Industrial Cancer Victims Group, Parrammatta, NSW.  Read on line,   PDF and other downloads.
+1991-1992
+121
+Notes on research required immediately for CAA database including: age; cause of death; biopsy; C.T. Scan; court case etc and additional medical notes.  Read on line,   PDF and other downloads.
+1991
+122
+The Way Our Lungs Work, document describing how the lungs function taken from an official text.  Read on line,   PDF and other downloads.
+n.d
+123
+Notes on the DSS Criteria for the diagnosis of asbestos-related disease.  Read on line,   PDF and other downloads.
+n.d
+124
+Notes on understanding asbestos-related diseases.  Read on line,   PDF and other downloads.
+n.d
+125
+Notes on setting up a Medical Group within CAA.  Read on line,   PDF and other downloads.
+1992
+126
+Clydeside Action Law Group: What are the aims and objectives of “the Law Group”? And accompanying typed and handwritten notes.  Read on line,   PDF and other downloads.
+1992
+127
+Notes to representing a victim in the fight for Reduced Earnings Allowance (REA).  Read on line,   PDF and other downloads.
+n.d</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1991-1992</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
         <is>
           <t>27. Tom Leonard Collection.</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/tom-leonard-collection/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/28</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>28. Brendan McLaughlin Collection.</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/brendan-mclaughlin-collection/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1
+Workers’ City
+1
+Statements and Administrative papers
+1
+Demonstration Notice Read On Line
+1990
+2
+‘Our Right to Reply’, paper detailing the criticism of Glasgow’s 1990 year of culture. Read on line.
+1990
+3
+Press Release for first Workers’ City night. Read on line
+1990
+4
+Proposed Conference: Glasgow – Policies for Cultural Development. Read On Line
+1990
+5
+Publicity
+A4 poster publicising Worker’s City and The Reckoning (2 copies).
+1990
+2
+Elspeth King Defence Committee
+1
+An Appeal on Behalf of a Friend Unfairly Treated, a pamphlet on the Elspeth King debate by Alasdair Gray. Read on line.
+1990
+2
+Press Release for talk by Terry McCarthy, Director of the National Museum of Labour History. 1975-1988.
+1990
+3
+Flyer for Terry McCarthy talk
+1990
+4
+Notice of picket outside City Chambers in support of Michael Donnelly (Elspeth King’s assistant).
+1990
+5
+The Famous Smudge Presents A Catty Christmas Greeting with Bells
+A Mistur Crappy Card. Nae messin 1990 wis a crappy year
+1990
+3
+Glasgow Green
+1
+Flesher’s Haugh Redevelopment Survey. Read on line.
+1990
+2
+Glasgow Green Fact Sheet
+n.d
+3
+Save Glasgow Green, Public Meeting Flyer.
+1990
+4
+Glasgow Green the Peoples Common Green.
+n.d
+5
+Glasgow for People, Summer 1990, Newsletter.
+1990
+2
+Miscellaneous papers
+Folder of papers relating to various issues and interest’s of Brendan McLaughlin including a flyer for the launch of his album, Independence; leaflets by the groups Glasgow for People and Clydeside Action on Asbestos and material relating to Sound House Theatre; posters and flyers for events at the Scotia Bar and Clutha Vaults; The Stockwell Village, A Public Dialogue; poster for The Stockwell Village festival; poster and photocopy for a tribute to John MacLean at the Arches Theatre and printouts of photographs from Mayday, Glasgow Green 1990. Read on line.
+c1990-2014
+3
+Serials
+1
+Art Work No.44
+1990
+2
+Glasgow Keelie Nos 2, Read on line, 3, Read on line, 4, Read on line, 5, Read on line,  6, Read on line, May and November 1991, July 1992,  18, Read on line,  Images courtesy of Workers City.  20, Read on line,   PDF and other downloads.       
+1990-1992
+4
+News cuttings Folder of news cutting relating to various issues including 
+Elspeth King; the poll tax; Glasgow’s year of culture and Glasgow Green. 
+From the Herald; the Glaswegian  and Scotland on Sunday. Also
+ includes Socialist Worker No. 2431, 29 November 2014. Read on line
+1990-2014
+5
+Ephemera5 CD’s: The Lucky Ones; Independence and See me I’m 
+Always Dreaming by Brendan McLaughlin, Living with the Legend:
+The Scotia Bar Live Album and The Kingston Bridge Trio. Read on line 
+1991-2014
+6
+        Publications and pamphlets
+1
+At Glasgow Cross by Freddie Anderson.
+Published by Fat Cat Publications. Limited Edition No. 528. Read on line.
+1987
+7
+Song sheets
+1
+Song of the Flea. 
+By Freddie Anderson. Read on line  
+March 1976
+2
+Song Broadsheet… Glasgow Songs… Read On Line  
+nd
+3
+Born In Glasgow, Gallus Glasgow, I Was Born In Glasgow.
+Published by Gallus Music. Various songs by various songwriters and singers including: Iain Mackintosh; Hamish Imlach; Ewan McVicar; Ian Davidson and Alan Tall. Read on line
+nd
+8
+1
+Photographs.
+Twenty colour photographs
+Includes photographs of: models of the Scotia and Clutha Bars; Workers City poster; framed paintings and Brendan’s home. Read on line
+nd</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1990-2014</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/29</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>29. Simon Dell Collection.</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/simon-dell-collection/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1
+Publications and Pamphlets
+1
+Theses Against Cynicism. The Pleasure Tendency. Leeds.
+1987
+2
+Drugs. Arthur Moyse. Phoenix Press.
+n.d
+3
+Towards Anarchism. Errico Malatesta. Drowned Rat Collective.
+1985
+4
+Don’t Mark His Face: The account of the Hull Prison Riot (1976) and its brutal aftermath by the Prisoners Themselves. The National Prisoners’ Movement.
+1979
+5
+Anarchism: Arguments For and Against. Albert Meltzer. Black Flag &amp; South London Anarchist Group.
+1984
+6
+Hansen, Soren &amp; Jensen, Jesper. The Little Red School-Book. London: Stage 1. ISBN 085350107.
+1971
+7
+Paris: May 1968. Dark Star &amp; Rebel Press.
+1985
+8
+Protest and Survive. E.P Thompson. Russell Press.
+1980
+9
+Anarchism- As We See It. Anarchist Communist Federation.
+n.d
+10
+The Adventures of Tintin in Patriarchy is our Prison. From Attack. Sunshine c/o Raven.
+n.d
+11
+Animal Liberation: A Case of Moral Indignation? B&amp;B.
+c.1980s
+12
+At Least Cruise is Clean. Lynchcombe. Niccolo Press.
+n.d
+13
+ROF Burghfield: A Nuclear Weapons Factory. Burghfield Peace Camp.
+1983
+14
+Northern Ireland: Non Violent Perspectives. Peace Pledge Union. London.
+1985
+15
+Northern Ireland: Looking Through the Violence. Peace Pledge Union. London.
+1985
+16
+On the Duty of Disobedience by Henry Thoreau. Housmans. Introduction by Gene Sharp.
+1985
+17
+Free Association: Revolutionary Committees As a Method of Organization. More to Come. San Francisco. Reprinted by Thames Valley Anarchists.
+n.d
+18
+Until All Are Free: The Trial Statement of Ray Luc Levasseur. London: Attack International.
+n.d
+19
+The International Revolutionary Solidarity Movement. Edited by Albert Meltzer. Cienfuegos Press.
+1976
+20
+Working Class Hero: Harry Roberts. 
+n.d
+21
+Winning the Class War: An Anarcho-Syndicalist Strategy. The Direct Action Movement &amp; International Workers Association.
+1991
+22
+My Life Depends On You. Pamphlet by Martti Koskii.
+n.d
+23
+Peace Manifesto. Die Grunen. Federal executives of Die Grunen.
+n.d
+24
+Introduction to Non violence and Non violent Action. Peace Pledge Union. London.
+n.d
+25
+The Psychology of Non violence. Peace Pledge Union. London.
+1982
+26
+The Spirit of Freedom: The War in Ireland. Attack International.
+1989
+27
+End Special Report: The Nuclear North Atlantic. Grimson, Olafur Grimson &amp; Angus McCormack. Glasgow End &amp; End.
+1982
+28
+Mujeres Libres: Organizing Women During the Spanish Revolution. Martha Ackelsbery. Brixton DAM.
+1987
+29
+No Poll Tax Here. Pamphlet by Direct Action Movement. Manchester. 
+n.d
+30
+Missiles, Reactors and Civil Liberties. Edited by Gari Donn. Scottish Council for Civil Liberties.
+1981
+31
+Poll Tax Handbook. Scottish Trades Union Congress/Scottish Council for Civil Liberties/Scottish Local Government Information Unit.
+1989
+32
+Direct Action. April Carter. Housmans/Peace News. New introduction by Bob Overy.
+1983
+33
+Buffo-Amazing Tales of Political Pranks and Anarchic Buffoonery. Spectacular Times. London.
+1985
+34
+Into the Anarchic by George Gunn. Pulteney Press.
+1985
+35
+Anti-Semitism and the Beirut Pogrom. Fredi Perlman. Left Bank Books. Reprinted by Thames Valley Anarchists.
+1983
+36
+Malatesta’s Anarchy. Freedom Press.
+1974
+37
+Remarks on Nicaragua. Rafael Pallais. Reprinted by Thames Valley Anarchists.
+1987
+38
+On the Poverty of Student Life. Red and Black, Raven Press.
+1988
+39
+Fair Cop. Scottish Council of Civil Liberties.
+n.d
+40
+Fascism and How to Fight It. Anti-fascist Action. Liverpool.
+n.d
+41
+The Poor Folk’s Guide to the Revolt of 1381. Publisher J.L Carr. Reprinted by Thames Valley Anarchists.
+n.d
+42
+Against Redistributing Poverty by the Wages for Housework Campaign and payday men’s network. Wages for Housework campaign. London.
+1991
+43
+Recipes for Internationalism. Produced for International Women’s Day. Aberdeen Anti-Apartheid Group.
+1987
+44
+The Methods of Anarcho-Syndacalism. Rudolf Rocker. Monty Miller Press. Sydney.
+1981
+45
+Love Lies Bleeding. Claudia. Aldgate Press. London.
+n.d
+46
+Everything You Ever Wanted To Know About Anarchism But Were afraid to ask. Black Sheep Publications/Dark Star/Rebel Press.
+1988
+47
+Poetry of the Class War. Anarchist Black Cross. Leeds.
+n.d
+48
+Poison in Our Hills: the First Inquiry on Atomic Waste Burial. SCRAM. Edinburgh.
+1980
+49
+Fighting for Survival: the Steel Industry in Scotland by James Kelman. Clydeside Press Publishing Ltd.
+1990
+50
+Misinformation and Manipulation: An Anarchist Critique of the Politics of AIDS by Joe Peacott. BAD Press Pamphlet No 1. BAD Press. Boston
+1989
+51
+Against Separatism edited by Joe Peacott. BAD Press pamphlet No 2. BAD Press. Boston.
+1990
+52
+From Protest to Resistance. A Peace News Pamphlet. No 2. MUSHROOM. Nottingham.
+1981
+53
+Men Speaking out on Men and Sexism. No 2. M.A.A.S. Leeds.
+n.d
+54
+Central America: Prospects for Non violence. Studies in Non violence No 10. Peace Pledge Union. London.
+1981
+55
+Resisting the Nation State: The Pacifist and Anarchist Tradition by Geoffrey Ostergaard. Studies in Non violence No 11. Peace Pledge Union. London.
+1982
+56
+2 issues of A.K Distribution Catalogue. Anarchist Book Service. Stirling.
+n.d
+57
+The Last War: A collection of three essays by George Barret. Pirate Press.
+1990
+ 58
+ Dig for Revolution.
+ 1988
+2
+Serials and Newsletters
+1
+New Anarchist Review. Nos 8, 11, 16. 
+1987-1990
+2
+Merseyside Anarchist Newsletter. Issue 2, 3, 12, 13, 19, 25, 26, 27.
+1988-1991
+3
+Leeds Abortion Fund Newsletter No 1 &amp; 2.
+1989</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1963-1990</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>30. Brian Hartley Collection.</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/brian-hartley-collection/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1
+Pollok Free State and No M77 Campaign
+1
+Leaflets,pamphlets and campaign material
+1
+Pollok Free State/No M77 Leaflet
+n.d
+2
+Don’t Let Wimpey Take our Breath Away Leaflet
+n.d
+3
+The Peoples’ Free University of Pollok Leaflet
+n.d
+4
+Pollok Free State ‘Passport’
+n.d
+5
+No M77 Leaflet by S.T.A.R.R
+n.d
+6
+A Route to Prosperity? Glasgow for People Briefing Paper
+n.d
+7
+Instead of the Ayr Road Route Report by Glasgow for People order form
+n.d
+8
+Glasgow for People Newsletter
+1994
+9
+Pamphlet, Environment Benefits Recreational Facilities-M77 Ayr Road Route. Strathclyde Roads.
+n.d
+2
+Reports
+1
+Instead of the Ayr Road Route: An Alternative Transport Strategy for the Glasgow-Kilmarnock-Ayr Corridor. Glasgow for People.
+1994
+3
+Transcripts
+1
+Dan Pollard Talks Ethics in the Woods 2.2.95
+1995
+2
+Tuesday 14th February, Pollok Free State: “Valentines’ Day Massacre”
+1995
+2
+Criminal Justice Bill
+Leaflets, pamphlets and other material relating to the anti-criminal justice bill campaign. Includes: flyers for demonstrations and rallies; a poster by the Scottish Alliance Against the Bill and leaflets on the bill by the Green Party and Clydeside Hunt Saboteurs.
+c.1994
+3
+Other campaigns
+Small amount of material relating to other campaigns and issues including leaflets by CND and Kelvingrove Park Action Group and correspondence from Glasgow Council Planning department regarding the M74 northern extension.
+c.1994-1995
+4
+News cuttings
+Handmade booklet of news cuttings mainly related to the anti-M77 campaign/Pollok Free State and anti-criminal justice bill campaigns. From: the Herald; Evening Times; The Sun; Daily Mail; Scotsman; The Guardian; Daily Record; The Independent; The Sunday Times and The Daily Telegraph.
+1995
+5
+Photographs
+1
+Album containing photographs of Pollok Free State, March 1995.
+1995
+2
+Album containing photographs of criminal Justice bill demonstrations in London on 9th October 1994 and Glasgow 12th November 1994 and a No M77 demonstration in Glasgow on 24th September 1994
+1994
+6
+Serials
+1
+Scottish Anarchist Newsletter published by the Scottish Anarchist Federation. No 2. October 1994.
+1994
+2
+Socialist review. Issue 179. October 1994
+1994</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1994-1995</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/31.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>31. The Word Collection.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/the-word/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1
+The Word
+Newspaper
+1
+Vols. I – III
+1939 – 1942
+2
+Vols. IV.- VI.
+1942 – 1946
+3
+Volume Sixteen
+Nov 1954 – Oct 1955
+4
+Volume 24
+Nov 1962 – Dec 1963
+5
+No.2. Spring 1966. Published after the death of Guy Aldred. Edited by John Taylor Caldwell.
+ 1966
+2
+“The Word Library”
+Pamphlets
+1
+No. 1.  (3 copies) Socialism and the Pope.
+1939
+2
+No. 2. The Rebel and His Disciples.
+1940
+3
+Unassigned
+4
+Letters to the Editor.
+1940
+5
+No.5 Historical and Traditional Christianity
+1940
+6
+No. 6 Studies in Communism. 
+1940
+7
+No. 7. Pioneers of Anti-Parliamentarism. ( 2 copies)
+1940
+8
+No.8 Dogmas Discarded, An Autobiography of Thought, 1886-1908
+1940
+9
+No.8 Dogmas Discarded, (part ii) An Autobiography of Thought, 1902-1908
+1940</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1886-1908</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/32</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>32. Collins McKay Collection.</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/collins-mckay-collection/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1
+Honours thesis
+1
+An Analysis of the Autobiography of John McKinnon, A Glasgow Weaver-1802-1868. Collins McKay. 
+1999
+2
+Draft of first chapter of honours thesis
+3
+Research papers
+1998-1999
+1
+Handwritten research notes
+2
+Annotated copy of the McKinnon text, on which the thesis is based, from Glasgow city archives.
+  1998/1999
+3
+Copies of documents mainly about the weavers and the radical war from other archives including Glasgow University pecial Collections, Paisley Archive, Blair Atholl Archive and SRO (General Register). Some copies annotated with research notes.
+2
+Publications
+1
+Pamphlet- The Miner’s Next Step: Being a Suggested Scheme for the Reorganisation of the Federation. Issued by the Unofficial Reform Committee.
+1912/1991
+2
+A catalogue of some labour records in Scotland and some Scots records outside Scotland. Compiled and edited by Ian MacDougall, Scottish Labour History Society. Read on line.
+1978</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1978-1999</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/33</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>33. Dek Keenan Collection.</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/dek-keenan-collection/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1
+Serials
+1
+3D: Don’t Pay! Don’t Collect! Don’t Implement! No.5
+n.d
+2
+A Communist Effort No.4
+n.d
+3
+A Mayor Vol.1, No.2 
+Summer 1989
+4
+A Pinch of Salt No’s 5 &amp; 13
+1986-1989
+5
+Abolishing the Borders from Below No’s 11, 16-17, 21,31
+August 2003-February 2008
+6
+Alarme: Ferment Ouvrier Revolutionnaire No. 37/38
+01/12/87
+7
+Alternative Green No.1 
+Winter 1992
+8
+Amargi
+01/08/94
+9
+Anarchist Black Cross Bulletin No’s 2-4
+n.d
+10
+Anarchy 2 Volume 1, No.2 (Second Series)
+1971
+11
+Angry People No.14
+n.d
+12
+Anti Exchange &amp; Mart 
+n.d
+13
+Arm The Spirit No.16 
+Fall 1993
+14
+Aufheben: revolutionary perspectives No’s 1-9, 11, 12,14-17, 19-21
+1992-2012
+15
+Aurora. Broadsheet of the Internationalists No.1 
+April/May 1999
+16
+Autognome No.5
+n.d
+17
+Bete Noire. Student Anarchists 
+1989
+18
+Black Fist No.9
+n.d
+19
+Black Star Second Series, No.1 
+1983
+20
+Brand No.1 
+1995
+21
+Bulletin of Anarchist Research No.16 February 1989 &amp; No.24 Summer 1991
+22
+Careless Talk Vol 2, No.1 
+Winter/ Spring 1985
+23
+Catalyst: Anarcho-Syndacalist Quarterly No.1 
+Winter 87/88
+24
+Catalyst: Free sheet of the Solidarity Federation No’s 9, 22, 28, 30-31
+Spring 2004-October 2014
+25
+Chain Reaction Vol 1, No.1
+n.d
+26
+Clash No.10
+Spring 1994
+27
+Unassigned
+28
+Class Whore – 2 issues, not numbered
+n.d
+29
+Collective Action Notes No. 3/4 Fall/Winter 1994, No. 11/12 Fall/Winter 1996 &amp; No.13 1997, No.16/16 2000
+1987 – 2000
+30
+Communism No’s 4-5 &amp; 8-11
+July 1993 – June 1999
+31
+Communismo Libertario New Series Vol.10 No.24 &amp; Vol. 13 No.39
+1996 – 1999
+32
+Communist Bulletin No’s 12-15
+Summer 1987 – Summer 1991
+33
+Communist Headache: Notes for Working and Living Vol.1 &amp; 3 
+Autumn 1995
+34
+Communist Left: Review of the International Communist Party No’s 1 &amp; 9
+1989- 1994
+35
+Communist Review No.7
+n.d
+36
+Confrontations:bulletin de l’organisation Socialiste Libertaire No.3 
+1988
+37
+Courant Alternatif Special edition No.2 &amp; No.111
+1999-2001
+38
+Crescita Politica No.39 
+1992
+39
+De Vrije Socialiste 
+1992
+40
+Die Schwarze
+1996
+41
+Di Base No.6
+1998
+42
+Discussion Bulletin No’s 36, 38-42, 44, 53-59
+1989-1993
+43
+Dockers Charter No.23 
+February 1998
+44
+East End Howler No.6
+n.d
+45
+Education Worker: Bulletin of the Education Workers Network No.9
+2012
+46
+Emergency No.5
+1990
+47
+Evading Standards
+April 1997
+48
+Fifth Estate Vol 20 No.3, Vol 21 No.2, Vol 23 No.1, Vol 24 No.2, Vol 25 No’s 1 &amp; 2, Vol 32 No.2, Vol 33 No.1
+1987- 1998
+49
+Fighting Talk: Journal of Anti-Fascist Action No’s 3, 6-20 &amp; 1 unnumbered
+c.1990s
+50
+Flux No.1-2 &amp; 5-6
+1990-1993
+51
+Free Society Volume 2 No.1 
+Winter 1993
+52
+Gateavisa No.149
+n.d
+53
+Green Anarchist No.24
+n.d
+54
+Green Revolution No.2
+Spring 1992
+55
+Heavy Stuff No’s 3, 4-5 &amp; 2 unnumbered editions
+56
+Heresy. The Magazine of the Revolutionary Socialist Network No’s 6, 8 &amp; 11
+1998-2001
+57
+Ideas &amp; Action No’s 11,12 &amp; 14
+Summer 1989- 
+58
+Industrial Worker Vol.81 No.4, Vol.83 No.1, Vol 84 No.1, Vol 87 No.1525, Vol 88 No.1539, Vol 89 No.1534, Vol 90 No.1555
+-1984
+59
+Intercom: Revolutionary Discussion Bulletin No.6 
+1984
+60
+Insurrection No. 4 Read on line. &amp; No. 5 Read on line.  Other copies of Insurrection read on line HERE:  Courtesy of Elephant Editions Archive.
+199C8
+61
+International Communist (Review) No’s 11, 14, 16-19, 21
+1993-2002
+62
+International Council Correspondence No.10 
+1984
+63
+Internationalist Perspective No’s 6, 8, 18 &amp; 21
+64
+International Communist Current, Pamphlet No 1 – Unions Against the Working Class, Pamphlet No. 2 – Nation or Class? &amp; International Review No.59 
+1980 – 1989
+65
+International Socialist Forum No.3 
+October 1998
+66
+Irish Anarchist Bulletin No’s 3 &amp; 4
+1989
+67
+Jewish Socialist No.54 
+Winter 2007 
+68
+Koaos:Nihilistisk Bulletin No.1 
+1993
+69
+Kick It Over No.35
+Summer 1995
+70
+Kontra No.117
+n.d
+71
+K.S.L: Bulletin of the Kate Sharpley Library No’s 11-15
+1997-1998
+72
+Kultur Zwischendurch No.69
+n.d
+73
+Kurier No. 3 &amp; 4
+2011-2012
+74
+Le Combat Syndicalism No’s 329 &amp; 358
+2008-2011
+75
+Le Libertaire No.111 
+1990
+76
+Le Monde Libertaire No’s 651 &amp; 1405
+1987-2005
+77
+Lib Ed: A Magazine for the Liberation of Learning Vol 2 No’s 2, 5, 7-8, 10-11
+1986-1989
+78
+Libertarian Communist 4 x Special Supplement: Russia 1917, Spain 1936, Germany 1918-1919, Sketching the limits of Trotsky
+n.d
+79
+Lona Industriale No.3
+2001
+80
+London Notes No.1 
+June 1992
+81
+Lonnslaven No’s 3,5 &amp; 6
+1993-1995
+82
+Lotta Di Classe No.33
+2011
+83
+Love and Rage Vol.1 No’s 5-6, Vol.2 No’s 7 &amp; 9, Vol.3 No’s 6-7 Vol.4 No’s 1, 3, 6 Vol. 6 No’s 2-4, Vol.7 No.4 Vol 8 No’s &amp; 5 &amp; 1 unnumbered undated edition
+1990-1997
+84
+Manchester Anarchist News No.2
+March 2004
+85
+Mass Strike Vol 1, No’s 1 &amp; 2
+2008-2009
+86
+MayDay No.6 
+Winter 2010
+87
+McSues issue 2
+n.d
+88
+Medusa. Special English Edition 
+2002
+89
+Modern Anarchism Issue 1 Read on line.
+Jan/Feb 1999
+90
+No war but the class war. Discussion bulletin No.3
+1999
+91
+New Interventions Vol 11, No.4 &amp; Vol.12, No.2
+2004-2006
+92
+Now or Never No.21
+n.d
+93
+Nuclear Free Scotland. 
+June 2007
+94
+Open Eye No’s 1-3
+1991-1995
+95
+Open Road: Anarchist News Journal Issue 25 
+Winter 1990
+96
+Oxfiend No.167 
+4th May 1995
+97
+Perspectives on Anarchist Theory. 
+Fall 1997
+98
+Precari Nati No.5
+1999
+99
+Profane Existence No.14 May-June 1992 &amp; Summer issue 1997 Part 2
+100
+Rabble-Rouser Issue 1, Vol 1
+1989
+101
+Radical Chains No’s 1-5
+1989-1998
+102
+Reality Now Issue 8, Winter 1988/Spring 1989
+103
+Reason to Believe No.2
+July 2001
+104
+Rebel Worker Vol.23, No.2
+July-Aug 2004
+105
+Rebelles Vol 1, No.6
+106
+Red Action No’s 64, 72-75 &amp; Vol 3, No’s 1-3
+1993-1998
+107
+Red Pepper No.155 
+August/ September 2007
+108
+Red &amp; Black Notes Spring 2000 &amp; Summer 2002 
+109
+Red &amp; Black Revolution No’s 1-4, 7-11 &amp; 13
+1994-2007
+110
+To be assigned
+111
+Resistencia Obrera No.174-175
+2006
+112
+Revolutionary Perspectives No’s 4,7, 9-12, 14-16, 19, 26, 28-29, 31
+1996-2004
+113
+RSN News No’s 2-4 &amp; 1 unnumbered
+n.d
+114
+Scottish Anarchist No’s 1, 3, Read on line,
+1994 – 1995
+115
+Smorsyra No.16 
+1994
+116
+Socialism from below Vol 1, No’s 1-4
+n.d
+117
+Socialist Alternatives Vol 4, No.1 
+Spring 1989
+118
+Solidaridad Obrera No.206 
+February/ March 1990
+119
+Solidarity: A Journal of Libertarian Socialism. London Solidarity Group No’s Vol 7, No.16/7, 8-21, 22/23, 24, 28/29 New series Vol 1, No’s 1-3 &amp; 5 and Solidarity Pamphlet n. 48, Women in the Spanish Revolution
+April 1972 -n.d
+120
+Solidarity: News from the Scottish Anarchist Network December 1997 &amp; April 1998
+121
+Smash Hits: A discussion bulletin for revolutionary ideas October 1997 &amp; Autumn 1998
+122
+Sniffin’ Glue Magazine: The Second 100 Club Punk Festival Special 
+n.d
+123
+Spartacus
+November 2000
+124
+Stand Firm. Paper of the Trafalgar Square Defendant’s Campaign No’s 4 &amp; 5
+1990-1991
+125
+Swamp Thing: National Bulletin of the Non-Leninist revolutionary Milieu No.1
+Summer 1994
+126
+Syndikalisten No.4 
+June 2005
+127
+Taking Liberties published by Anarchist Black Cross No’s 12-13,15-19 &amp; May 1998
+128
+Target: The Quarterly Bulletin of “Pro-Fascist Action” Issue 2
+n.d
+129
+The Bad Days Will End No’s 2-5
+Summer 2000-Spring/ Winter 2001
+130
+The Blast! No’s 1-7
+1994-1996
+131
+The Commune: for worker’s self-management and communism from below No’s 17-19, 21, 23, 24, 26, 28-30
+September 2010–June 2012
+132
+The Communist Bulletin No.16
+Summer 1995
+133
+The Enemy Within June/July 1988, October 1988, May 1989
+134
+The Free Communist. Special Book fair Edition
+n.d
+135
+The Free Thinker. Secular Humanist Monthly. Vol 124, No.8
+August 2004
+136
+The Hobgoblin – A Journal of Marxist Humanism No.4 &amp; No.6 
+2001 – 2005
+137
+The Irish Anarchist Review – Summer 2010, Autumn 2010, Summer 2011,Winter 2012 &amp; Spring 2013
+2010 – 2013
+138
+The North Eastern Anarchist. Magazine of the Northeastern Federation of Anarcho-Communists No’s 1-2,4 &amp; 6
+c.2000-2003
+139
+The Nuclear Resister No.137 
+July 2005
+140
+The Occupied Times of London No.26 &amp; No.11
+March 2012 – October 2014
+141
+The Poor, The Bad and the Angry, Issue 2
+n.d
+142
+The Red Menace No’s 1-5
+February 1989 – January 1990
+143
+The Terra-ist No.1 
+Spring 1994
+144
+Traffico-Societa’-Ambiente 
+1988
+145
+Trotwatch Vol 1, Issue 1 
+Summer 1992
+146
+Umanita’ Nova Vol. 70, No.27 &amp; Vol.81, No.24
+1990-2001
+147
+Unicobas Notizie No.s 3 &amp; 66
+2003-2009
+148
+Unfinished Business No.1
+Winter 2005
+149
+UniUndercurrent, University of Sussex No.7
+1999
+150
+Variant Vol 2, No’s 21, 22 &amp; 31
+2004-2008
+151
+Viva Zapata!
+February 1994
+152
+Warzine No.1 &amp; 10
+n.d – June 1989
+153
+We Dare To Be Free No’s 3, 4 &amp; 6 
+1998-2000
+154
+What Next? Marxist Discussion Journal No’s .26 &amp; 29
+2003-2004
+155
+Wildcat No’s 10-18, Capitalism and it’s Revolutionary Destruction, a statement by Wildcat &amp; Wildcat, Manchester Free Bulletin – Front Line News from the Class War
+n.d
+156
+Workers Playtime, June 1984 &amp; Bumper double issue 
+1984 – 1985
+157
+Workers Voice No’s 53,63,66,70,73-76,78
+1990-1998
+158
+Working Class Resistance No.9
+April/May 2005
+159
+World Revolution No’s 138, 143,145,154,159,175-176,178,192,238,338
+October 1990-October 2010
+160
+Zero De Conduite No.67 
+June 2011
+161
+Direkte Aktion. International Arbeiter-Assoziation IAA. No.70
+July/August 1988
+162
+Direkt Aktion. Syndikalistiska Ungdomsforbundet. No.1
+September 1996
+163
+Techno Skeptic
+Winter 1995
+164
+Trade Unionism or Socialism: the revolt against work. Solidarity Pamphlet No.47
+n.d
+165
+Searchlight South Africa No.6
+January 1991
+166
+The Libertarian, Published by Common Wealth, No.25. No.28 &amp; No.30 (Common Wealth formerly The Libertarian)
+1985 – 1989
+167
+Proletarian Gob, No’s 2-5 &amp; 1 special issue
+1993 -1995
+168
+Echanges No’s 1-2/92, 1-2/93, 2-3/94, 4/94-1/95, 2/95-1/96, 56
+1992 -1998
+169
+Class Struggle Anarchist Network Bulletin
+June/July 1990
+170
+Council Communist Pamphlet No.1 – The Hungarian Revolution 1956 and No. 2 – The Experience of the Factory Committees in the Russian Revolution. 
+1984
+171
+New Anarchist Review No’s 5-17, 19, 21 &amp; 22
+September 1985 – May 1993
+172
+Tiocfaidh Ar La! For Celtic and Ireland Issue No.3 &amp; 5
+n.d
+173
+Folkebladet No.3
+n.d
+174
+Red Banner: a magazine of socialist ideas Issue 16
+July 2003
+175
+Revolutionary collectives No.5
+September 2008
+176
+Plain Rapper Comix 2
+n.d
+177
+Ainrial: A Belfast Anarchist Monthly No’s1, 3, 4-7
+1985-1987
+178
+Modern Times
+n.d
+179
+Centre International de Recherches sur L’Anarchisme Bulletins 55 &amp; 77 &amp; Un Siècle de Chansons (1871- 1971)
+1999-2001
+180
+Unassigned
+181
+Zabalaza Issue 1
+2001
+182
+International Libero No.5
+September 1978
+183
+A Lie Too Far. Searchlight Exposed No.214
+April 1993
+184
+Anarchist Theft Issue 1
+n.d
+185
+Armchair No’s 5 &amp; 6
+1993-1994
+186
+Animal Issue 2 The Football Special
+n.d
+187
+Do or Die, Voices from Earth First! No.5
+n.d
+188
+Mayday Magazine Issue 7
+Winter 2012/13
+189
+SAC Newsletter
+1994
+190
+The Cork Workers’ Club, Historical Reprints No. 5, The James Connolly Song Book, No. 9, The Connolly – Walker Controversy (On Socialist Unity in Ireland), No. 15, The Connolly – DeLeon Controversy (On Wages, Marriages &amp; the Church) &amp; No. 17, The Struggle of the Unemployed in Belfast, Oct. 1932 by Tom Bell
+n.d
+191
+A Dialogue on Anarchy by Maurice Cranston, Anarchy 22 – A Journal of Anarchist Ideas
+December 
+1962
+192
+Life and it’s Replacement with a Dull Reflection of Itself, Preliminary Thesis of The Pleasure Tendency, 1st Edition, Further theses: 1, Desire- Value and the Pleasure Tendency, Further theses: 2 – The Subversive Past
+June 1984 &amp; October
+1985
+193
+Finding Time – one step beyond the tyranny of work by Norman Jope (sixth in a series of Mini-Memes, published by Memes)
+n.d
+2
+Pamphlets and Publications
+1
+One Hundred Years On. The Story of The Haymarket Incident, The Chicago Martyrs, and the origins of May Day. Produced by Direct Action Movement.
+n.d
+2
+1916 As History, The Myth of the Blood Sacrifice by C. Desmond Greaves
+1991
+3
+AAP Collective Anarchist Football (Soccer) Manual
+n.d
+4
+Abortion: Why Irish women must have the right to choose
+March 1990
+5
+An activist’s guide to exploiting the media by George Monbiot.
+2001
+6
+A Day Mournful and Overcast… by an “Uncontrollable” from the Iron Column
+1993
+7
+Against Racism and Police Repression
+n.d
+8
+A Modest Proposal For How The Bad Old Days Will End published by Pandoras Books.
+n.d
+9
+A Worker Looks At History part 2 Cities in Revolt 1907-1932 by Denis Smyth
+n.d
+10
+Animal Liberation: Devastate to Liberate? Or Devastatingly Liberal?
+n.d
+11
+An Introduction to Guy Alfred Aldred and the Anti-Parliamentary Communist Federation by John Taylor Caldwell &amp; Mark Shipway
+November 2006
+12
+Anarchy by J.R White
+n.d
+13
+Anarchy published by Last Ditch Press
+1985
+14
+Anarchy or Chaos, Organise!
+n.d
+15
+Another World Is Possible: How the Liverpool Dockers Launched a Global Movement, edited by Pauline Bradley and Chris Knight
+2004
+16
+The Anti-Climax by Alexander Berkman, Phoenix Press
+n.d
+17
+Anti-Semitism and the Beirut Pogrom by Fredy Perlman, published by Left Bank Books
+1983
+18
+The Arrogance of Uncontested Power by Lauren Otter
+January 1988
+19
+The Autonomous Centre Of Edinburgh? What is it and what does it it do?
+n.d
+20
+Anarchy 54 (Vol5 No 8) Erich Muhsam, Martin Buber, Gustav Landauer.
+August 1965
+21
+Anarchy in the UK, London, Ten Days That Shook the World, October 21st – 30th 1994, programme and booklet
+1994
+22
+An Anti-Statist Communist Manifesto by Joseph Lane
+1985
+23
+Air France Strike October/November 1993
+Winter 1993
+24
+An Introduction to the Misery of Islam by Al-Djouhall, published by The Friends of Omar Khayyàm Press, Second Edition
+1989
+25
+Anarchist Alternative, pamphlet from the 20th Annual Anarchist Bookfair
+2001
+26
+Unassigned
+27
+Against All Tyranny: Essays on Anarchism in Brazil. Kate Sharpley Library.
+2003
+28
+The Alternative Guide to Derry. Third Edition. Published by the Pat Finucane centre.
+n.d
+29
+An A-Z of Borders. Perspectives from the UK No Borders network
+June 2009
+30
+Anarhia. Tonu Trubetsky.
+1994
+31
+Anarchism and the National Liberation Struggle by Alfredo M. Bonanno, Bratach Dubh Pamphlets
+1979
+32
+Anarchism and Ireland. Workers Solidarity Movement.
+1985
+33
+Anarchist Economics: an alternative for a world in crisis by Abraham Guillen, published by ISEL/La Presa
+n.d
+34
+Anarchism, Arguments For and Against by Albert Meltzer
+1984
+35
+Anarchism in Turkey. Karambol Publications
+1994
+36
+Anarchism &amp; the E.Z.L.N, Anarchist Reprint Series
+February 1998
+37
+Anarchism &amp; Marxism by Daniel Guerin.
+1981
+38
+No Statist Solutions, Anarchism and “the troubles” in Northern Ireland by Michael Ziesling. 
+1984
+39
+Anarchism and Violence by L.S Bevington.
+n.d
+40
+Anarchism vs. Primitivism by Brian Oliver Sheppard.
+2003
+41
+Anarchist Integralism: Aesthetics, Politics and the Apres-Garde by Luther Blissett.
+1997
+42
+Anarchism: The Struggle Continues.
+n.d
+43
+Anarchist Year Book 1992, 1994, 1995,1996, 1998, &amp; 1999.
+44
+Unassigned
+45
+Authoritarian Leftists: Kill the Cop in your Head!. Greg Jackson
+n.d
+46
+Spectacular Times Pocketbook Series, The Bad Days Will End, The Spectacle &amp; The Skeleton Keys Double issue reprint &amp; Bigger Cages, Longer Chains. Spectacular Times
+c.1980’s
+47
+The Bakunists At Work. Engels. Progress Publishers, Moscow (2 editions)
+1971 &amp; 1976
+48
+Bakunin &amp; Nechaev. Paul Avrich.
+1974
+49
+The Battle for Hyde Park; ruffians, radicals and ravers, 1855-1994
+50
+Beyond the Balaclavs of South-East Mexico
+1995
+51
+Bolshevism. Rudolf Sprenger
+September 2004
+52
+‘Britain Must Break’ to defend ‘Real Labour’
+August 2012
+53
+Paper- Brass tacks: A Yorkshire anarcho-communist takes on Islam and Bin Laden
+2001
+54
+The Brownshirts of Zionism. Abner Barnatan. International Council Correspondence
+1989
+55
+Building mutual support and organising in our communities. London Coalition Against Poverty.
+2011
+56
+Bulgaria a new Spain: The Communist Terror in Bulgaria. Kulak Press.
+1983
+57
+Cwmbach Miners &amp; Women Speak Out
+December
+1984
+58
+Civil Defence: the Cruellest Confidence Trick by Philip Bolsover
+n.d
+59
+Cellules Communistes Combattantes – Liberté! Information pour la libération de Pierre Carette, Pascale Vandegeerde, Bertrand Sassoye &amp; Cellules Communistes Combattantes Interview à La Meuse, La Lanterne, La Nouvelle Gazette et La Province (version initiale)
+April 1997 – 
+Summer 1996
+60
+Catalogue of Anarchist Books, Refract Publications
+n.d
+61
+Class Struggle in a German Town, Radicals intervene in a nuclear power plant construction in Phillipsburg
+n.d
+62
+The Counter-Revolution in Ireland by Serge Van der Straeten and Philippe Daufouy, published by Black &amp; Red, Detroit
+1974
+63
+The CNT and The Russian Rev by Ignacio de Llorens, published by The Kate Sharpley Library
+n.d
+64
+Civil Rights? Stormont Wrongs! by Fionnbarra O’Dochartaigh 
+n.d
+65
+Community and Communism in Russia by Jacques Camatte (translated from French)
+1978
+66
+The Cobas, Italy 1986-88: A New Rank and File Movement, by David Brown, published for Echanges et Mouvement by Advocom
+n.d
+67
+The case for Socialist Feminism, an Alliance for Workers’ Liberty pamphlet
+n.d
+68
+Unassigned
+69
+Carry on recruiting! Why the Socialist Workers Party (SWP) dumped the ‘downturn’ in a ‘dash for growth’ and other party pieces. Published by Trotwatch
+October
+1993
+70
+Class is Dead? – produced, printed &amp; published by South-Yorkshire local Anarcho-Syndicalist Groups
+n.d
+71
+Class Struggle Anarchism, Let’s get Organised – Organising and Thinking for Ourselves Without Bosses or Leaders, Glasgow Anarchist Group
+n.d
+72
+Crossing the Border, Organise!, Class Unity and the Partition of Ireland – a response to the WSM position paper on partition, published by Organise!
+November
+2004
+73
+Dialectical Materialism &amp; Psychoanalysis by Wilhelm Reich, published by Socialist Reproduction
+n.d
+74
+Direct Action by Emile Pouget, published by The Kate Sharpley Library
+2003
+75
+Death to Democracy – A Subversive Attack on Capitalist Democracy and the Rule of Law by Max
+1990
+76
+Days of Dissent, Reflections on Summit Mobilisation
+October
+2004
+77
+The Economics Of Anarcho-Insurrectionism by B.M. Ignition
+April
+1995
+78
+The Friends of Durruti – A Chronology by Paul Sharkey, published by Editorial Crisol, Tokyo, Japan
+n.d
+79
+The Continuing Appeal of Nationalism by Fredy Perlman, published jointly by Dark Star, Phoenix Press
+n.d
+80
+The Economics of Freedom, Solfed Booklets
+2003
+81
+The First Tawney Memorial Lecture, Equality by Stanley Evans, published by the Christian Socialist Movement
+1964
+82
+Fake Left by Jack Common (First published in the ‘Adelphi’ 19th March 1933), published by Working Press Reprint
+1992
+83
+Fighting to Win – the history of an anarchist amongst a thousand others, a Boris Dumont booklet produced in association with the Anarchist Black Cross. Published by Black Economy Books incorporating AK Press
+n.d
+84
+Fight Alton, Fight For Abortion Rights! Produced by South West London Direct Action Movement
+n.d
+85
+Fascism and How to Fight it (Fascists prepare to march on our streets)
+n.d
+86
+Revolutionary Committees as a Method of Organisation (More to Come). Reprinted by Thames Valley Anarchists.
+n.d
+87
+For a World Without Moral Order
+n.d
+88
+Fascism/Antifascism by J. Barrot (reprint)
+1987
+89
+Irish Terrorism, IRA, INLA: Foreign Support and International Connections. Published by the Institute for the Study of Terrorism
+1988
+90
+The Future in the Present – Libertarian Organisation &amp; Structure, Critical Anarchy No.1 
+1987
+91
+The Great Poll Tax Robbery – What it is and How to Fight it, A Workers Power Pamphlet
+n.d
+92
+Groundswell
+n.d
+93
+The General Strike in Salford in 1911 by Edmund and Ruth Frow. Published by Working Class Movement Library
+1990
+94
+Goodbye to the Unions – A Controversy About Autonomous Class Struggle in Great Britain, published by Advocom for Echanges et Mouvement
+1992
+95
+Green Apocalypse by Luther Blissett and Stewart Home, published by Unpopular books
+n.d
+96
+Unassigned
+97
+Unassigned
+98
+Humanism by Barbara Smoker, published by National Secular Society
+1984
+99
+Hungarian Workers Revolution, republished by Kulak Press, London and Doncaster
+1984
+100
+Health &amp; Safety at Work, an Anarcho-Syndicalist Approach, Solfed Booklets
+2000
+101
+History as Creation by C. Castoriadis (Paul Cardan), Solidarity (London) Pamphlet 54
+n.d
+102
+How the Gods Were Made (A Study in Historical Materialism) by John Keracher (originally published by Charles H. Kerr &amp; Company 1929), reproduced by North East Branch of The Socialist Party
+n.d
+103
+Hackney Anarchy Week – A celebration of subversion in East London 24 May – 2 June 1996, Free programme
+24/5/96 – 2/6/96
+104
+Hotlines
+n.d
+105
+Ireland – Past, Present and Future by The Socialist Party of Great Britain and World Socialist Party of Ireland
+1983
+106
+The IWA Today – A Short Account of the International Workers Association and it’s Sections by C. Longmore, published by South London DAM – IWA
+1985
+107
+In Whose Name? Britain’s denial of peace in Ireland, Troops Out Movement
+n.d
+108
+The Iron Column: Testament of a Revolutionary, Elias Manzanera, translated by Paul Sharkey, published by the Kate Sharpley Library
+2006
+109
+Federazione dei Comunisti Anarchici, II “progamma minimo” dei Comunisiti Anarcgici (Atti del Vº Congresso della federazione dei Comunisti Anarchici), CP Editrice
+1997
+110
+Identity, published by The Socialist Party
+n.d
+111
+A Place of Compromise, Why we Need a Rank and File Movement, published by the Anarchist Workers Group
+October
+1988
+112
+Insurrection v. organization, Peter Gelderloos
+n.d
+113
+Ireland and British Imperialism, an Irish Anarchist pamphlet
+1992
+114
+Is Cuba Socialist, Socialist Studies, published by New York Labour News
+1994
+115
+Unassigned
+116
+If You’re not Part of the Solution…
+…You’re Part of the Problem, London Anarchist Communist Federation
+n.d
+117
+Independent Working Class Association (IWCA) 1st and 2nd publication
+c.1995
+118
+The Kronstadt Uprising 1921 by Ida Mett, Solidarity (London) Pamphlet 27. Duplicate in John Cooper Collection.
+n.d
+119
+Kennington Park, The Birthplace of People’s Democracy by Stefan Szezelkun, republished by Past Tense
+June
+2006
+120
+The Kurdish Uprising And Kurdistan’s Nationalist Shop Front And its Negotiations With The Baathist/Fascist Regime
+September
+1991
+121
+Keeping up the ‘carry on’, A Trotwatch update on the Socialist Workers Party (SWP)
+June
+1995
+122
+Kropotkin, Self-valorization and the Crisis of Marxism by Harry Cleaver, Associate Professor of Economics, University of Texas
+December
+1992
+123
+Left-Wing Communism in Britain 1917-21
+…An Infantile Disorder? By Bob Jones, published by Pirate Press
+October
+1991
+124
+Some Thoughts on Feminism &amp; Sexual Politics by Vicki Dancin’ Crow
+n.d
+125
+Unassigned
+126
+Last Orders for the Local? Working class space -v- the market place, Theme pubs and other environmental disasters, published by ACATAC: A Class Act To Abolish Classes
+November 
+2001
+127
+The life style of Buenaventura Durruti, published by Kate Sharpley Library
+1994
+128
+La Rezolucioj de la Kongreso de Saint-Imier by A.I.T. (Internacia Asocio de l’Laboro)
+January
+1990
+129
+Liberecana Ligilo 104 by Liberecana Frakcio
+n.d
+130
+Life and Times of Joe Thomas – the road to libertarian socialism by Alan Woodward, A Libertarian Socialists Publication
+n.d
+131
+Mayday Monopoly – game guide, Anti-capitalist Actions Across London on Tuesday 1 May 2001, published by the London Mayday Collective
+2001
+132
+Moot Point, published by Phoenix Press and San Fairy Ann
+n.d
+133
+My Visit to the Kremlin by Nestor Makhno, published by The Kate Sharpley Library
+1993
+134
+Introduction to My Disillusionment in Russia by Emma Goldman, published by Phoenix Press
+n.d
+135
+The Meaning of Anarchism, by Capt. Jack White, published by Organise! The Voice of Anarcho-Syndicalism
+February
+1998
+136
+Manifeste by OSL, Organisation Socialiste Libertaire
+January
+1986
+137
+Miguel Garcia’s Story. Edited by Albert Meltzer, published by Miguel Garcia Memorial Committee in association with Cienfuegos Press
+1982
+138
+Reclaim Mayday Bradford 1997
+May
+1997
+139
+Marxism and it’s Failures, Arguments for Anarchist Communism, presented by Sussex University Anarchist Collective &amp; London ACF 
+n.d
+140
+Marhaba Europe!! Speakers’ Tour of Grassroot Movements from the Middle East Building Networks of Resistance Against the “Clash of Civilisations”
+n.d
+141
+Mexico is not only Chiapas nor the Rebellion in Chiapas is a Mexican Affair, reprinted by Subversion
+October
+1995
+142
+Newry, The Rare Olde Times
+n.d
+143
+No One Is Illegal! The manifesto of the No One Is Illegal Group (UK) For a World without Borders! No Immigration Controls!
+6/9/03
+144
+No One Is Illegal, Campaigning Against Deportation or Removal, Building An Anti-Deportation Campaign, A practical and political guide to fighting to remain in this country
+2007
+145
+New Improved – No Comment, The Defendant’s Guide to Arrest – With Added Criminal Justice Act!, published by London ABC
+n.d
+146
+No Comment, the defendant’s guide to arrest, Updated and reprinted 4th Edition, published by the Legal Defence &amp; Monitoring Group (LDMG)
+n.d
+147
+No War But The Class War! Published by the Direct Action Movement and Counter Information Collective
+n.d
+148
+Anarhokomunistička Federacija by Naši Pogledi
+May
+1995
+149
+News From Everywhere, published by Autonomie Proletarienne
+August 
+1987
+150
+On Workers’ Autonomy by Pour une Intervention Communiste, published by Unpopular Books
+October 
+1996
+151
+Oppose The Countryside Rally on March 1st, Movement Against the Monarchy
+n.d
+152
+OSB, One Step beyond Or Smash The Revolutionary Communist Party
+n.d
+153
+Os Cangaceiros, Freedom is the crime which contains all crimes and some texts about recent movements in France.
+n.d
+154
+Preface to the Fourth Italian Edition of “The Society of the Spectacle”, Guy Debord, published by Chronos Publications
+January
+1983
+155
+Paris: May 1968, published jointly by Dark Star Press and Rebel Press
+1986
+156
+Poll Tax Riot, 10 hours that shook Trafalgar Square, published by Acab Press
+June
+1990
+157
+Poland: The Making and Unmaking of the News, text by Howard Besser, design by Terry Downs, published by Anti-Authoritarian Studies
+August
+1983
+158
+The place of Anarchism In Socialistic Evolution, P. Kropotkin, published by Shrinking Publications and Distribution
+n.d
+159
+The Paris Commune and the Idea of the State, Michael Bakunin, published by B. Books
+n.d
+160
+Peter Kropotkin, His Federalist Ideas by Camillo Berneri, published by Pirate Press
+n.d
+161
+Palestine, mon amour, Alfred M Bonanno, published by Elephant Editions
+c. 2003 
+162
+The People’s Front, in France and Spain by Emile Burns, published by the Labour Research Department
+July
+1936
+163
+Poland 1970-71. Capitalism and Class Struggle, I.C.O. (Informations Correspondance Ouvrières), published by Black &amp; Red, Detroit
+1977
+164
+Poland 1976, State Capitalism in Crisis by Bruce Allen, published by Black Cat Press
+1979
+165
+Proletarian Aspirations: Part Two, Anti-Parliamentarism &amp; Communism in Britain 1921-1945, Various Writers, edited by Ade Dimmick, Selected essays from Black Star: Workers Journal for a free Communist </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1986-1989</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>34. Marianne M Gilchrist Collection.</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/marianne-m-gilchrist-collection/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1
+The Boston Traveler, Newspaper, Friday, November 19 1915. Frontpage headline: Four Bullets Kill Hillstrom, subheadline: Condemned Man in Frenzy, Tries to Kill Prison Guard. (Continued on Page Two, Column 4).  Read on line.
+1915
+2
+The Boston Herald, Newspaper, Saturday, November 20, 1915. Page 9 headline: Hillstrom Orders Death Squad to Fire, subheadline: I.W.W. Leader Himself Yelled Fatal Command – Govenor to Clear State of Lawless Element.  Read on line.
+1915</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>35. Shirley Sampson Collection.</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/shirley-sampson-collection/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1
+The Soldiers Charter
+Pamphlet written from within the armed forces with an address to Labour Party Members and the Trade Union Movement by Chris Knight, Young Chartists National Committee Member, May Day 1971 includes shipping Manifest from Abe Books 22 Nov 2010. Another edition of this pamphlet is available online at: http://www.chrisknight.co.uk/the-soldiers-charter/  Read on line and other options.
+1970 – 1971
+2
+The Soldiers’ Wives Charter, Discussion document published by Writers, Artists and Media Workers for a Miners’ Victory. 
+Printout of an unpublished document written by Shirley Sampson in 1971 and subsequently published in 1984 – Discussion document published by Writers, Artists and Media Workers for a Miners’ Victory was added to the title. Downloaded from: http://www.chrisknight.co.uk/wp-content/uploads/2009/04/the-soldiers-wives-charter.pdf.  Read on line and other options.
+1971 – 1984
+3
+ER [Elisabeth Regina] [British Forces Education] Service Schools [Jotter].
+Shirley Sampson’s notebook of which eight double-sided pages are used. Includes: handwritten notes with newspaper cuttings Drummers late for roll call, Correspondent, The Guardian, 4 June 1971; Soldiers Can Sue Ulster, Edward Scallan, Daily Mail, 3 June 1971; Union Jack song case men cheered, Reporter and Four IRA arrests, The Guardian 4 June 1971. It also includes: expenses; exam notes; suggested schema and ideas and practise letters to Emily a girl Shirley adopted through Action Aid. The back cover contains handwritten financial notes.  Read on line and other options.
+1971 – 1984
+4
+The Destruction of Loyalty, An examination of the threat of propaganda and subversion against the armed forces of the West [by] Anthony Burton, published by the Foreign Affairs Research Institute.
+63 page monograph with original invoice for payment. The Soldiers Charter is referenced on page 52 and there is a handwritten note containing the reference details of Trade unionism in the British Armed Forces and the “Soldier’s Charter” held at The National Archives. Read on line and other options. 
+1976
+5
+Letter from European Council of Conscripts Organisations (ECCO), Utrecht to At Ease, London with a print out of a letter from the Ministry of Defence (MoD), London.   A letter informing At Ease of a request from Anthony Everson at the MoD, for a copy of The Soldiers’ Charter.  Read on line and other options.
+1996</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>36. Les Forster Collection.</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/les-forster-collection/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1
+1913 – 1963, National Union of Railwaymen, Jubilee Souvenir, 50 Years of Struggle, Glasgow and West of Scotland District Council.
+Prepared by W.C. Allan, D. Kelly, L. Fo[r]ster and P. Sweeney.
+1963
+2
+Glasgow Labour History Workshop
+1
+Working Class Protest in the West of Scotland 1820 – 1915. A collection of documents for schools by W. Hamish Fraser and Alison Gray.
+Includes two copies, one incomplete with pages with pages 10-21,24-53,56-57,60-66 missing.
+1986
+2
+Information Sheet
+Typed document detailing the work of the Glasgow Labour History Workshop.
+1987
+3
+The Singers Strike, Clydebank 1911 [manuscript].
+Also includes: Checklist of Key Themes / Questions; Project Organisation / Division of Labour; research methods and note taking; notes and a photocopy of The Great Strike Movement and Its Lessons pamphlet by H. W. Lee (London, Twentieth Century Press).
+1988
+4
+The Singer Strike Clydebank, 1911, Glasgow Labour History Workshop. Published by Clydebank District Library.
+Also includes Scottish Labour History Review No. 3, Winter 1989 with an insert to order the book.
+1989
+5
+The Labour Unrest in West Scotland, 1910 – 1914 [Research Project].
+Includes research, meeting and discussion notes, list of members, correspondence and bibliography.
+1989
+6
+Miscellaneous
+Includes: material relating to the history of Glasgow, Glasgow Green and the Calton Weavers; H.M Hyndman and Daniel de Leon, The Two Souls of Socialism by James J Young, Labor History, v28, no.n4, 1987 Fall, p534(23) (ISSN: 0023-656X); a letter printed in the History Workshop Journal (HWJ) by Iain Mclean in response to the review of his book The Legend of Red Clydeside by Sean Damer in HWJ 18; John Maclean and the Russian Revolution: A Discussion Article, Scottish Labour History Society Journal No 23 1988; 68th Commemoration John MacLean M. A. Clann Ghill-Eain by Sorley MacLean and An Expanded Version of a Speech Given on the Occasion of the Annual Commemoration of the Death of John MacLean. November 30th 1991.
+nd
+7
+Dundee in Word, Song and Image, One Day Conference at Dundee University. Organised by Scottish Labour History Society.
+Programme for the day including enrolment form.
+15 October
+1988
+3
+Sell and be Damned, The Glasgow Merrylee Housing Scandal of 1951 as told by Ned Donaldson and Les Foster. Published in 1992.
+1950 – 1998
+1
+Publication
+Available online at: http://scottishtenants.org/wp-content/uploads/2016/12/Sell_and_be_damnded_lo_res.pdf.
+1992
+2
+Manuscripts and research notes.
+Also includes: handwritten notes on the back of  “Fight for Homes Now” campaign fliers (30,000 printed in 1951 by Strickland Press); invitation to the launch of the publication at Transmission Gallery and other publicity material . 
+nd
+3
+Transcripts of interviews with building workers about their involvement in the campaign.
+1990 – 1991
+4
+Institute of Housing in Scotland, 1991 Conference, Key-note Address by Mr John Maxton M.P. 
+Includes: a letter from the institute to Ned Donaldson, material from Shelter and a newspaper article about the right to buy council houses. 
+1991 – 1993
+5
+The Battle for Houses in Glasgow, by Harry McShane. Published by The Communist Party (Glasgow Committee), [1946?].
+Includes one copy and one photocopy.
+c1946
+6
+Research materials
+Includes: a photocopy of a letter to Ned Donaldson from Bob McIlhone, Secretary, Glasgow City Committee, The Communist Party,16 January 1952; information on the Scottish Gallacher Memorial Library; rates of pay for Scottish building employees 1950 – 1957 and 1990; photocopy of Housing News, A quarterly bulletin issued to all employees of The Glasgow Corporation Housing Department, Vol. 5 No. 4, with season’s greetings for 1952 and photocopy of text relating to the Tory party in Scotland.
+1951 – 1991
+7
+Correspondence
+Includes: “The Battle of Merrylee” article by John Sheriff published in Daylight, issue 11 with a reply to the editor from Ned Donaldson; a letter from Dario Sinforiani, Paradise Films and a note from Shelter Scotland with the transcript of speech given by Liz Nicholson in 1998. 
+1990 – 1998
+8
+Newspaper cuttings
+Cuttings regarding Sell and Be Damned, including a transcript of an article for The Herald (slightly edited version was published on 3 April 1993 and is available online at http://www.heraldscotland.com/news/12614251.A_Brave_New_World_dying_of_old_age/, articles relating to other housing issues and two editions of Forward a socialist newspaper published in Scotland (Vol. 44 No. 21, 27 May 1950 and Vol. 45 No.4, 27 January 1951).
+1992 – 1993
+4
+All For The Cause: Willie Nairn, 1856 – 1902, Stonebreaker, Philosopher, Marxist. Written by Hugh Savage and Les Forster [Published by Clydeside Press].
+1991 -1992
+1
+Publication
+Contains 3 copies.
+1992
+2
+Manuscripts and notes
+Also includes transcript of a speech given by Les on Willie Nairn to The John McLean Society.
+nd
+3
+Research materials
+Includes: printouts of articles written by Willie Nairn for The Scottish Cooperator and other articles published in Justice; photocopy of Chapter IV, Glasgow in the Dawn from William Morris and the early days of the socialist movement by J. Bruce Glasier; 1888 – 1988, The Centenary of the Founding of the Scottish Labour Party; photocopy of an obituary of Willie Nairn printed in The Social -Democrat, Vol VI. No.2, 15 February 1902; various photocopies of socialist related texts and handwritten notes about the debate between Willie Nairn and Annie Besant.
+nd
+4
+Correspondence
+1988 – 1993
+5
+Publicity
+A4 poster for a lecture given by Les Forster about the book for The John Maclean Society on 21 March 1992.
+1992
+6
+Finance
+Invoices and receipts from bookshops and Clydeside Press.
+1991 – 1992
+7
+Newspaper Cuttings
+Reviews of All for the Cause by: Peter Fryer, Workers Press 1992; William Hunter, Glasgow Herald, 30 January 1992, Alex Clark, Morning Star 14 December 1992 (a reply to this review is in correspondence T/SOR/36/1/3/3).
+1992
+5
+Harry McShane
+1
+Harry McShane [typed manuscript] Read on line.
+nd
+2
+A Marxist-Humanist Pamphlet, two articles by Raya Dunayevskaya[:]
+Footnote on the Detractors of Lenin 
+The Theory of Alienation – Marx’s Debt to Hegel
+Foreword by Harry McShane. Available online at: https://www.marxists.org/archive/dunayevskaya/archives/4787.pdf
+Also includes a Guide to the online Raya Dunayevskaya Collection and Supplement. READ ON LINE
+1970 and 1988
+3
+Condemned From The Dock: John Maclean, His famous speech against War and Capitalism, [Introduction by Harry McShane]. Published by The John McLean Society. READ ON LINE.
+1973
+4
+Marx’s Capital and Today’s Global Crises by Raya Dunayevskaya.
+Special Preface by Harry McShane. READ ON LINE
+1978
+5
+Three Days That Shook Edinburgh by Harry McShane [New Edition 1994 by AK Press], [Introduction by Les Foster].
+Also includes: correspondence with AK Press; a mock up of the pamphlet; typed notes of the introduction by Les and typed profiles of John McGovern, Aitken Ferguson and Harry McShane by Hugh Savage which are printed in the pamphlet. READ ON LINE.
+New Edition plus correspondence. READ ON LINE. 
+1994
+6
+Texts
+Includes handwritten and typed documents by Les and Hugh Savage on McShane including: speech given by Les at the ceremony for scattering McShane’s ashes at Nelsons Monument on Glasgow Green; obituaries for publication; typed questions to Les and Ned Donaldson on the history of workers’ struggle in Glasgow; Socialist Review, Monthly magazine of the Socialist Workers Party, 16 May – 14 June 1981 with an interview of Harry McShane by Mike Gonzales pg.14; Hugh Savage’s obituary of Harry McShane published in Scottish Labour History Review, No.2 Autumn/Winter 1988 and the transcript for a lecture given by Les Forster on Harry McShane to the John McLean Society. READ ON LINE.
+nd
+7
+Harry McShane and the Scottish Roots of Marxist-Humanism by Peter Hudis. Published by The John McLean Society.
+Contains one copy, one photocopy, a leaflet for the launch of the publication and an agenda.
+1993
+8
+Publicity material for events
+Includes: A4 and A3 posters for EIS Lanarkshire Association, The Great John McLean Night, No Mean Fighters, John McLean and Harry McShane, Annual Memorial Lecture Given By Ray Challinor, Labour Historian [1988]: A2 poster for the Scottish Labour Party 1888-93, A Commemorative Exhibition, People’s Palace Museum 1 May – 1 July 1988 and Socialist Workers Party, A5 flier for Harry McShane, 100th Anniversary Memorial Meeting, Speaker Paul Foot [1991].
+1988 – 1991
+9
+Correspondence
+1958 – 1990
+10
+Newspaper cuttings
+various
+1
+Obituaries
+nd
+2
+Miscellaneous
+nd
+11
+Miscellaneous
+Includes printouts and photocopies of: Socialism and Slavery by H.M. Hyndman; newspaper articles 27 Jan 1951; Cunninghame Graham’s Maiden Speech; pg. 80 and 81 of The Women’s Liberation Movement as Revolutionary Force and Reason; pg435 and 436 of Labour monthly, October 1958; material on squatting and Glasgow District trades Council Centenary Brochure 1858 – 1958, A Hundred years of Progress [compiled by Harry McShane].
+nd
+6
+Rocking the Boat: Memoirs of a Glasgow Socialist and Whistleblower, Les Forster [Published by Clydeside Press].
+1995
+1
+Publication
+Contains two copies one of which includes five photographs printed within the publication.
+1995
+2
+Manuscripts and notes
+Handwritten and typed notes, manuscripts including 1st and 2nd drafts. 
+nd
+3
+Book Launch
+Contains invitations. Posters and notes for the speech by Les at the launch in the Clutha Vaults, Glasgow 5 December 1995.
+1995
+4
+Sales
+Also includes typed list of the names and addresses of people to send the book to.
+1995 – 1996
+5
+Correspondence
+1992 -1997
+6
+Newspaper Cuttings
+Includes reviews of the publication in the Milngavie Herald and the Workers Press. 
+1995 – 1996
+7
+With Pen in Hand, Outspoken Essays From a Writers Notebook by Les Forster.
+1
+Collection of essays printed and bound by Les. Contains one bound and one unbound copy covering themes such as: Robert Service; Jack London; the Klondike gold rush; Adam Smith; Annie Swan; Donald Macrae; banking; From Ferguson to Marx; Glasgow Green; Scottish Reformation; John Millar and Patrick MacGill.
+nd
+2
+Manuscript and notes
+Typed and handwritten manuscript and notes for the publication. 
+nd
+3
+Research materials
+Includes a copy of The Satire of the Three Estates by Sir David Lindsay, The Acting Text prepared by Robert Kemp for Tyrone Guthrie’s production at the Edinburgh Festival 1949 and newspaper articles about the Klondike gold rush.
+1949 -1998
+8
+Against the Odds, Grace Forster, A life of courage, compassion and caring by her husband Les Forster [also titled Remembering You, Grace Forster, A life of courage, compassion and caring by her husband Les Forster].
+nd
+1
+Short biography about his late wife, printed and bound by Les. Contains seven copies, one with photographs.
+nd
+2
+Manuscript and notes.
+Also includes handwritten essays which are a sequel to the biography and cover the period Summer 1998 – December 1999.
+nd
+9
+Notebooks
+Twenty six small reporter notebooks and jotters with handwritten notes by Les. 
+nd
+10
+Miscellaneous Notes
+Various hand written notes on a variety of subjects including: Glasgow Trades Council; Willie Nairn and Patrick McGill; Mayday; Municipal Socialism; John S Clarke; Dundee free speech fight; the American labour movement; a review of John Taylor Caldwell’s book Come Dungeons Dark, The Life and Times of Guy Aldred, Glasgow Anarchist; H.M. Hyndman; Raya Dunayevskaya; Tony Blair; notes for a speech and Bush, Mayor Saddam, The Criminal Class.
+nd
+11
+Speech at a benefit concert at Glasgow Trades House in support of striking signalmen.
+nd
+12
+Untitled manuscript
+30 page handwritten manuscript about various aspects of football in Glasgow. 
+nd
+13
+The Friend’s of the People’s Palace
+1989 – 1995
+1
+The Friend’s of the People’s Palace News, pamphlets, fliers and posters.
+Includes: News Issue no. 29, January 1989; Sister Smudge, The Peoples Palace Cat pamphlet and postcard; defend Elspeth King flier; A Friend Unfairly Treated, A free pamphlet on the Elspeth king debate by Alasdair Gray; Thomas Paine 200 year Anniversary Lecture poster and flier, organised by the Friend’s with introductory handwritten notes by Les Forster, 1991; Glasgow Socialist Heritage Trail. Suggested format and some content (for discussion only); Socialist Revolt! flier; Calton Weavers Memorial flier for the unveiling of new memorial stones unveiled by Elspeth King,1992 and a Friend’s May Day flier, 1993.
+1989 – 1993
+2
+Workers City
+Includes: stickers for an event at the Winter Gardens to celebrate May Day 1990; handwritten notes by Les on the history of Glasgow Green; letter from Hugh Savage inviting people to a joint meeting – The Future of Glasgow Green in July 1990 with a Glasgow Green Factsheet and a flier for a Public Protest Meeting regarding Elspeth King and Michael Donnelly, September 1990.
+1990
+3       Newspaper Cuttings
+Various cuttings about Elspeth King, Michael Donnelly and Glasgow City of Culture 1990 including letters written by Michael Donnelly to the press as well as a photocopy of the article, Mr and Mrs History, published in The Scots magazine and a feature in The Herald highlighting Elspeth King’s talk celebrating the Bicentenary (1795 – 1852) of Frances Wright in 1995, includes flier for the event.
+1990-1995
+14
+Thomas Paine Society (T.P.S.)
+Includes: Thomas Paine Society Newsletter No. 11, 119; Call for Papers, Thomas Paine and The Horizons Of Democracy, An International Symposium, University of East Anglia, 1994, letter from Hugh McNaughton with T.P.S. Echo, No. 1, 1996 and two leaflets about Thomas Paine.
+1993 – 1995
+15
+Eric Heffer
+Includes: Born in the labour movement, Workers’ Liberty, No. 11 pages 13-16 (part one of an interview with Eric Heffer, available online at http://www.workersliberty.org/system/files/NO11.pdf); Joseph Stalin by Eric Heffer, Heroes &amp; Villains, The Independent Magazine, 30 December 1989; Eric Heffer obituary by Tony Benn, The Guardian and a hand-written letter by Les Forster in reply to comments by Ian Aitken reporting the memorial service in The Guardian.
+1989 – 1991
+16
+Ned Donaldson
+Includes: correspondence, 30 page typed autobiography and other typed notes about his life; funeral programme; tribute to Ned from the Springburn and Possilpark Housing Association; handwritten obituary by Les Forster; obituary by Andrew Reid for The Herald and obituary in The Northender.
+nd
+17
+James Kelman
+1999 – 2016
+1
+Texts
+James Kelman texts sent to Les Forster. Includes: Scottish radical history; the British fascist movement, communist and socialist activities up until the 1930’s; introduction written for Born Up A Close – Memoirs of a Brigton Boy by Hugh Savage and Family Business and Identity. Also includes a letter from Billy Clark
+1999 – 
+c 2006
+2
+Correspondence
+Includes a letter written to Les while Kelman was in Texas.
+1998 – 2001
+3
+Newspaper cuttings
+Various articles and interviews with James Kelman in: Sunday Times; The Herald; The Guardian and Chapman, issue 57, Summer 1989.
+1994 – 2001
+4
+Thirsty Books Live! Presents Thirsty Lunch
+Programme for Edinburgh Festival Fringe 2006 including Born Up A Close, introduced by James Kelman (page17). Also includes handwritten notes on Hugh Savage by Les Forster.
+6 – 20 August 2006
+5
+Les Forster Obituary
+Five copies of the obituary of Les written by Kelman with handwritten edits and four copies of Les’s funeral programme.
+2016
+18
+Obituaries
+Handwritten by Les Forster.
+1
+Colin Munroe
+nd
+2
+Hugh Savage, 1918 – 1996
+Contains three obituaries, two of which are the same with a couple of different edits.
+1996
+3
+Sparky Forster, 1992 – 2008
+2008
+19
+Correspondence
+1
+Letters to and from the Press.
+1980s – 1990s
+2
+Letters and cards from Les to Grace.
+1967 – 1973
+3
+Letters to Les and Grace from Bill McCulloch.
+1980s – 1990s
+4
+Letters to and from the Scott Savage (son of Hugh Savage).
+1996 – 2005
+5
+Various
+1970s – 2000s
+20
+Photographs
+Includes fifteen photographs of Les and Grace.
+nd
+21
+Newspaper cuttings and magazine articles 
+1
+The British Monarchy
+Includes the New Statesmen, Anti-Jubilee Number, 3 June 1977 and various articles about the Royal Family and Republicanism vs Monarchy.
+1977-2000
+2
+John MacLean
+Includes: The Man Who Turned The Clyde Red by Marion Pallister, Evening Times, 9 August 1979 and John MacLean: Red Revolutionary, Glasgow Guardian, May Day Special, 1 May 1986.
+1976 and 1986
+3
+Adam Smith
+Various articles about: Adam Smith; his bicentenary; the Adam Smith Institute; right-wing politics; Thatcherism and the Poll Tax.
+1988-1990
+4
+Various
+3 folders of cuttings covering a wide variety of political issues.
+nd
+22
+Miscellaneous
+1
+Texts
+Includes: 2 handwritten texts on Marx (author unknown); political text by someone involved with Clydeside Action on Asbestos in the 90s (author unknown); photocopies of various political texts; part of a bibliography and print outs of searches for Robert Frost and R.B. Cunninghame Graham publications.
+nd
+2
+Exhibition Brochures
+Includes: Scottish Football, A History, Third Eye Centre, Travelling Exhibition, 1983; Tremble Ye Tyrants, An Exhibition About 200 Years Of Organised Labour In Scotland, 1986; Blitz, Tom McKendrick, Lillie Art Gallery, Travelling Exhibition 1986-87; Muriel and Archibald Sandeman, Kelvingrove Art Gallery and Museum, 1987; A Painted Portrait II, A tribute to the life of Mary Armour (1902-2000), 2002 and Joan Eardley (1921-1963), 40th anniversary tribute, 2003.
+1983-2003
+3
+Flyers and postcards 
+Includes flyers for: Save Maryhill Juniors, Kelvingrove Park Action Group; Working Class Movement Library; Marx Memorial Library and various postcards.
+Also includes photocopy of the poem “The Micky Dam” (Mugdoch Dam 1856-59).
+nd
+4
+Flat Caps
+2 flat caps worn by Les.
+nd
+23
+Serials
+1
+Camerawork
+No. 17 January/February 1980, pages 7-10 featuring: Matchgirls’ strike 1888.
+1980
+2
+Cencrastus
+The Magazine For Scottish &amp; International Literature, Arts And Affairs
+Issues: No. 28, Winter 87/88 and 3 copies of No. 30, Summer 1988 which features – All For The Cause: Tributes to Harry McShane, pages 9 -14: A Unique Link by Raymond Challinor; Fighter, Thinker, Marxist-Humanist by Olga Domansk; The Man I Knew by Les Forster, A Remarkable Man by Nan Milton and All for the Cause by Raymond Ross.
+1987-1988
+3
+Daily Mirror
+Special Anniversary Edition from the 1st day of WWII, 4 September 1939.
+nd
+4
+New Internationalist
+Issues 404, September 2007, 405, October 2007, 408, January/February 2008.
+2007-2008
+5
+New Interventions
+A Journal of Socialist Discussion and Opinion, Vol. 7 No. 1 Winter 1996
+1996
+6
+New Statesman
+Issue published 9 April 1982. Also includes photocopies of 2 articles by John Pilger: A one-sided bloodfest. The allied victory was a mass slaughter, 8 March 1991 and Liberal triumphalism. Liberals are helping create the new Big Lies of war, 15 March 1991.
+1991
+7
+Revolutionary Notes 
+Issue No 1, July 1996
+1996
+8
+Scottish Anarchist, Number 3 
+Duplicate in Dek Keenan Collection
+1995
+9
+Scottish Labour History Journal
+Issues: No.3, November 1970; No. 4, July 1971; No. 14, May 1980; No. 16, 1981; No. 17, 1982 and No. 25, 1990.
+1971-1990
+10
+Scottish Labour History Review
+Published by the Scottish labour History Society, Issue No. 1 Autumn/Winter 1987.
+1987
+11
+Scottish Workers Republic
+Vol. II, No. VII.
+nd
+12
+Socialist Worker Review
+Issue published October 1986 (pages 13-24).
+1986
+13
+Socialist Revolt
+Organ of the Socialist Workers Federation
+Includes: Crisis In The Communist Party by J. Blitz; Revolt, No.6 and 5 copies of Socialist Revolt, Vol. 1 No.8 Jan-Mar 1957. Socialist Revolt, Vol. 1 No. 9 April-June 1957 (pages 5-8). Read on line: Crisis in The Communist Party
+1955-1957
+14
+The Glasgow Keelie
+Issues 1-7, May, July, September and November 1991, April, May, July and September 1992, 16 -20 (duplicates in  John Cooper Collection T/SOR/3/56/17). Read the full collection On Line here.
+1990-1993
+15
+The New Commune
+An Organ of Revolutionary Socialism
+3 copies from July 1960. Read  No.6 on line.
+1960
+16
+The Suffragette
+No. 35-Vol 1, Friday, June 13, 1913 (Great Newspapers Reprinted No. 28 with The Suffragette Derby 1913 wrap round))
+1913-1914
+17
+Visual History
+Trade Union Labour Co-Operative Democratic History Society
+Issue No. 7 1980.
+1980
+18
+Workers Revolutionary Party
+Workers Press (pages 3-6)
+1988
+24
+Publications and Pamphlets
+1
+A Letter in Reply to a Request for a poem for a Poems for Bosnia anthology, “in which The Independent has an interest”. From Tom Leonard.
+Published by Infolio.
+(gift to Ned Donaldson signed by Tom Leonard. Also Includes a letter from Leonard to Ned).
+1993
+2
+Against Individual Terrorism, Leon Trotsky. First printed 1974, Pathfinder Press, New York, ISBN 0-87348-334-0.
+1980
+3
+Crofter Power in Easter Ross. The Land League at work 1884-88 by Rob Gibson.
+Published by Highland Heritage Educational Trust.
+1986
+4
+Glasgow 1990. The TRUE Story Behind the Hype by David Kemp. An ArtWork special from Famedram.
+1990
+5
+John Maclean: Educator of the Working Class by James D. Young. Published by Clydeside Press.
+1988
+6
+Labour Nationality and Religion by James Connolly. Being a discussion of Lenten Discourses against Socialism delivered by Father Kane, S. J., in Gardiner Street Church, Dublin, 1910. 1972 edition with an introduction by A. Raftery.
+1972
+7
+Life and Labour 2, Factory Kings &amp; Slaves by John Hargreaves and Life and Labour 3, Caring and Sharing by Ruth Breakell. Published by Pennine Heritage Network.
+1980s
+8
+Pre-Plenum Discussion Bulletin #1 November 1987, Resident Editorial Board, Draft for Marxist-Humanist Perspectives 1988.
+1987
+9
+Poplar Story, National Museum of Labour History.
+nd
+10
+Socialism Made Easy, By James Connolly, A Militant Pamphlet. First published 1909.
+August
+1981
+11
+Tales of Old Eastwood, Giffnock and Thornliebank by Anna Blair. Published by Eastwood District Libraries. ISBN: 1 87121512 9.
+1996
+12
+Talking About Socialism by Tony Benn, based on an interview conducted with Tony Benn by John Foster in October 1995. Published by Unity Books, Glasgow.
+February
+1996
+13
+The Cork Workers’ Club, Historical Reprints No. 7, The Irish Question 1894, The Land League, The Church and the Working Class by John Leslie. [First published in serial form in the British Social-Democratic Federation paper, Justice, between March 24th and May 5th, 1894].
+June
+1986
+14
+The Last Threads, Life in a Glasgow Weaving Mill by Ann Kerr. Published by Clydeside Press. A Play in Two Acts. ISBN 0 9512057 4 9.
+May
+1990
+15
+The Middleton Overseer and the Madman and other poems. [Collected for Social Workers With Notes by Colin Harvey]. Published by Heatherbank Press, Glasgow. ISBN 0 905192 05 2.
+Also includes a copy of The Welfare History Picture Library Catalogue, The Heatherbank Museum of Social Work.
+1976
+16
+The Re-Conquest of Ireland by James Connolly. [With an Introduction by A. Raftery]. Published by New Books Publications, Dublin and Belfast.
+1972
+17
+Thomas Muir of Huntershill 1765-99 by M. Donnelly. Author and Researcher. Published by Bishopbriggs Town Council.
+Contains 2 copies and a brochure for Thomas Muir, Father of Scottish Democracy 1765 – 1799, a programme of events to mark the bi-centenary of Thomas Muir’s death.
+1975 and 1999
+18
+Torture Trial in Belfast. Eye-witness Observer tells Full Story of Mallon and Talbot whose acquittal after Murder Trial shocked the Unionists and indicted the R.U.C. By John Hostettler, Connolly Association’s Independent Observer. A Hair-raising Story.
+c1958
+19
+Two Members’ Monologues and A Handy Form for Artists for use in connection with The City of Culture [by] Tom Leonard. Published by The Edward Polin Press.
+1989
+20
+Vote: What For? [By] Robert Lynn.
+Duplicate in Dek Keenan Collection.
+nd
+21
+   Publications by Guy Aldred
+Socialism and Parliament, Part II. Government By Labour, The Devil’s Chaplain, The Story of the Rev. Robert Taylor, M.A., M.R.C.S. (1784 – 1834) and Rex v. Aldred, London Trial, 1909, Indian Sedition, Glasgow Sedition Trial, 1921.
+1942
+1948
+25
+Books
+1
+Young, James D., Making Trouble, Autobiographical Explorations and Socialism. Published by Clydeside Press.
+Contains 2 copies.
+1987</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1990-1995</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/37</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>37. Faslane Peace Camp Collection.</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/faslane-peace-camp-collection/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1
+Administrative papers</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1986-2002</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>GB243 T/SOR/38</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>38. Máirtín Ó Catháin Collection.</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/mairtin-o-cathain-collection/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1
+Glasgow Anarchist Group
+1
+Official Preamble:-
+FOR A SOCIALISM THAT LIBERATES! Read on line,   PDF and other downloads.
+c1994
+2
+Aims and Principles.  Read on line,   PDF and other downloads.
+05/12/94
+3
+Celebration of Anarchism, Glasgow – 1996
+Programme &amp; Information brochure for: A ‘Summer School’ of debate and discussion, with relevance to a changing world.  Read on line,   PDF and other downloads.
+24 August 1996
+4
+Correspondence
+Two letters from Robert Lynn regarding the Aims and Principles of the Glasgow Anarchist Group and the ‘Summer School ‘ event.  Read on line,   PDF and other downloads.
+1995-1996 
+2
+Scottish Federation of Anarchists
+1976-1979
+1
+Dundee Class War 
+Proposed aims and principles for Scottish Federation of Anarchists.  Read on line,   PDF and other downloads.
+n.d
+2
+Mailout.  Read on line,   PDF and other downloads.
+1994
+3
+Newsletter.   Read on line,   PDF and other downloads.
+September 1994
+4
+Scottish Anarchist 
+Issues: No.1, September 1994 and February 1995.  Read on line,   PDF and other downloads.
+1994-1995
+3
+Serials
+Frank Leech was a prominent Anarchist in Glasgow (1900 – 1953) this is a letter from his nephew also called Frank Leech.  Read on line,   PDF and other downloads.
+5 April 2011
+4
+Serials.
+1
+The Anarchist.  Vol.1 No.1 Read on line.
+3 May 1912</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1995-1996</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>39.</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>39. Camcorder Guerrillas Collection</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/camcorder-guerrillas-collection/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Camcorder Guerrillas Collection</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>40. John Frew Collection.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/john-frew-collection/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1
+Posters
+An eclectic range of posters including: Media Tech gigs at Glasgow Polytechnic; Thrust; popprotest art exhibition, Glasgow Book Collective; The Pleasure Tendency; Banjax The Poll Tax; West End Crimes (anarchist news sheet); EXPERi—MENTAL…Films∙Booze∙Band∙Promiscuity∙Anti-Disco; Reclaim May-Day and political collages.  View on line and other options
+2
+Serials
+1
+ANOK4U2.  Read on line and other options.
+n.d.
+2
+An Phoblacht, 
+Republican News. Read on line and other options.
+16 August 1990
+3
+Carn, 
+A Link Between The Celtic Nations No.63 Autumn 1988. Read on line and other options.
+1988
+4
+Black Bairn, 
+Forthside Anarchist News-Sheet. Read on line and other options.
+March 1984
+5
+Clydeside Anarchist 
+Issue no.2, Summer 1984. Read on line and other options.
+1984
+6
+eradicate. Read on line and other options.
+n.d.
+7
+Festival News + Views
+Two issues: No.2½ May 1987 and No. 3 June 1987. Read on line and other options.
+1987
+8
+The Heretic, 
+Issue One, Student Special. Read on line and other options. 
+October 1993
+9
+The Glasgow Keelie
+No. 5
+Available online at http://www.workerscity.org/keelie/nov_1990.html
+Nov 90
+10
+Practical Anarchy, Glasgow’s Revolutionary Newspaper
+Three issues: 5th April 1984; 25th June 1984 and one with no date. Also includes two A5 flyers: A CLYDESIDE ANARCHIST collective ? and Handy hints – DESTROY that which would destroy you… Read on line and other options.
+1984
+11
+Re-fuse Collection
+E.K. Anarchists News Sheet. Read on line and other options.
+May/June 1984
+12
+Refuse and Resist, 
+News From Local Anti-Poll Tax Groups. No.3. Read on line and other options.
+April/May 1990
+13
+The Scorcher
+Issue 1 (2 copies) also includes an A3 poster. Read on line and other options.
+January 1986 
+14
+Scottish Workers Republíc 
+Scottish Republican Socialist Party. Read on line and other options.
+n.d.
+15
+The Shadow
+Winter 90-1 no.1. Read on line and other options.
+1990 – 1991
+16
+Skint
+The newspaper of the West of Scotland Area National Union of Students Issue 4. Read on line and other options. 
+September/ October 1990
+17
+Spank. Read on line and other options.
+c1987
+18
+Stonehenge 86 Campaign
+ News-sheet Polytrantric Newsletter No 17. Read on line and other options.
+Feb 1986
+19
+Strike Back!
+Issue No 5. Read on line and other options.
+May 1984
+20
+Stuff Xmas 2 copies. Read on line and other options.
+nd
+21
+The Captive Voice, An Glór Gafa.
+The Voice of the Irish Republican Prisoners of War. Vol. 2. No. 2. Summer 1990. Read on line and other options.
+1990
+22
+Violence &amp; Nonviolent Action. Read on line and other options.
+nd
+23
+West End Crimes,
+Maryhill Anarchists News-sheet issues No.1 and No. 2 (3 copies). Read on line and other options.
+April – August 1984
+3
+Miner’s Strike
+Includes: newspaper cutting and news-sheet about the occupation of Price Waterhouse offices in Glasgow and The Real Reason for Pit Closures news-sheet. Read on line and other options.
+1984-1985
+4
+The Pleasure Tendency. 
+Includes a note to John Frew from The Pleasure Tendency with the fliers Conservation of the Monument (2 copies). Read on line and other options.
+20 May 1986
+5
+Free University Network (F.U.N.)
+Includes: Free University – The First Year and a programme for Scratch Parliament. Read on Line and other options.
+1988
+6
+Radio Gladice, 
+101FM 241MW 1242KHZ AM, Includes: Radio Gladice Station Structure and four mixed tapes by DJ Adams Adam. Read on line and other options.
+1989
+7
+Miscellaneous
+1
+Direct Action Movement.
+Includes:Organisational Basis – A). Statement of Organisation of the Direct Action Movement (passed at conference, Leeds, 30/6/79) and Syndicalism Defined, Direct Action Movement, c/o164-166 Corn Exchange Buildings, hanging Ditch, Manchester M4 3BN. Read on line and other options.
+1979
+2
+1968: 
+What Really Happened. In Their Own Words. New-sheet with reprints from 1968. Read on line and other options.
+nd
+3
+Variant magazine. 
+Includes A4 sheet about the forthcoming publication of Variant and a press release from 1990. Read on line and other options.
+1984 – 1990
+8
+Newspaper Cuttings
+Includes photocopy of two newspaper articles: Student protest disrupts Minister’s college visit by Eric McKenzie, The Scotsman 21 October 1988 and Student Protest mars launch of college company by Eilzabeth Buie, Glasgow Herald, 21 October 1988. Also includes, The secret of Thistle’s winning habit, The Glaswegian 13 January 1994. Read on line and other options.
+1988 – 1994</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1984-1985</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>40. John Frew Collection.</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>GB243 T/SOR/41</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>41. Billy Clark Collection</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/billy-clark-collection/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1
+Free University Minutes. Read on line.
+1987
+2
+Scratch Parliament. Read on line.
+1988</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>41. Billy Clark Collection</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>GB243 T/SOR/42</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>42.  Farquhar McLay Collection</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/farquhar-mclay-collection/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>42.  Farquhar McLay Collection</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>Reference Code
+GB243 T/SOR/43</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>43. Tommy Kayes Collection.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/tommy-kayes-collection/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1977-1979</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>43. Tommy Kayes Collection.</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>GB243 T/SOR/44</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>44. JCSR Collection</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/jcsr-collection/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>44. JCSR Collection</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>GB243 T/SOR/45</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>45. Stevie Gallagher Collection.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/stevie-gallagher-collection/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>45. Stevie Gallagher Collection.</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>GB243 T/SOR/46</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>46. Brian Biggins Collection.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/brian-biggins-collection/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Brian Biggins Collection.</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>GB243 T/SOR/47</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>47. Ronnie Alexander Collection.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/ronnie-alexander-collection/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>47. Ronnie Alexander Collection.</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>Reference Code</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>48. Elspeth King and Michael Donnelly Collection.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/elspeth-king-and-michael-donnelly-collection/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1
+The Strickland Press Addressograph Machine Labels
+Contains the labels, tin, in two metal boxes (incomplete) from the Strickland Press of Guy Alfred Aldred (1886-1963), Glasgow Anarchist. Preserved in the office of his biographer John Taylor Caldwell (1911-2007). Collected with the intention of transcribing the addresses as a witness to Guy Alfred’s influence, world-wide. 
+c. 1939- 1968</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1974-1991</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>48. Elspeth King and Michael Donnelly Collection.</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>GB243 T/SOR/49</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>49. Mick Gallagher Collection.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://spiritofrevolt.info/mick-gallagher-collection/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>description not found</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>date not found</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>extent not found</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>49. Mick Gallagher Collection.</t>
+          <t>This list of collections will be added to on a regular basis as the archive grows. We have several collections still to be processed, also we will start to upload images associated with the various items on the catalogues, so keep coming back for more.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/catalogue_database_3.xlsx
+++ b/catalogue_database_3.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -662,7 +662,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">1
+          <t>1
 Castlemilk Claimants Union (CCU)
 1
 Minutes
@@ -1108,7 +1108,7 @@
 Astrid Proll: the case against her extradition. Friends of Astrid Proll. Front Cover.
 n.d.
 25
-Introduction to Social Revolution. Read on line, courtesy of Libcom.
+Introduction to Social Revolution. Read on line,
 n.d.
 26
 The Organisational Platform of the Libertarian Communists. Anarchist Workers Association.  Read on line: courtesy of theanarchistlibrary.org
@@ -1219,7 +1219,7 @@
 Towards a Citizens’ Militia: Anarchist Alternatives to Nato &amp; the Warsaw Pact. IRSM/1st of May Group.  Read on line,  courtesy of Libcom.  Front Cover.
 1980
 62
-Once Upon A Time There Was A Place Called Nothing Hill Gate… A Critical History of the Notting Hill Carnival, Notting Hill Gate as a whole, and beyond.  Read on line, courtesy of Revolt Against Plenty.  Front Cover.
+Once Upon A Time There Was A Place Called Nothing Hill Gate… A Critical History of the Notting Hill Carnival, Notting Hill Gate as a whole, and beyond.  Read on line,
 1988
 63
 GRYPS: youth information and counselling service. Front Cover.
@@ -1300,7 +1300,7 @@
 The Two Nations. A May-Day Message. The text of a Speech delivered on May 5th 1963 in Central Halls Glasgow.  Read on line.PDF and other downloads.
 1963
 89
-Socialism and Marriage by Guy Aldred. Published by Hobnail Press.  Read on line. Courtesy of The Sparrows Nest.
+Socialism and Marriage by Guy Aldred. Published by Hobnail Press.  Read on line.
 2006
 90
 On Law by William Godwin. Published by Freedom Press.  Read on line,   PDF and other downloads.
@@ -1352,7 +1352,10 @@
 106
 France – May ’68. Produced by the “Calderwood 15”.
 107
-The Bourgeois role of Bolshevism It’s </t>
+The Bourgeois role of Bolshevism It’s relation to World Revolution. Published by Glasgow Peoples Press Historical Reprint.
+n.d.
+108
+Ele</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1402,7 +1405,7 @@
 Libertarian Analysis. Vol. 1 , Number 4, December 22. New York. Articles by Sam Dolgoff, Milton Shapiro, Joel Spring, J.M. Frager, Gustav Landauer, Leonard Liggio
 1971
 6
-Anarchy 54 Vol. 5 (8), August. London : Freedom Press. Articles by Ellerby, Bubuer, C.W., Landauer, J.T. Read on line. Courtesy of Sparrows Nest.
+Anarchy 54 Vol. 5 (8), August. London : Freedom Press. Articles by Ellerby, Bubuer, C.W., Landauer, J.T. Read on line. 
 1965
 7
 Bratach Dubh Anarchist Pamphlets. No. 1-4, No 8. Elephant Editions. Read on line,   PDF and other downloads. Covers only, Read On Line,  PDF and other downloads.
@@ -1471,7 +1474,7 @@
 Les Dossiers de L’Histoire. May/June, No. 13. French journal about the history of anarchism in the context of May and June 1968. Short outline of the history with images of key events and key people
 1978
 29
-Searchlight South Africa. A Marxist Journal of South African Studies. No.1. No.2, Read on line. No.3. No.4, Read on line. No.5. No.6 Read on line. All courtesy of Digital Innovation South Africa.  1988-1991. ISSN 09543384
+Searchlight South Africa. A Marxist Journal of South African Studies. No.1. No.2, Read on line. No.3. No.4, Read on line. No.5. No.6 Read on line.
 1988-1991
 30
 m/f. A feminist journal, No 1. London
@@ -1483,7 +1486,7 @@
 Processed World. No.4,  Read on line and other options. No.6, Read on line and other options. No.10, Read on line and other options.  San Francisco. ISSN 07359381 The full; run of this magazine is available as read on line at archive.org.
 1982-c.1983
 33
-Camerawork. No. 26, April. London : Camerawork. ISSN 03081672. Read on line. Courtesy of Four Corners Archive, full run of this magazine is available at, Four Coners Archive.
+Camerawork. No. 26, April. London : Camerawork. ISSN 03081672. Read on line.
 1983
 34
 Stigma. Nos. 3, 4. Glasgow : School of Art S.R.C.
@@ -1665,7 +1668,7 @@
 OIS. Organisation of Iranian Students in England, Scotland and Wales. News bulletin. Vol. 1 No. 4, Vol. II Final Issue
 1986-1987
 94
-Que Se Vayan Todos. Argentina’s Popular Uprising. An eyewitness account of the financial meltdown and ongoing grass-roots rebellion. Part 1 &amp; 2, February/July. No publisher. Read on line. Courtesy of The Anarchist Library.
+Que Se Vayan Todos. Argentina’s Popular Uprising. An eyewitness account of the financial meltdown and ongoing grass-roots rebellion. Part 1 &amp; 2, February/July. No publisher. Read on line.
 2002
 95
 Labour Focus on Eastern Europe. A Socialist Defence Bulletin on Eastern Europe and the USSR. London. Vol. 4, 1-3 (one issue). Vol.5 Nos. 1-2, Read on line only. Courtesy of Resistant Strain.
@@ -2347,7 +2350,15 @@
 318
 The Workers’ Dreadnought. Workers’ Suffrage Organisation. London. Vol IV, No 18
 1917
-3</t>
+319
+The New Spur. Edited and published by Guy A. Aldred. Glasgow. Vol 1, No 5
+1934
+320
+The Word. United Socialist Movement. Edited and published by Guy A. Aldred. Glasgow. Vol 1, No 2
+1939
+321
+Consenting Adults. No 2. London
+1997</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3741,7 +3752,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3784,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3816,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3848,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3880,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3912,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3944,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3976,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -3997,7 +4008,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4040,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4072,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -4093,7 +4104,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4136,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4191,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4398,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4502,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5217,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5435,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -5527,7 +5538,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5616,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5672,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -6775,7 +6786,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -6812,7 +6823,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6873,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7390,7 +7401,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7434,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7508,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7529,7 +7540,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7698,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7724,7 +7735,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7767,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7789,7 +7800,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7832,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7864,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7885,7 +7896,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7928,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7952,7 +7963,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7995,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>extent not found</t>
+          <t>Error: Unable to parse extent: 'NoneType' object has no attribute 'find'</t>
         </is>
       </c>
     </row>
